--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\HeadOffice\Kassa_ve_Inkassasiya_Proseslerinin_Idare_Edilmesi_Dep\Tehlil_ve_koordinasiya_shobesi\texniki_id\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\filesrv05\Head Office\Kassa_ve_Inkassasiya_Proseslerinin_Idare_Edilmesi_Dep\Tehlil_ve_koordinasiya_shobesi\texniki_id\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$573</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$579</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="590">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1774,6 +1774,24 @@
   </si>
   <si>
     <t>A0100267</t>
+  </si>
+  <si>
+    <t>-1001983848449</t>
+  </si>
+  <si>
+    <t>A0100512</t>
+  </si>
+  <si>
+    <t>A0100513</t>
+  </si>
+  <si>
+    <t>A0100514</t>
+  </si>
+  <si>
+    <t>A0100515</t>
+  </si>
+  <si>
+    <t>A0100517</t>
   </si>
 </sst>
 </file>
@@ -1837,11 +1855,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2147,15 +2165,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B576"/>
+  <dimension ref="A1:F581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="I255" sqref="I255"/>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="D578" sqref="D578"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
@@ -2338,16 +2357,16 @@
       <c r="A23" t="s">
         <v>488</v>
       </c>
-      <c r="B23" s="2">
-        <v>-1001706381519</v>
+      <c r="B23" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="2">
-        <v>-1001983848449</v>
+      <c r="B24" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2394,8 +2413,8 @@
       <c r="A30" t="s">
         <v>355</v>
       </c>
-      <c r="B30" s="2">
-        <v>-1001983848449</v>
+      <c r="B30" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2542,7 +2561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2550,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2558,7 +2577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2566,7 +2585,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2574,7 +2593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2582,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2590,7 +2609,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2598,7 +2617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>392</v>
       </c>
@@ -2606,7 +2625,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>393</v>
       </c>
@@ -2614,7 +2633,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2622,7 +2641,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2630,7 +2649,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>495</v>
       </c>
@@ -2638,7 +2657,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>496</v>
       </c>
@@ -2646,7 +2665,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2654,47 +2673,49 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>394</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="B63" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>356</v>
       </c>
-      <c r="B64" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="B64" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>357</v>
       </c>
-      <c r="B65" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="B65" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>358</v>
       </c>
-      <c r="B66" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="B66" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>359</v>
       </c>
-      <c r="B67" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="B67" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2702,7 +2723,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -2710,7 +2731,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>396</v>
       </c>
@@ -2718,7 +2739,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>497</v>
       </c>
@@ -2726,15 +2747,16 @@
         <v>480</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>253</v>
       </c>
-      <c r="B72" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="B72" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2742,7 +2764,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2750,7 +2772,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2758,7 +2780,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2766,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>397</v>
       </c>
@@ -2774,7 +2796,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2782,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2790,7 +2812,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2954,16 +2976,16 @@
       <c r="A100" t="s">
         <v>360</v>
       </c>
-      <c r="B100" s="2">
-        <v>-1001983848449</v>
+      <c r="B100" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>361</v>
       </c>
-      <c r="B101" s="2">
-        <v>-1001983848449</v>
+      <c r="B101" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2994,8 +3016,8 @@
       <c r="A105" t="s">
         <v>399</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>390</v>
+      <c r="B105" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3202,8 +3224,8 @@
       <c r="A131" t="s">
         <v>362</v>
       </c>
-      <c r="B131" s="2">
-        <v>-1001983848449</v>
+      <c r="B131" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3226,8 +3248,8 @@
       <c r="A134" t="s">
         <v>363</v>
       </c>
-      <c r="B134" s="2">
-        <v>-1001983848449</v>
+      <c r="B134" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3322,8 +3344,8 @@
       <c r="A146" t="s">
         <v>364</v>
       </c>
-      <c r="B146" s="2">
-        <v>-1001983848449</v>
+      <c r="B146" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3378,8 +3400,8 @@
       <c r="A153" t="s">
         <v>407</v>
       </c>
-      <c r="B153" s="4">
-        <v>-1001587382061</v>
+      <c r="B153" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3530,8 +3552,9 @@
       <c r="A172" t="s">
         <v>365</v>
       </c>
-      <c r="B172" s="4">
-        <v>-1001983848449</v>
+      <c r="B172" s="4" t="e">
+        <f>A30-1001983848449</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3666,8 +3689,8 @@
       <c r="A189" t="s">
         <v>366</v>
       </c>
-      <c r="B189" s="2">
-        <v>-1001983848449</v>
+      <c r="B189" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3810,8 +3833,8 @@
       <c r="A207" t="s">
         <v>50</v>
       </c>
-      <c r="B207" s="4">
-        <v>-1001783670381</v>
+      <c r="B207" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3819,7 +3842,7 @@
         <v>51</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>3</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4450,16 +4473,16 @@
       <c r="A287" t="s">
         <v>526</v>
       </c>
-      <c r="B287" s="4">
-        <v>-1001783670381</v>
+      <c r="B287" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>367</v>
       </c>
-      <c r="B288" s="2">
-        <v>-1001983848449</v>
+      <c r="B288" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4522,8 +4545,8 @@
       <c r="A296" t="s">
         <v>368</v>
       </c>
-      <c r="B296" s="2">
-        <v>-1001983848449</v>
+      <c r="B296" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4578,16 +4601,16 @@
       <c r="A303" t="s">
         <v>369</v>
       </c>
-      <c r="B303" s="2">
-        <v>-1001983848449</v>
+      <c r="B303" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>370</v>
       </c>
-      <c r="B304" s="2">
-        <v>-1001983848449</v>
+      <c r="B304" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4986,8 +5009,8 @@
       <c r="A354" t="s">
         <v>210</v>
       </c>
-      <c r="B354" s="5">
-        <v>-1001706381519</v>
+      <c r="B354" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5002,8 +5025,8 @@
       <c r="A356" t="s">
         <v>371</v>
       </c>
-      <c r="B356" s="2">
-        <v>-1001983848449</v>
+      <c r="B356" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5018,8 +5041,8 @@
       <c r="A358" t="s">
         <v>372</v>
       </c>
-      <c r="B358" s="2">
-        <v>-1001983848449</v>
+      <c r="B358" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5123,7 +5146,7 @@
         <v>85</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -5202,8 +5225,8 @@
       <c r="A381" t="s">
         <v>373</v>
       </c>
-      <c r="B381" s="2">
-        <v>-1001983848449</v>
+      <c r="B381" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -5250,16 +5273,16 @@
       <c r="A387" t="s">
         <v>374</v>
       </c>
-      <c r="B387" s="2">
-        <v>-1001983848449</v>
+      <c r="B387" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
         <v>375</v>
       </c>
-      <c r="B388" s="2">
-        <v>-1001983848449</v>
+      <c r="B388" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -5738,8 +5761,8 @@
       <c r="A448" t="s">
         <v>377</v>
       </c>
-      <c r="B448" s="4">
-        <v>-1001983848449</v>
+      <c r="B448" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5810,7 +5833,7 @@
       <c r="A457" t="s">
         <v>332</v>
       </c>
-      <c r="B457" s="6" t="s">
+      <c r="B457" s="5" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5834,8 +5857,8 @@
       <c r="A460" t="s">
         <v>105</v>
       </c>
-      <c r="B460" s="5">
-        <v>-1001706381519</v>
+      <c r="B460" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5962,8 +5985,8 @@
       <c r="A476" t="s">
         <v>385</v>
       </c>
-      <c r="B476" s="2">
-        <v>-1001983848449</v>
+      <c r="B476" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -6042,8 +6065,8 @@
       <c r="A486" t="s">
         <v>378</v>
       </c>
-      <c r="B486" s="2">
-        <v>-1001983848449</v>
+      <c r="B486" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -6154,8 +6177,8 @@
       <c r="A500" t="s">
         <v>380</v>
       </c>
-      <c r="B500" s="2">
-        <v>-1001983848449</v>
+      <c r="B500" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6202,16 +6225,16 @@
       <c r="A506" t="s">
         <v>381</v>
       </c>
-      <c r="B506" s="2">
-        <v>-1001983848449</v>
+      <c r="B506" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
         <v>382</v>
       </c>
-      <c r="B507" s="2">
-        <v>-1001983848449</v>
+      <c r="B507" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -6234,8 +6257,8 @@
       <c r="A510" t="s">
         <v>383</v>
       </c>
-      <c r="B510" s="2">
-        <v>-1001983848449</v>
+      <c r="B510" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -6266,8 +6289,8 @@
       <c r="A514" t="s">
         <v>384</v>
       </c>
-      <c r="B514" s="2">
-        <v>-1001983848449</v>
+      <c r="B514" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -6362,8 +6385,8 @@
       <c r="A526" t="s">
         <v>386</v>
       </c>
-      <c r="B526" s="2">
-        <v>-1001983848449</v>
+      <c r="B526" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -6474,8 +6497,8 @@
       <c r="A540" t="s">
         <v>387</v>
       </c>
-      <c r="B540" s="2">
-        <v>-1001983848449</v>
+      <c r="B540" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -6594,8 +6617,8 @@
       <c r="A555" t="s">
         <v>379</v>
       </c>
-      <c r="B555" s="2">
-        <v>-1001983848449</v>
+      <c r="B555" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -6658,8 +6681,8 @@
       <c r="A563" t="s">
         <v>388</v>
       </c>
-      <c r="B563" s="2">
-        <v>-1001983848449</v>
+      <c r="B563" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -6674,80 +6697,80 @@
       <c r="A565" t="s">
         <v>248</v>
       </c>
-      <c r="B565" s="2">
-        <v>-1001450241316</v>
+      <c r="B565" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
         <v>573</v>
       </c>
-      <c r="B566" s="4">
-        <v>-1001983848449</v>
+      <c r="B566" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
         <v>574</v>
       </c>
-      <c r="B567" s="4">
-        <v>-1001983848449</v>
+      <c r="B567" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
         <v>575</v>
       </c>
-      <c r="B568" s="4">
-        <v>-1001983848449</v>
+      <c r="B568" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
         <v>576</v>
       </c>
-      <c r="B569" s="4">
-        <v>-1001983848449</v>
+      <c r="B569" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
         <v>577</v>
       </c>
-      <c r="B570" s="4">
-        <v>-1001983848449</v>
+      <c r="B570" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
         <v>578</v>
       </c>
-      <c r="B571" s="4">
-        <v>-1001587382061</v>
+      <c r="B571" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
         <v>579</v>
       </c>
-      <c r="B572" s="4">
-        <v>-1001450241316</v>
+      <c r="B572" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
         <v>580</v>
       </c>
-      <c r="B573" s="4">
-        <v>-1001983848449</v>
+      <c r="B573" s="6" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
         <v>581</v>
       </c>
-      <c r="B574" s="5">
-        <v>-1001706381519</v>
+      <c r="B574" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -6762,12 +6785,53 @@
       <c r="A576" t="s">
         <v>583</v>
       </c>
-      <c r="B576" s="4">
-        <v>-1001983848449</v>
+      <c r="B576" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>585</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>589</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>586</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>587</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>588</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A573"/>
+  <autoFilter ref="A1:B579"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\filesrv05\Head Office\Kassa_ve_Inkassasiya_Proseslerinin_Idare_Edilmesi_Dep\Tehlil_ve_koordinasiya_shobesi\texniki_id\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\HeadOffice\Kassa_ve_Inkassasiya_Proseslerinin_Idare_Edilmesi_Dep\Tehlil_ve_koordinasiya_shobesi\texniki_id\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$579</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$582</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="591">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1792,6 +1792,9 @@
   </si>
   <si>
     <t>A0100517</t>
+  </si>
+  <si>
+    <t>K0100523</t>
   </si>
 </sst>
 </file>
@@ -2165,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F581"/>
+  <dimension ref="A1:F582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
-      <selection activeCell="D578" sqref="D578"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2888,9 +2891,6 @@
       <c r="A89" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
@@ -6829,8 +6829,16 @@
         <v>390</v>
       </c>
     </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>590</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B579"/>
+  <autoFilter ref="A1:B582"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$582</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="596">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1795,16 +1795,28 @@
   </si>
   <si>
     <t>K0100523</t>
+  </si>
+  <si>
+    <t>A0100295</t>
+  </si>
+  <si>
+    <t>A0100516</t>
+  </si>
+  <si>
+    <t>A0100519</t>
+  </si>
+  <si>
+    <t>A0100520</t>
+  </si>
+  <si>
+    <t>A0100521</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1819,11 +1831,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1846,7 +1853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1854,9 +1861,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2168,19 +2172,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F582"/>
+  <dimension ref="A1:F587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>389</v>
       </c>
@@ -2204,7 +2208,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>481</v>
       </c>
@@ -2236,7 +2240,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2244,7 +2248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>482</v>
       </c>
@@ -2276,7 +2280,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -2284,7 +2288,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2292,7 +2296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>484</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>486</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -2364,15 +2368,15 @@
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>353</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -2380,7 +2384,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>489</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>490</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -2412,15 +2416,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>355</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>273</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>274</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -2452,7 +2456,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>491</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>492</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>493</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2532,7 +2536,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>391</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>494</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2620,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>392</v>
       </c>
@@ -2628,7 +2632,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>393</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>495</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>496</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2676,49 +2680,49 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>394</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>356</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>584</v>
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>357</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>358</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>584</v>
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>359</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>396</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>497</v>
       </c>
@@ -2750,16 +2754,16 @@
         <v>480</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>253</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>584</v>
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2767,7 +2771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2783,7 +2787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2791,7 +2795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>397</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2807,7 +2811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>498</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2887,12 +2891,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>499</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>500</v>
       </c>
@@ -2972,23 +2976,23 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>360</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>361</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>398</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3004,7 +3008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -3012,15 +3016,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>399</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>400</v>
       </c>
@@ -3036,7 +3040,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>501</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3068,7 +3072,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3076,7 +3080,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>502</v>
       </c>
@@ -3092,7 +3096,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>503</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>504</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -3124,7 +3128,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>401</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3156,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3164,7 +3168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3172,7 +3176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>402</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -3188,7 +3192,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>292</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>505</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>506</v>
       </c>
@@ -3212,7 +3216,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>507</v>
       </c>
@@ -3220,15 +3224,15 @@
         <v>480</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>362</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>403</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3244,15 +3248,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>363</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>508</v>
       </c>
@@ -3276,7 +3280,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -3284,7 +3288,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>404</v>
       </c>
@@ -3292,7 +3296,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>405</v>
       </c>
@@ -3300,7 +3304,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>406</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3316,7 +3320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3324,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3340,15 +3344,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>364</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3356,7 +3360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3372,7 +3376,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3396,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>407</v>
       </c>
@@ -3404,7 +3408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>296</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3436,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>408</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3468,7 +3472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>297</v>
       </c>
@@ -3484,7 +3488,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>409</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>410</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>509</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -3524,7 +3528,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3548,16 +3552,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>365</v>
       </c>
-      <c r="B172" s="4" t="e">
-        <f>A30-1001983848449</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="B172" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>411</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>412</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>413</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>414</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>415</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>416</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>417</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>418</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>419</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>420</v>
       </c>
@@ -3685,15 +3688,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>366</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>421</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>422</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>423</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>424</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>425</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>426</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>427</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>428</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>429</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>430</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>431</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>432</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>511</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>433</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>434</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>298</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>512</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>435</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>513</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>514</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>437</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>167</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>168</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>515</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>438</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>516</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>170</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>171</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>302</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>517</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>439</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>440</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>173</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>518</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>519</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>520</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>176</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>179</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>521</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>441</v>
       </c>
@@ -4277,7 +4280,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>183</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4325,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>522</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>185</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>186</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>523</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>189</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>524</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>525</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>526</v>
       </c>
@@ -4477,15 +4480,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>367</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>527</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>528</v>
       </c>
@@ -4541,15 +4544,15 @@
         <v>480</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>368</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>529</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>530</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>196</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>531</v>
       </c>
@@ -4597,23 +4600,23 @@
         <v>480</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>369</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B303" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>370</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>532</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>197</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>442</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>201</v>
       </c>
@@ -4733,7 +4736,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>202</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>203</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>533</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>204</v>
       </c>
@@ -4765,7 +4768,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>205</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>308</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>206</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>534</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4805,7 +4808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>535</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>443</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>536</v>
       </c>
@@ -4829,7 +4832,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>537</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>444</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>445</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>538</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>539</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>261</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>262</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>540</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>311</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>446</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>447</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -4981,7 +4984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>208</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -5005,7 +5008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>210</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>313</v>
       </c>
@@ -5021,15 +5024,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>371</v>
       </c>
-      <c r="B356" s="6" t="s">
+      <c r="B356" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>541</v>
       </c>
@@ -5037,15 +5040,15 @@
         <v>480</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>372</v>
       </c>
-      <c r="B358" s="6" t="s">
+      <c r="B358" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>542</v>
       </c>
@@ -5053,7 +5056,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>448</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>449</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>211</v>
       </c>
@@ -5077,7 +5080,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>450</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>543</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>544</v>
       </c>
@@ -5101,7 +5104,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>545</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>451</v>
       </c>
@@ -5141,7 +5144,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>452</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>453</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>214</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>454</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>546</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>455</v>
       </c>
@@ -5221,15 +5224,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>373</v>
       </c>
-      <c r="B381" s="6" t="s">
+      <c r="B381" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>547</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -5253,7 +5256,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>314</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>456</v>
       </c>
@@ -5269,23 +5272,23 @@
         <v>390</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>374</v>
       </c>
-      <c r="B387" s="6" t="s">
+      <c r="B387" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>375</v>
       </c>
-      <c r="B388" s="6" t="s">
+      <c r="B388" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -5293,7 +5296,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>316</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>548</v>
       </c>
@@ -5309,7 +5312,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>549</v>
       </c>
@@ -5317,7 +5320,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>317</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>217</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>318</v>
       </c>
@@ -5341,7 +5344,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>264</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>218</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>319</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>457</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>320</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>376</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -5397,7 +5400,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>550</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>219</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>458</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5453,7 +5456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>551</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>459</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>552</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5493,7 +5496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>322</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -5509,7 +5512,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>460</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>265</v>
       </c>
@@ -5525,7 +5528,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>220</v>
       </c>
@@ -5541,7 +5544,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>553</v>
       </c>
@@ -5557,7 +5560,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>461</v>
       </c>
@@ -5565,7 +5568,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>462</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>554</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5621,7 +5624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>555</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>556</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>557</v>
       </c>
@@ -5645,7 +5648,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>325</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>326</v>
       </c>
@@ -5661,7 +5664,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>463</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>558</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5701,7 +5704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>559</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>327</v>
       </c>
@@ -5725,7 +5728,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>464</v>
       </c>
@@ -5733,7 +5736,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>266</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -5749,7 +5752,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>465</v>
       </c>
@@ -5757,15 +5760,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>377</v>
       </c>
-      <c r="B448" s="6" t="s">
+      <c r="B448" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>466</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>328</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>329</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>330</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>331</v>
       </c>
@@ -5805,7 +5808,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>222</v>
       </c>
@@ -5821,7 +5824,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>467</v>
       </c>
@@ -5829,15 +5832,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>332</v>
       </c>
-      <c r="B457" s="5" t="s">
+      <c r="B457" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>468</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>469</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>105</v>
       </c>
@@ -5861,7 +5864,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>560</v>
       </c>
@@ -5869,7 +5872,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>223</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>333</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>224</v>
       </c>
@@ -5901,7 +5904,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>225</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>561</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>334</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>335</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>336</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>226</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -5973,7 +5976,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>267</v>
       </c>
@@ -5981,15 +5984,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>385</v>
       </c>
-      <c r="B476" s="6" t="s">
+      <c r="B476" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>246</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>247</v>
       </c>
@@ -6005,7 +6008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>473</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>470</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6037,7 +6040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>562</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>338</v>
       </c>
@@ -6061,15 +6064,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>378</v>
       </c>
-      <c r="B486" s="6" t="s">
+      <c r="B486" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>476</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>351</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>477</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>478</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>475</v>
       </c>
@@ -6109,7 +6112,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6125,7 +6128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>245</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -6149,7 +6152,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>563</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6173,15 +6176,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>380</v>
       </c>
-      <c r="B500" s="6" t="s">
+      <c r="B500" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6189,7 +6192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>471</v>
       </c>
@@ -6205,7 +6208,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>472</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>233</v>
       </c>
@@ -6221,23 +6224,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>381</v>
       </c>
-      <c r="B506" s="6" t="s">
+      <c r="B506" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>382</v>
       </c>
-      <c r="B507" s="6" t="s">
+      <c r="B507" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6245,7 +6248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>342</v>
       </c>
@@ -6253,15 +6256,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>383</v>
       </c>
-      <c r="B510" s="6" t="s">
+      <c r="B510" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>234</v>
       </c>
@@ -6277,7 +6280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>565</v>
       </c>
@@ -6285,15 +6288,15 @@
         <v>480</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>384</v>
       </c>
-      <c r="B514" s="6" t="s">
+      <c r="B514" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>343</v>
       </c>
@@ -6301,7 +6304,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>344</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -6317,7 +6320,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>230</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6349,7 +6352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>345</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6373,7 +6376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -6381,15 +6384,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>386</v>
       </c>
-      <c r="B526" s="6" t="s">
+      <c r="B526" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>566</v>
       </c>
@@ -6397,7 +6400,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>567</v>
       </c>
@@ -6405,7 +6408,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>568</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6421,7 +6424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>572</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>240</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>571</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6461,7 +6464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>570</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>228</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>239</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>569</v>
       </c>
@@ -6493,15 +6496,15 @@
         <v>480</v>
       </c>
     </row>
-    <row r="540" spans="1:2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>387</v>
       </c>
-      <c r="B540" s="6" t="s">
+      <c r="B540" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>238</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>348</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>347</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>339</v>
       </c>
@@ -6541,7 +6544,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>346</v>
       </c>
@@ -6557,7 +6560,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>474</v>
       </c>
@@ -6565,7 +6568,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>340</v>
       </c>
@@ -6573,7 +6576,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>350</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>341</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>241</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>564</v>
       </c>
@@ -6613,15 +6616,15 @@
         <v>480</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>379</v>
       </c>
-      <c r="B555" s="6" t="s">
+      <c r="B555" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>229</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -6645,7 +6648,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>242</v>
       </c>
@@ -6653,7 +6656,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>243</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>349</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>352</v>
       </c>
@@ -6677,15 +6680,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>388</v>
       </c>
-      <c r="B563" s="6" t="s">
+      <c r="B563" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>248</v>
       </c>
@@ -6701,47 +6704,47 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>573</v>
       </c>
-      <c r="B566" s="6" t="s">
+      <c r="B566" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>574</v>
       </c>
-      <c r="B567" s="6" t="s">
+      <c r="B567" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="568" spans="1:2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>575</v>
       </c>
-      <c r="B568" s="6" t="s">
+      <c r="B568" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="569" spans="1:2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>576</v>
       </c>
-      <c r="B569" s="6" t="s">
+      <c r="B569" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>577</v>
       </c>
-      <c r="B570" s="6" t="s">
+      <c r="B570" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>578</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>579</v>
       </c>
@@ -6757,15 +6760,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="573" spans="1:2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>580</v>
       </c>
-      <c r="B573" s="6" t="s">
+      <c r="B573" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>581</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>582</v>
       </c>
@@ -6781,15 +6784,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>583</v>
       </c>
-      <c r="B576" s="6" t="s">
+      <c r="B576" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>585</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>589</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>586</v>
       </c>
@@ -6813,7 +6816,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>587</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>588</v>
       </c>
@@ -6829,7 +6832,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>590</v>
       </c>
@@ -6837,8 +6840,48 @@
         <v>132</v>
       </c>
     </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>591</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>592</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>593</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>594</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>595</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B582"/>
+  <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$592</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="601">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1810,6 +1810,21 @@
   </si>
   <si>
     <t>A0100521</t>
+  </si>
+  <si>
+    <t>A0100522</t>
+  </si>
+  <si>
+    <t>A0100523</t>
+  </si>
+  <si>
+    <t>A0100524</t>
+  </si>
+  <si>
+    <t>A0100525</t>
+  </si>
+  <si>
+    <t>A0100526</t>
   </si>
 </sst>
 </file>
@@ -2172,10 +2187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F587"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L602" sqref="L602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2192,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2200,7 +2216,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>389</v>
       </c>
@@ -2208,7 +2224,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -2216,7 +2232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -2224,7 +2240,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2232,7 +2248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>481</v>
       </c>
@@ -2240,7 +2256,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2248,7 +2264,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2256,7 +2272,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2264,7 +2280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2272,7 +2288,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>482</v>
       </c>
@@ -2280,7 +2296,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2296,7 +2312,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2304,7 +2320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>484</v>
       </c>
@@ -2312,7 +2328,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -2328,7 +2344,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>486</v>
       </c>
@@ -2336,7 +2352,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -2352,7 +2368,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -2368,7 +2384,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>353</v>
       </c>
@@ -2376,7 +2392,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -2384,7 +2400,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>489</v>
       </c>
@@ -2392,7 +2408,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>490</v>
       </c>
@@ -2408,7 +2424,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -2416,7 +2432,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -2424,7 +2440,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2432,7 +2448,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>273</v>
       </c>
@@ -2440,7 +2456,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>274</v>
       </c>
@@ -2448,7 +2464,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>491</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>492</v>
       </c>
@@ -2472,7 +2488,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2480,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2488,7 +2504,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2496,7 +2512,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -2512,7 +2528,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>493</v>
       </c>
@@ -2520,7 +2536,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2528,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2536,7 +2552,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>391</v>
       </c>
@@ -2544,7 +2560,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>494</v>
       </c>
@@ -2552,7 +2568,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2560,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2568,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2576,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2584,7 +2600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2592,7 +2608,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2600,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2608,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2616,7 +2632,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2624,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>392</v>
       </c>
@@ -2632,7 +2648,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>393</v>
       </c>
@@ -2640,7 +2656,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2648,7 +2664,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2656,7 +2672,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>495</v>
       </c>
@@ -2664,7 +2680,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>496</v>
       </c>
@@ -2672,7 +2688,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2680,7 +2696,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -2688,7 +2704,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -2697,7 +2713,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>357</v>
       </c>
@@ -2705,7 +2721,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -2714,7 +2730,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>359</v>
       </c>
@@ -2722,7 +2738,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2730,7 +2746,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -2738,7 +2754,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>396</v>
       </c>
@@ -2746,7 +2762,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>497</v>
       </c>
@@ -2754,7 +2770,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>253</v>
       </c>
@@ -2763,7 +2779,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2771,7 +2787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2779,7 +2795,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2787,7 +2803,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2795,7 +2811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>397</v>
       </c>
@@ -2803,7 +2819,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2811,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2819,7 +2835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2827,7 +2843,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2835,7 +2851,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2851,7 +2867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>498</v>
       </c>
@@ -2859,7 +2875,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -2867,7 +2883,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +2891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2883,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2891,12 +2907,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2904,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -2912,7 +2931,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -2920,7 +2939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -2928,7 +2947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2936,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -2944,7 +2963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -2952,7 +2971,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -2960,7 +2979,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>499</v>
       </c>
@@ -2968,7 +2987,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>500</v>
       </c>
@@ -2976,7 +2995,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>360</v>
       </c>
@@ -2984,7 +3003,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>361</v>
       </c>
@@ -2992,7 +3011,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>398</v>
       </c>
@@ -3000,7 +3019,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3008,7 +3027,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -3016,7 +3035,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>399</v>
       </c>
@@ -3024,7 +3043,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3032,7 +3051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>400</v>
       </c>
@@ -3040,7 +3059,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>501</v>
       </c>
@@ -3056,7 +3075,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -3064,7 +3083,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3072,7 +3091,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3080,7 +3099,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -3088,7 +3107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>502</v>
       </c>
@@ -3096,7 +3115,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>503</v>
       </c>
@@ -3104,7 +3123,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>504</v>
       </c>
@@ -3112,7 +3131,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -3120,7 +3139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -3128,7 +3147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3136,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -3144,7 +3163,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>401</v>
       </c>
@@ -3152,7 +3171,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3160,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3168,7 +3187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3176,7 +3195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>402</v>
       </c>
@@ -3184,7 +3203,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -3192,7 +3211,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>292</v>
       </c>
@@ -3200,7 +3219,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>505</v>
       </c>
@@ -3208,7 +3227,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>506</v>
       </c>
@@ -3216,7 +3235,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>507</v>
       </c>
@@ -3224,7 +3243,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>362</v>
       </c>
@@ -3232,7 +3251,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>403</v>
       </c>
@@ -3240,7 +3259,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3248,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>363</v>
       </c>
@@ -3256,7 +3275,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -3264,7 +3283,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3272,7 +3291,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>508</v>
       </c>
@@ -3280,7 +3299,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -3288,7 +3307,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>404</v>
       </c>
@@ -3296,7 +3315,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>405</v>
       </c>
@@ -3304,7 +3323,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>406</v>
       </c>
@@ -3312,7 +3331,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3320,7 +3339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3328,7 +3347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -3336,7 +3355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3344,7 +3363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>364</v>
       </c>
@@ -3352,7 +3371,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3360,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3368,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3376,7 +3395,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3384,7 +3403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3392,7 +3411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3400,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>407</v>
       </c>
@@ -3408,7 +3427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3416,7 +3435,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3424,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>296</v>
       </c>
@@ -3432,7 +3451,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3440,7 +3459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>408</v>
       </c>
@@ -3448,7 +3467,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3456,7 +3475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3464,7 +3483,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3472,7 +3491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3480,7 +3499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>297</v>
       </c>
@@ -3488,7 +3507,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>409</v>
       </c>
@@ -3496,7 +3515,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>410</v>
       </c>
@@ -3504,7 +3523,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>509</v>
       </c>
@@ -3512,7 +3531,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3520,7 +3539,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -3528,7 +3547,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3536,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3544,7 +3563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3552,7 +3571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>365</v>
       </c>
@@ -3560,7 +3579,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3568,7 +3587,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3576,7 +3595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3584,7 +3603,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>411</v>
       </c>
@@ -3592,7 +3611,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>412</v>
       </c>
@@ -3600,7 +3619,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>413</v>
       </c>
@@ -3608,7 +3627,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>414</v>
       </c>
@@ -3616,7 +3635,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>415</v>
       </c>
@@ -3624,7 +3643,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>416</v>
       </c>
@@ -3632,7 +3651,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3640,7 +3659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>417</v>
       </c>
@@ -3648,7 +3667,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>418</v>
       </c>
@@ -3656,7 +3675,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>419</v>
       </c>
@@ -3664,7 +3683,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3672,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -3680,7 +3699,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>420</v>
       </c>
@@ -3688,7 +3707,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>366</v>
       </c>
@@ -3696,7 +3715,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>421</v>
       </c>
@@ -3704,7 +3723,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>422</v>
       </c>
@@ -3712,7 +3731,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>423</v>
       </c>
@@ -3720,7 +3739,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>424</v>
       </c>
@@ -3728,7 +3747,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>425</v>
       </c>
@@ -3736,7 +3755,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>426</v>
       </c>
@@ -3744,7 +3763,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>427</v>
       </c>
@@ -3752,7 +3771,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>428</v>
       </c>
@@ -3760,7 +3779,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>429</v>
       </c>
@@ -3768,7 +3787,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>430</v>
       </c>
@@ -3776,7 +3795,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>431</v>
       </c>
@@ -3784,7 +3803,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>432</v>
       </c>
@@ -3792,7 +3811,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>511</v>
       </c>
@@ -3800,7 +3819,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>433</v>
       </c>
@@ -3808,7 +3827,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>434</v>
       </c>
@@ -3816,7 +3835,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -3824,7 +3843,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3832,7 +3851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3840,7 +3859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -3848,7 +3867,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -3856,7 +3875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>298</v>
       </c>
@@ -3864,7 +3883,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3872,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>512</v>
       </c>
@@ -3880,7 +3899,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -3888,7 +3907,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -3896,7 +3915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>435</v>
       </c>
@@ -3904,7 +3923,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>513</v>
       </c>
@@ -3912,7 +3931,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>514</v>
       </c>
@@ -3920,7 +3939,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -3928,7 +3947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -3936,7 +3955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -3944,7 +3963,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>437</v>
       </c>
@@ -3952,7 +3971,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -3960,7 +3979,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -3968,7 +3987,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -3976,7 +3995,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -3984,7 +4003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>167</v>
       </c>
@@ -3992,7 +4011,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>168</v>
       </c>
@@ -4000,7 +4019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>515</v>
       </c>
@@ -4008,7 +4027,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>438</v>
       </c>
@@ -4016,7 +4035,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>516</v>
       </c>
@@ -4024,7 +4043,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -4032,7 +4051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4040,7 +4059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4048,7 +4067,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>170</v>
       </c>
@@ -4056,7 +4075,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>171</v>
       </c>
@@ -4064,7 +4083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>302</v>
       </c>
@@ -4072,7 +4091,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4080,7 +4099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4088,7 +4107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>517</v>
       </c>
@@ -4096,7 +4115,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>439</v>
       </c>
@@ -4104,7 +4123,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -4112,7 +4131,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4120,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>440</v>
       </c>
@@ -4128,7 +4147,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -4136,7 +4155,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4144,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>173</v>
       </c>
@@ -4152,7 +4171,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -4160,7 +4179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -4168,7 +4187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>518</v>
       </c>
@@ -4176,7 +4195,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>519</v>
       </c>
@@ -4184,7 +4203,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>520</v>
       </c>
@@ -4192,7 +4211,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>176</v>
       </c>
@@ -4200,7 +4219,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -4208,7 +4227,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -4216,7 +4235,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>179</v>
       </c>
@@ -4224,7 +4243,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>521</v>
       </c>
@@ -4232,7 +4251,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -4240,7 +4259,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -4248,7 +4267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4256,7 +4275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4264,7 +4283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4272,7 +4291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>441</v>
       </c>
@@ -4280,7 +4299,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -4288,7 +4307,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4296,7 +4315,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -4304,7 +4323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>183</v>
       </c>
@@ -4312,7 +4331,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -4320,7 +4339,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4328,7 +4347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4336,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>522</v>
       </c>
@@ -4344,7 +4363,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4352,7 +4371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4360,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4368,7 +4387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>185</v>
       </c>
@@ -4376,7 +4395,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4384,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>186</v>
       </c>
@@ -4392,7 +4411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -4400,7 +4419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>523</v>
       </c>
@@ -4408,7 +4427,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -4416,7 +4435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4424,7 +4443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -4432,7 +4451,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4440,7 +4459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>189</v>
       </c>
@@ -4448,7 +4467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>524</v>
       </c>
@@ -4456,7 +4475,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -4464,15 +4483,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>525</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>526</v>
       </c>
@@ -4480,7 +4499,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>367</v>
       </c>
@@ -4488,7 +4507,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -4496,7 +4515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -4504,7 +4523,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -4512,7 +4531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>527</v>
       </c>
@@ -4520,7 +4539,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -4528,7 +4547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4536,7 +4555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>528</v>
       </c>
@@ -4544,7 +4563,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>368</v>
       </c>
@@ -4552,7 +4571,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -4560,7 +4579,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>529</v>
       </c>
@@ -4568,7 +4587,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4576,7 +4595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>530</v>
       </c>
@@ -4584,7 +4603,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>196</v>
       </c>
@@ -4592,7 +4611,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>531</v>
       </c>
@@ -4600,7 +4619,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>369</v>
       </c>
@@ -4608,15 +4627,15 @@
         <v>584</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>370</v>
       </c>
-      <c r="B304" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B304" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>532</v>
       </c>
@@ -4624,7 +4643,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4632,7 +4651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>197</v>
       </c>
@@ -4640,7 +4659,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4648,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -4656,7 +4675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>442</v>
       </c>
@@ -4664,7 +4683,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4672,7 +4691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -4680,7 +4699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -4688,7 +4707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -4696,7 +4715,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4704,7 +4723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4712,7 +4731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4720,7 +4739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -4728,7 +4747,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>201</v>
       </c>
@@ -4736,7 +4755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>202</v>
       </c>
@@ -4744,7 +4763,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>203</v>
       </c>
@@ -4752,7 +4771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>533</v>
       </c>
@@ -4760,7 +4779,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>204</v>
       </c>
@@ -4768,7 +4787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>205</v>
       </c>
@@ -4776,7 +4795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>308</v>
       </c>
@@ -4784,7 +4803,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>206</v>
       </c>
@@ -4792,7 +4811,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>534</v>
       </c>
@@ -4800,7 +4819,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4808,7 +4827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>535</v>
       </c>
@@ -4816,7 +4835,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>443</v>
       </c>
@@ -4824,7 +4843,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>536</v>
       </c>
@@ -4832,7 +4851,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4840,7 +4859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>537</v>
       </c>
@@ -4848,7 +4867,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>444</v>
       </c>
@@ -4856,7 +4875,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>445</v>
       </c>
@@ -4864,7 +4883,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>538</v>
       </c>
@@ -4872,7 +4891,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4880,7 +4899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>539</v>
       </c>
@@ -4888,7 +4907,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -4896,7 +4915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>261</v>
       </c>
@@ -4904,7 +4923,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>262</v>
       </c>
@@ -4912,7 +4931,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>540</v>
       </c>
@@ -4920,7 +4939,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -4928,7 +4947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -4936,7 +4955,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>311</v>
       </c>
@@ -4944,7 +4963,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -4952,7 +4971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -4960,7 +4979,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>446</v>
       </c>
@@ -4968,7 +4987,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>447</v>
       </c>
@@ -4976,7 +4995,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -4984,7 +5003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>208</v>
       </c>
@@ -4992,7 +5011,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -5000,7 +5019,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -5008,7 +5027,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>210</v>
       </c>
@@ -5016,7 +5035,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>313</v>
       </c>
@@ -5024,7 +5043,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>371</v>
       </c>
@@ -5032,7 +5051,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>541</v>
       </c>
@@ -5040,7 +5059,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>372</v>
       </c>
@@ -5048,7 +5067,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>542</v>
       </c>
@@ -5056,7 +5075,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>448</v>
       </c>
@@ -5064,7 +5083,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>449</v>
       </c>
@@ -5072,7 +5091,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>211</v>
       </c>
@@ -5080,7 +5099,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>450</v>
       </c>
@@ -5088,7 +5107,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>543</v>
       </c>
@@ -5096,7 +5115,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>544</v>
       </c>
@@ -5104,7 +5123,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -5112,7 +5131,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>545</v>
       </c>
@@ -5120,7 +5139,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -5128,7 +5147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5136,7 +5155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>451</v>
       </c>
@@ -5144,7 +5163,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5152,7 +5171,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>452</v>
       </c>
@@ -5160,7 +5179,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -5168,7 +5187,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>453</v>
       </c>
@@ -5176,7 +5195,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>214</v>
       </c>
@@ -5184,7 +5203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5192,7 +5211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>454</v>
       </c>
@@ -5200,7 +5219,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5208,7 +5227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>546</v>
       </c>
@@ -5216,7 +5235,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>455</v>
       </c>
@@ -5224,7 +5243,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>373</v>
       </c>
@@ -5232,7 +5251,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>547</v>
       </c>
@@ -5240,7 +5259,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -5248,7 +5267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -5256,7 +5275,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>314</v>
       </c>
@@ -5264,7 +5283,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>456</v>
       </c>
@@ -5272,7 +5291,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>374</v>
       </c>
@@ -5280,7 +5299,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>375</v>
       </c>
@@ -5288,7 +5307,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -5296,7 +5315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>316</v>
       </c>
@@ -5304,7 +5323,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>548</v>
       </c>
@@ -5312,7 +5331,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>549</v>
       </c>
@@ -5320,7 +5339,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>317</v>
       </c>
@@ -5328,7 +5347,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>217</v>
       </c>
@@ -5336,7 +5355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>318</v>
       </c>
@@ -5344,7 +5363,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>264</v>
       </c>
@@ -5352,7 +5371,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>218</v>
       </c>
@@ -5360,7 +5379,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>319</v>
       </c>
@@ -5368,7 +5387,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>457</v>
       </c>
@@ -5376,7 +5395,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>320</v>
       </c>
@@ -5384,7 +5403,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>376</v>
       </c>
@@ -5392,7 +5411,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -5400,7 +5419,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>550</v>
       </c>
@@ -5408,7 +5427,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>219</v>
       </c>
@@ -5416,7 +5435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5424,7 +5443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5432,7 +5451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5440,7 +5459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>458</v>
       </c>
@@ -5448,7 +5467,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5456,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>551</v>
       </c>
@@ -5464,7 +5483,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>459</v>
       </c>
@@ -5472,7 +5491,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5480,7 +5499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>552</v>
       </c>
@@ -5488,7 +5507,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5496,7 +5515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>322</v>
       </c>
@@ -5504,7 +5523,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -5512,7 +5531,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>460</v>
       </c>
@@ -5520,7 +5539,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>265</v>
       </c>
@@ -5528,7 +5547,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5536,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>220</v>
       </c>
@@ -5544,7 +5563,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5552,7 +5571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>553</v>
       </c>
@@ -5560,7 +5579,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>461</v>
       </c>
@@ -5568,7 +5587,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>462</v>
       </c>
@@ -5576,7 +5595,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5584,7 +5603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5592,7 +5611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>554</v>
       </c>
@@ -5600,7 +5619,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5608,7 +5627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -5616,7 +5635,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5624,7 +5643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>555</v>
       </c>
@@ -5632,7 +5651,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>556</v>
       </c>
@@ -5640,7 +5659,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>557</v>
       </c>
@@ -5648,7 +5667,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>325</v>
       </c>
@@ -5656,7 +5675,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>326</v>
       </c>
@@ -5664,7 +5683,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5672,7 +5691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>463</v>
       </c>
@@ -5680,7 +5699,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5688,7 +5707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>558</v>
       </c>
@@ -5696,7 +5715,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5704,7 +5723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5712,7 +5731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>559</v>
       </c>
@@ -5720,7 +5739,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>327</v>
       </c>
@@ -5728,7 +5747,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>464</v>
       </c>
@@ -5736,7 +5755,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>266</v>
       </c>
@@ -5744,7 +5763,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -5752,7 +5771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>465</v>
       </c>
@@ -5760,7 +5779,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>377</v>
       </c>
@@ -5768,7 +5787,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>466</v>
       </c>
@@ -5776,7 +5795,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>328</v>
       </c>
@@ -5784,7 +5803,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>329</v>
       </c>
@@ -5792,7 +5811,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>330</v>
       </c>
@@ -5800,7 +5819,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>331</v>
       </c>
@@ -5808,7 +5827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5816,7 +5835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>222</v>
       </c>
@@ -5824,7 +5843,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>467</v>
       </c>
@@ -5832,7 +5851,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>332</v>
       </c>
@@ -5840,7 +5859,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>468</v>
       </c>
@@ -5848,7 +5867,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>469</v>
       </c>
@@ -5856,7 +5875,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>105</v>
       </c>
@@ -5864,7 +5883,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>560</v>
       </c>
@@ -5872,7 +5891,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>223</v>
       </c>
@@ -5880,7 +5899,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5888,7 +5907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>333</v>
       </c>
@@ -5896,7 +5915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>224</v>
       </c>
@@ -5904,7 +5923,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -5912,7 +5931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>225</v>
       </c>
@@ -5920,7 +5939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -5928,7 +5947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>561</v>
       </c>
@@ -5936,7 +5955,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>334</v>
       </c>
@@ -5944,7 +5963,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>335</v>
       </c>
@@ -5952,7 +5971,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>336</v>
       </c>
@@ -5960,7 +5979,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>226</v>
       </c>
@@ -5968,7 +5987,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -5976,7 +5995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>267</v>
       </c>
@@ -5984,7 +6003,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>385</v>
       </c>
@@ -5992,7 +6011,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>246</v>
       </c>
@@ -6000,7 +6019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>247</v>
       </c>
@@ -6008,7 +6027,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6016,7 +6035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>473</v>
       </c>
@@ -6024,7 +6043,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>470</v>
       </c>
@@ -6032,7 +6051,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6040,7 +6059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6048,7 +6067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>562</v>
       </c>
@@ -6056,7 +6075,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>338</v>
       </c>
@@ -6064,7 +6083,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>378</v>
       </c>
@@ -6072,7 +6091,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>476</v>
       </c>
@@ -6080,7 +6099,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>351</v>
       </c>
@@ -6088,7 +6107,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>477</v>
       </c>
@@ -6096,7 +6115,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>478</v>
       </c>
@@ -6104,7 +6123,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>475</v>
       </c>
@@ -6112,7 +6131,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6120,7 +6139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6128,7 +6147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>245</v>
       </c>
@@ -6136,7 +6155,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -6144,7 +6163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -6152,7 +6171,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>563</v>
       </c>
@@ -6160,7 +6179,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6168,7 +6187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6176,7 +6195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>380</v>
       </c>
@@ -6184,7 +6203,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6192,7 +6211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6200,7 +6219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>471</v>
       </c>
@@ -6208,7 +6227,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>472</v>
       </c>
@@ -6216,7 +6235,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>233</v>
       </c>
@@ -6224,7 +6243,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>381</v>
       </c>
@@ -6232,7 +6251,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>382</v>
       </c>
@@ -6240,7 +6259,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6248,7 +6267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>342</v>
       </c>
@@ -6256,7 +6275,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>383</v>
       </c>
@@ -6264,7 +6283,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6272,7 +6291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>234</v>
       </c>
@@ -6280,7 +6299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>565</v>
       </c>
@@ -6288,7 +6307,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>384</v>
       </c>
@@ -6296,7 +6315,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>343</v>
       </c>
@@ -6304,7 +6323,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>344</v>
       </c>
@@ -6312,7 +6331,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -6320,7 +6339,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>230</v>
       </c>
@@ -6328,7 +6347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6336,7 +6355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6344,7 +6363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6352,7 +6371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -6360,7 +6379,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>345</v>
       </c>
@@ -6368,7 +6387,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6376,7 +6395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -6384,7 +6403,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>386</v>
       </c>
@@ -6392,7 +6411,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>566</v>
       </c>
@@ -6400,7 +6419,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>567</v>
       </c>
@@ -6408,7 +6427,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>568</v>
       </c>
@@ -6416,7 +6435,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6424,7 +6443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6432,7 +6451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>572</v>
       </c>
@@ -6440,7 +6459,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>240</v>
       </c>
@@ -6448,7 +6467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>571</v>
       </c>
@@ -6456,7 +6475,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6464,7 +6483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>570</v>
       </c>
@@ -6472,7 +6491,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>228</v>
       </c>
@@ -6480,7 +6499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>239</v>
       </c>
@@ -6488,7 +6507,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>569</v>
       </c>
@@ -6496,7 +6515,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>387</v>
       </c>
@@ -6504,7 +6523,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6512,7 +6531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>238</v>
       </c>
@@ -6520,7 +6539,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>348</v>
       </c>
@@ -6528,7 +6547,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>347</v>
       </c>
@@ -6536,7 +6555,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>339</v>
       </c>
@@ -6544,7 +6563,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6552,7 +6571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>346</v>
       </c>
@@ -6560,7 +6579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>474</v>
       </c>
@@ -6568,7 +6587,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>340</v>
       </c>
@@ -6576,7 +6595,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -6584,7 +6603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>350</v>
       </c>
@@ -6592,7 +6611,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>341</v>
       </c>
@@ -6600,7 +6619,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>241</v>
       </c>
@@ -6608,7 +6627,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>564</v>
       </c>
@@ -6616,7 +6635,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>379</v>
       </c>
@@ -6624,7 +6643,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6632,7 +6651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>229</v>
       </c>
@@ -6640,7 +6659,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -6648,7 +6667,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>242</v>
       </c>
@@ -6656,7 +6675,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>243</v>
       </c>
@@ -6664,7 +6683,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>349</v>
       </c>
@@ -6672,7 +6691,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>352</v>
       </c>
@@ -6680,7 +6699,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>388</v>
       </c>
@@ -6688,7 +6707,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6696,7 +6715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>248</v>
       </c>
@@ -6704,7 +6723,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>573</v>
       </c>
@@ -6712,7 +6731,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>574</v>
       </c>
@@ -6720,7 +6739,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>575</v>
       </c>
@@ -6728,7 +6747,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>576</v>
       </c>
@@ -6736,7 +6755,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>577</v>
       </c>
@@ -6744,7 +6763,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>578</v>
       </c>
@@ -6752,7 +6771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>579</v>
       </c>
@@ -6760,15 +6779,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>580</v>
       </c>
-      <c r="B573" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B573" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>581</v>
       </c>
@@ -6776,7 +6795,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>582</v>
       </c>
@@ -6784,7 +6803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>583</v>
       </c>
@@ -6792,7 +6811,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>585</v>
       </c>
@@ -6800,7 +6819,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>589</v>
       </c>
@@ -6808,7 +6827,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>586</v>
       </c>
@@ -6816,7 +6835,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>587</v>
       </c>
@@ -6824,7 +6843,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>588</v>
       </c>
@@ -6832,7 +6851,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>590</v>
       </c>
@@ -6840,7 +6859,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>591</v>
       </c>
@@ -6848,7 +6867,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>592</v>
       </c>
@@ -6856,7 +6875,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>593</v>
       </c>
@@ -6864,7 +6883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>594</v>
       </c>
@@ -6872,7 +6891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>595</v>
       </c>
@@ -6880,8 +6899,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>596</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>597</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>598</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>599</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>600</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F592">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="A0100525"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$592</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$603</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="622">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1825,13 +1825,79 @@
   </si>
   <si>
     <t>A0100526</t>
+  </si>
+  <si>
+    <t>A0100518</t>
+  </si>
+  <si>
+    <t>ADM271011</t>
+  </si>
+  <si>
+    <t>ADM284011</t>
+  </si>
+  <si>
+    <t>K0255011</t>
+  </si>
+  <si>
+    <t>ADM000009</t>
+  </si>
+  <si>
+    <t>K0241012</t>
+  </si>
+  <si>
+    <t>K0107013</t>
+  </si>
+  <si>
+    <t>N0014012</t>
+  </si>
+  <si>
+    <t>N0039011</t>
+  </si>
+  <si>
+    <t>K0256011</t>
+  </si>
+  <si>
+    <t>K0220011</t>
+  </si>
+  <si>
+    <t>K0108003</t>
+  </si>
+  <si>
+    <t>K0234011</t>
+  </si>
+  <si>
+    <t>K0142011</t>
+  </si>
+  <si>
+    <t>K0240011</t>
+  </si>
+  <si>
+    <t>N0021011</t>
+  </si>
+  <si>
+    <t>K0213011</t>
+  </si>
+  <si>
+    <t>K0117011</t>
+  </si>
+  <si>
+    <t>N0039012</t>
+  </si>
+  <si>
+    <t>K0103014</t>
+  </si>
+  <si>
+    <t>K0113012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,6 +1912,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1868,7 +1939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1882,6 +1953,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2187,20 +2261,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F592"/>
+  <dimension ref="A1:F613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L602" sqref="L602"/>
+    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
+      <selection activeCell="I611" sqref="I611"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2216,7 +2289,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>389</v>
       </c>
@@ -2224,7 +2297,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -2232,7 +2305,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -2240,7 +2313,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2248,7 +2321,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>481</v>
       </c>
@@ -2256,7 +2329,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2264,7 +2337,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2272,7 +2345,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2280,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2288,7 +2361,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>482</v>
       </c>
@@ -2296,7 +2369,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -2304,7 +2377,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2312,7 +2385,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2320,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>484</v>
       </c>
@@ -2328,7 +2401,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -2336,7 +2409,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -2344,7 +2417,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>486</v>
       </c>
@@ -2352,7 +2425,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2360,7 +2433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>487</v>
       </c>
@@ -2368,7 +2441,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2376,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -2384,7 +2457,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>353</v>
       </c>
@@ -2392,7 +2465,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -2400,7 +2473,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>489</v>
       </c>
@@ -2408,7 +2481,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>490</v>
       </c>
@@ -2424,7 +2497,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -2432,7 +2505,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>355</v>
       </c>
@@ -2440,7 +2513,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2448,7 +2521,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>273</v>
       </c>
@@ -2456,7 +2529,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>274</v>
       </c>
@@ -2464,7 +2537,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -2472,7 +2545,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>491</v>
       </c>
@@ -2480,7 +2553,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>492</v>
       </c>
@@ -2488,7 +2561,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2504,7 +2577,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2512,7 +2585,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2520,7 +2593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -2528,7 +2601,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>493</v>
       </c>
@@ -2536,7 +2609,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2544,7 +2617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2552,7 +2625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>391</v>
       </c>
@@ -2560,7 +2633,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>494</v>
       </c>
@@ -2568,7 +2641,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2576,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2600,7 +2673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2608,7 +2681,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2616,7 +2689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2624,7 +2697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2632,7 +2705,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2640,7 +2713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>392</v>
       </c>
@@ -2648,7 +2721,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>393</v>
       </c>
@@ -2656,7 +2729,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2664,7 +2737,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2672,7 +2745,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>495</v>
       </c>
@@ -2680,7 +2753,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>496</v>
       </c>
@@ -2688,7 +2761,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2696,7 +2769,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>394</v>
       </c>
@@ -2704,7 +2777,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>356</v>
       </c>
@@ -2713,7 +2786,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>357</v>
       </c>
@@ -2721,7 +2794,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -2730,7 +2803,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>359</v>
       </c>
@@ -2738,7 +2811,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2746,7 +2819,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -2754,7 +2827,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>396</v>
       </c>
@@ -2762,7 +2835,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>497</v>
       </c>
@@ -2770,7 +2843,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>253</v>
       </c>
@@ -2779,7 +2852,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2787,7 +2860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2795,7 +2868,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2803,7 +2876,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2811,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>397</v>
       </c>
@@ -2819,7 +2892,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2827,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2835,7 +2908,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2843,7 +2916,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2851,7 +2924,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -2859,7 +2932,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2867,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>498</v>
       </c>
@@ -2875,7 +2948,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -2883,7 +2956,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2891,7 +2964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2899,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2907,7 +2980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2915,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2923,7 +2996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -2931,7 +3004,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -2939,7 +3012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -2947,7 +3020,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2955,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -2963,7 +3036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -2971,7 +3044,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -2979,7 +3052,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>499</v>
       </c>
@@ -2987,7 +3060,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>500</v>
       </c>
@@ -2995,7 +3068,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>360</v>
       </c>
@@ -3003,7 +3076,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>361</v>
       </c>
@@ -3011,7 +3084,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>398</v>
       </c>
@@ -3019,7 +3092,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3027,7 +3100,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -3035,7 +3108,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>399</v>
       </c>
@@ -3043,7 +3116,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3051,7 +3124,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>400</v>
       </c>
@@ -3059,7 +3132,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -3067,7 +3140,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>501</v>
       </c>
@@ -3075,7 +3148,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -3083,7 +3156,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3091,7 +3164,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3099,7 +3172,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -3107,7 +3180,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>502</v>
       </c>
@@ -3115,7 +3188,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>503</v>
       </c>
@@ -3123,7 +3196,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>504</v>
       </c>
@@ -3131,7 +3204,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -3139,7 +3212,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -3147,7 +3220,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3155,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -3163,7 +3236,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>401</v>
       </c>
@@ -3171,7 +3244,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3179,7 +3252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3187,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3195,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>402</v>
       </c>
@@ -3203,7 +3276,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -3211,7 +3284,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>292</v>
       </c>
@@ -3219,7 +3292,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>505</v>
       </c>
@@ -3227,7 +3300,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>506</v>
       </c>
@@ -3235,7 +3308,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>507</v>
       </c>
@@ -3243,7 +3316,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>362</v>
       </c>
@@ -3251,7 +3324,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>403</v>
       </c>
@@ -3259,7 +3332,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3267,7 +3340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>363</v>
       </c>
@@ -3275,7 +3348,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -3283,7 +3356,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3291,7 +3364,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>508</v>
       </c>
@@ -3299,7 +3372,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -3307,7 +3380,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>404</v>
       </c>
@@ -3315,7 +3388,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>405</v>
       </c>
@@ -3323,7 +3396,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>406</v>
       </c>
@@ -3331,7 +3404,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3339,7 +3412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3347,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -3355,7 +3428,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3363,7 +3436,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>364</v>
       </c>
@@ -3371,7 +3444,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3379,7 +3452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3387,7 +3460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3395,7 +3468,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3403,7 +3476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3411,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3419,7 +3492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>407</v>
       </c>
@@ -3427,7 +3500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3435,7 +3508,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3443,7 +3516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>296</v>
       </c>
@@ -3451,7 +3524,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3459,7 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>408</v>
       </c>
@@ -3467,7 +3540,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3475,7 +3548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3483,7 +3556,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3491,7 +3564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3499,7 +3572,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>297</v>
       </c>
@@ -3507,7 +3580,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>409</v>
       </c>
@@ -3515,7 +3588,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>410</v>
       </c>
@@ -3523,7 +3596,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>509</v>
       </c>
@@ -3531,7 +3604,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3539,7 +3612,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>510</v>
       </c>
@@ -3547,7 +3620,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3555,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3563,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3571,7 +3644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>365</v>
       </c>
@@ -3579,7 +3652,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3587,7 +3660,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3595,7 +3668,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3603,7 +3676,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>411</v>
       </c>
@@ -3611,7 +3684,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>412</v>
       </c>
@@ -3619,7 +3692,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>413</v>
       </c>
@@ -3627,7 +3700,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>414</v>
       </c>
@@ -3635,7 +3708,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>415</v>
       </c>
@@ -3643,7 +3716,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>416</v>
       </c>
@@ -3651,7 +3724,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3659,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>417</v>
       </c>
@@ -3667,7 +3740,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>418</v>
       </c>
@@ -3675,7 +3748,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>419</v>
       </c>
@@ -3683,7 +3756,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3691,7 +3764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -3699,7 +3772,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>420</v>
       </c>
@@ -3707,7 +3780,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>366</v>
       </c>
@@ -3715,7 +3788,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>421</v>
       </c>
@@ -3723,7 +3796,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>422</v>
       </c>
@@ -3731,7 +3804,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>423</v>
       </c>
@@ -3739,7 +3812,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>424</v>
       </c>
@@ -3747,7 +3820,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>425</v>
       </c>
@@ -3755,7 +3828,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>426</v>
       </c>
@@ -3763,7 +3836,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>427</v>
       </c>
@@ -3771,7 +3844,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>428</v>
       </c>
@@ -3779,7 +3852,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>429</v>
       </c>
@@ -3787,7 +3860,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>430</v>
       </c>
@@ -3795,7 +3868,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>431</v>
       </c>
@@ -3803,7 +3876,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>432</v>
       </c>
@@ -3811,7 +3884,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>511</v>
       </c>
@@ -3819,7 +3892,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>433</v>
       </c>
@@ -3827,7 +3900,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>434</v>
       </c>
@@ -3835,7 +3908,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -3843,7 +3916,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3851,7 +3924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3859,7 +3932,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -3867,7 +3940,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -3875,7 +3948,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>298</v>
       </c>
@@ -3883,7 +3956,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3891,7 +3964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>512</v>
       </c>
@@ -3899,7 +3972,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -3907,7 +3980,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -3915,7 +3988,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>435</v>
       </c>
@@ -3923,7 +3996,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>513</v>
       </c>
@@ -3931,7 +4004,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>514</v>
       </c>
@@ -3939,7 +4012,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -3947,7 +4020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -3955,7 +4028,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -3963,7 +4036,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>437</v>
       </c>
@@ -3971,7 +4044,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -3979,7 +4052,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -3987,7 +4060,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -3995,7 +4068,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -4003,7 +4076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>167</v>
       </c>
@@ -4011,7 +4084,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>168</v>
       </c>
@@ -4019,7 +4092,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>515</v>
       </c>
@@ -4027,7 +4100,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>438</v>
       </c>
@@ -4035,7 +4108,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>516</v>
       </c>
@@ -4043,7 +4116,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -4051,7 +4124,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4059,7 +4132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4067,7 +4140,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>170</v>
       </c>
@@ -4075,7 +4148,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>171</v>
       </c>
@@ -4083,7 +4156,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>302</v>
       </c>
@@ -4091,7 +4164,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4099,7 +4172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4107,7 +4180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>517</v>
       </c>
@@ -4115,7 +4188,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>439</v>
       </c>
@@ -4123,7 +4196,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -4131,7 +4204,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4139,7 +4212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>440</v>
       </c>
@@ -4147,7 +4220,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -4155,7 +4228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4163,7 +4236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>173</v>
       </c>
@@ -4171,7 +4244,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -4179,7 +4252,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -4187,7 +4260,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>518</v>
       </c>
@@ -4195,7 +4268,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>519</v>
       </c>
@@ -4203,7 +4276,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>520</v>
       </c>
@@ -4211,7 +4284,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>176</v>
       </c>
@@ -4219,7 +4292,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -4227,7 +4300,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -4235,7 +4308,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>179</v>
       </c>
@@ -4243,7 +4316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>521</v>
       </c>
@@ -4251,7 +4324,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -4259,7 +4332,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -4267,7 +4340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4275,7 +4348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4283,7 +4356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4291,7 +4364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>441</v>
       </c>
@@ -4299,7 +4372,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -4307,7 +4380,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4315,7 +4388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -4323,7 +4396,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>183</v>
       </c>
@@ -4331,7 +4404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -4339,7 +4412,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4347,7 +4420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4355,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>522</v>
       </c>
@@ -4363,7 +4436,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4371,7 +4444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4379,7 +4452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4387,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>185</v>
       </c>
@@ -4395,7 +4468,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4403,7 +4476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>186</v>
       </c>
@@ -4411,7 +4484,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -4419,7 +4492,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>523</v>
       </c>
@@ -4427,7 +4500,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -4435,7 +4508,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4443,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -4451,7 +4524,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4459,7 +4532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>189</v>
       </c>
@@ -4467,7 +4540,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>524</v>
       </c>
@@ -4475,7 +4548,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -4483,7 +4556,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>525</v>
       </c>
@@ -4491,7 +4564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>526</v>
       </c>
@@ -4499,7 +4572,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>367</v>
       </c>
@@ -4507,7 +4580,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -4515,7 +4588,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -4523,7 +4596,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -4531,7 +4604,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>527</v>
       </c>
@@ -4539,7 +4612,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -4547,7 +4620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4555,7 +4628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>528</v>
       </c>
@@ -4563,7 +4636,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>368</v>
       </c>
@@ -4571,7 +4644,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -4579,7 +4652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>529</v>
       </c>
@@ -4587,7 +4660,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4595,7 +4668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>530</v>
       </c>
@@ -4603,7 +4676,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>196</v>
       </c>
@@ -4611,7 +4684,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>531</v>
       </c>
@@ -4619,7 +4692,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>369</v>
       </c>
@@ -4627,7 +4700,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>370</v>
       </c>
@@ -4635,7 +4708,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>532</v>
       </c>
@@ -4643,7 +4716,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4651,7 +4724,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>197</v>
       </c>
@@ -4659,7 +4732,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4667,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -4675,7 +4748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>442</v>
       </c>
@@ -4683,7 +4756,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4691,7 +4764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -4699,7 +4772,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -4707,7 +4780,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -4715,7 +4788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4723,7 +4796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4731,7 +4804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4739,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -4747,7 +4820,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>201</v>
       </c>
@@ -4755,7 +4828,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>202</v>
       </c>
@@ -4763,7 +4836,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>203</v>
       </c>
@@ -4771,7 +4844,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>533</v>
       </c>
@@ -4779,7 +4852,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>204</v>
       </c>
@@ -4787,7 +4860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>205</v>
       </c>
@@ -4795,7 +4868,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>308</v>
       </c>
@@ -4803,7 +4876,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>206</v>
       </c>
@@ -4811,7 +4884,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>534</v>
       </c>
@@ -4819,7 +4892,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4827,7 +4900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2">
       <c r="A329" t="s">
         <v>535</v>
       </c>
@@ -4835,7 +4908,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2">
       <c r="A330" t="s">
         <v>443</v>
       </c>
@@ -4843,7 +4916,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>536</v>
       </c>
@@ -4851,7 +4924,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4859,7 +4932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>537</v>
       </c>
@@ -4867,7 +4940,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>444</v>
       </c>
@@ -4875,7 +4948,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>445</v>
       </c>
@@ -4883,7 +4956,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>538</v>
       </c>
@@ -4891,7 +4964,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4899,7 +4972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>539</v>
       </c>
@@ -4907,7 +4980,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -4915,7 +4988,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>261</v>
       </c>
@@ -4923,7 +4996,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2">
       <c r="A341" t="s">
         <v>262</v>
       </c>
@@ -4931,7 +5004,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>540</v>
       </c>
@@ -4939,7 +5012,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -4947,7 +5020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -4955,7 +5028,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2">
       <c r="A345" t="s">
         <v>311</v>
       </c>
@@ -4963,7 +5036,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -4971,7 +5044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -4979,7 +5052,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2">
       <c r="A348" t="s">
         <v>446</v>
       </c>
@@ -4987,7 +5060,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2">
       <c r="A349" t="s">
         <v>447</v>
       </c>
@@ -4995,7 +5068,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -5003,7 +5076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2">
       <c r="A351" t="s">
         <v>208</v>
       </c>
@@ -5011,7 +5084,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -5019,7 +5092,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -5027,7 +5100,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2">
       <c r="A354" t="s">
         <v>210</v>
       </c>
@@ -5035,7 +5108,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2">
       <c r="A355" t="s">
         <v>313</v>
       </c>
@@ -5043,7 +5116,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2">
       <c r="A356" t="s">
         <v>371</v>
       </c>
@@ -5051,7 +5124,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2">
       <c r="A357" t="s">
         <v>541</v>
       </c>
@@ -5059,7 +5132,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2">
       <c r="A358" t="s">
         <v>372</v>
       </c>
@@ -5067,7 +5140,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2">
       <c r="A359" t="s">
         <v>542</v>
       </c>
@@ -5075,7 +5148,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2">
       <c r="A360" t="s">
         <v>448</v>
       </c>
@@ -5083,7 +5156,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2">
       <c r="A361" t="s">
         <v>449</v>
       </c>
@@ -5091,7 +5164,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2">
       <c r="A362" t="s">
         <v>211</v>
       </c>
@@ -5099,7 +5172,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2">
       <c r="A363" t="s">
         <v>450</v>
       </c>
@@ -5107,7 +5180,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2">
       <c r="A364" t="s">
         <v>543</v>
       </c>
@@ -5115,7 +5188,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2">
       <c r="A365" t="s">
         <v>544</v>
       </c>
@@ -5123,7 +5196,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -5131,7 +5204,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2">
       <c r="A367" t="s">
         <v>545</v>
       </c>
@@ -5139,7 +5212,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -5147,7 +5220,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5155,7 +5228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2">
       <c r="A370" t="s">
         <v>451</v>
       </c>
@@ -5163,7 +5236,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5171,7 +5244,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2">
       <c r="A372" t="s">
         <v>452</v>
       </c>
@@ -5179,7 +5252,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -5187,7 +5260,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2">
       <c r="A374" t="s">
         <v>453</v>
       </c>
@@ -5195,7 +5268,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2">
       <c r="A375" t="s">
         <v>214</v>
       </c>
@@ -5203,7 +5276,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5211,7 +5284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2">
       <c r="A377" t="s">
         <v>454</v>
       </c>
@@ -5219,7 +5292,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5227,7 +5300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2">
       <c r="A379" t="s">
         <v>546</v>
       </c>
@@ -5235,7 +5308,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2">
       <c r="A380" t="s">
         <v>455</v>
       </c>
@@ -5243,7 +5316,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2">
       <c r="A381" t="s">
         <v>373</v>
       </c>
@@ -5251,7 +5324,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2">
       <c r="A382" t="s">
         <v>547</v>
       </c>
@@ -5259,7 +5332,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -5267,7 +5340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -5275,7 +5348,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2">
       <c r="A385" t="s">
         <v>314</v>
       </c>
@@ -5283,7 +5356,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2">
       <c r="A386" t="s">
         <v>456</v>
       </c>
@@ -5291,7 +5364,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2">
       <c r="A387" t="s">
         <v>374</v>
       </c>
@@ -5299,7 +5372,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2">
       <c r="A388" t="s">
         <v>375</v>
       </c>
@@ -5307,7 +5380,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -5315,7 +5388,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2">
       <c r="A390" t="s">
         <v>316</v>
       </c>
@@ -5323,7 +5396,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2">
       <c r="A391" t="s">
         <v>548</v>
       </c>
@@ -5331,7 +5404,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2">
       <c r="A392" t="s">
         <v>549</v>
       </c>
@@ -5339,7 +5412,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2">
       <c r="A393" t="s">
         <v>317</v>
       </c>
@@ -5347,7 +5420,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2">
       <c r="A394" t="s">
         <v>217</v>
       </c>
@@ -5355,7 +5428,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2">
       <c r="A395" t="s">
         <v>318</v>
       </c>
@@ -5363,7 +5436,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2">
       <c r="A396" t="s">
         <v>264</v>
       </c>
@@ -5371,7 +5444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2">
       <c r="A397" t="s">
         <v>218</v>
       </c>
@@ -5379,7 +5452,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2">
       <c r="A398" t="s">
         <v>319</v>
       </c>
@@ -5387,7 +5460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2">
       <c r="A399" t="s">
         <v>457</v>
       </c>
@@ -5395,7 +5468,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2">
       <c r="A400" t="s">
         <v>320</v>
       </c>
@@ -5403,7 +5476,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2">
       <c r="A401" t="s">
         <v>376</v>
       </c>
@@ -5411,7 +5484,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -5419,7 +5492,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2">
       <c r="A403" t="s">
         <v>550</v>
       </c>
@@ -5427,7 +5500,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2">
       <c r="A404" t="s">
         <v>219</v>
       </c>
@@ -5435,7 +5508,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5443,7 +5516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5451,7 +5524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5459,7 +5532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2">
       <c r="A408" t="s">
         <v>458</v>
       </c>
@@ -5467,7 +5540,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5475,7 +5548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2">
       <c r="A410" t="s">
         <v>551</v>
       </c>
@@ -5483,7 +5556,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2">
       <c r="A411" t="s">
         <v>459</v>
       </c>
@@ -5491,7 +5564,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5499,7 +5572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2">
       <c r="A413" t="s">
         <v>552</v>
       </c>
@@ -5507,7 +5580,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5515,7 +5588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2">
       <c r="A415" t="s">
         <v>322</v>
       </c>
@@ -5523,7 +5596,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -5531,7 +5604,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2">
       <c r="A417" t="s">
         <v>460</v>
       </c>
@@ -5539,7 +5612,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2">
       <c r="A418" t="s">
         <v>265</v>
       </c>
@@ -5547,7 +5620,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5555,7 +5628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2">
       <c r="A420" t="s">
         <v>220</v>
       </c>
@@ -5563,7 +5636,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5571,7 +5644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2">
       <c r="A422" t="s">
         <v>553</v>
       </c>
@@ -5579,7 +5652,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2">
       <c r="A423" t="s">
         <v>461</v>
       </c>
@@ -5587,7 +5660,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2">
       <c r="A424" t="s">
         <v>462</v>
       </c>
@@ -5595,7 +5668,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5603,7 +5676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5611,7 +5684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2">
       <c r="A427" t="s">
         <v>554</v>
       </c>
@@ -5619,7 +5692,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5627,7 +5700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -5635,7 +5708,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5643,7 +5716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2">
       <c r="A431" t="s">
         <v>555</v>
       </c>
@@ -5651,7 +5724,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2">
       <c r="A432" t="s">
         <v>556</v>
       </c>
@@ -5659,7 +5732,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2">
       <c r="A433" t="s">
         <v>557</v>
       </c>
@@ -5667,7 +5740,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2">
       <c r="A434" t="s">
         <v>325</v>
       </c>
@@ -5675,7 +5748,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2">
       <c r="A435" t="s">
         <v>326</v>
       </c>
@@ -5683,7 +5756,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5691,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2">
       <c r="A437" t="s">
         <v>463</v>
       </c>
@@ -5699,7 +5772,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5707,7 +5780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2">
       <c r="A439" t="s">
         <v>558</v>
       </c>
@@ -5715,7 +5788,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5723,7 +5796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5731,7 +5804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2">
       <c r="A442" t="s">
         <v>559</v>
       </c>
@@ -5739,7 +5812,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2">
       <c r="A443" t="s">
         <v>327</v>
       </c>
@@ -5747,7 +5820,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2">
       <c r="A444" t="s">
         <v>464</v>
       </c>
@@ -5755,7 +5828,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2">
       <c r="A445" t="s">
         <v>266</v>
       </c>
@@ -5763,7 +5836,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -5771,7 +5844,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2">
       <c r="A447" t="s">
         <v>465</v>
       </c>
@@ -5779,7 +5852,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2">
       <c r="A448" t="s">
         <v>377</v>
       </c>
@@ -5787,7 +5860,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2">
       <c r="A449" t="s">
         <v>466</v>
       </c>
@@ -5795,7 +5868,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2">
       <c r="A450" t="s">
         <v>328</v>
       </c>
@@ -5803,7 +5876,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2">
       <c r="A451" t="s">
         <v>329</v>
       </c>
@@ -5811,7 +5884,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2">
       <c r="A452" t="s">
         <v>330</v>
       </c>
@@ -5819,7 +5892,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2">
       <c r="A453" t="s">
         <v>331</v>
       </c>
@@ -5827,7 +5900,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5835,7 +5908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2">
       <c r="A455" t="s">
         <v>222</v>
       </c>
@@ -5843,7 +5916,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2">
       <c r="A456" t="s">
         <v>467</v>
       </c>
@@ -5851,7 +5924,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2">
       <c r="A457" t="s">
         <v>332</v>
       </c>
@@ -5859,7 +5932,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2">
       <c r="A458" t="s">
         <v>468</v>
       </c>
@@ -5867,7 +5940,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2">
       <c r="A459" t="s">
         <v>469</v>
       </c>
@@ -5875,7 +5948,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2">
       <c r="A460" t="s">
         <v>105</v>
       </c>
@@ -5883,7 +5956,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2">
       <c r="A461" t="s">
         <v>560</v>
       </c>
@@ -5891,7 +5964,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2">
       <c r="A462" t="s">
         <v>223</v>
       </c>
@@ -5899,7 +5972,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5907,7 +5980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2">
       <c r="A464" t="s">
         <v>333</v>
       </c>
@@ -5915,7 +5988,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2">
       <c r="A465" t="s">
         <v>224</v>
       </c>
@@ -5923,7 +5996,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -5931,7 +6004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2">
       <c r="A467" t="s">
         <v>225</v>
       </c>
@@ -5939,7 +6012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -5947,7 +6020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2">
       <c r="A469" t="s">
         <v>561</v>
       </c>
@@ -5955,7 +6028,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2">
       <c r="A470" t="s">
         <v>334</v>
       </c>
@@ -5963,7 +6036,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2">
       <c r="A471" t="s">
         <v>335</v>
       </c>
@@ -5971,7 +6044,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2">
       <c r="A472" t="s">
         <v>336</v>
       </c>
@@ -5979,7 +6052,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2">
       <c r="A473" t="s">
         <v>226</v>
       </c>
@@ -5987,7 +6060,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -5995,7 +6068,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2">
       <c r="A475" t="s">
         <v>267</v>
       </c>
@@ -6003,7 +6076,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2">
       <c r="A476" t="s">
         <v>385</v>
       </c>
@@ -6011,7 +6084,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2">
       <c r="A477" t="s">
         <v>246</v>
       </c>
@@ -6019,7 +6092,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2">
       <c r="A478" t="s">
         <v>247</v>
       </c>
@@ -6027,7 +6100,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6035,7 +6108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2">
       <c r="A480" t="s">
         <v>473</v>
       </c>
@@ -6043,7 +6116,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2">
       <c r="A481" t="s">
         <v>470</v>
       </c>
@@ -6051,7 +6124,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6059,7 +6132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6067,7 +6140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2">
       <c r="A484" t="s">
         <v>562</v>
       </c>
@@ -6075,7 +6148,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2">
       <c r="A485" t="s">
         <v>338</v>
       </c>
@@ -6083,7 +6156,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2">
       <c r="A486" t="s">
         <v>378</v>
       </c>
@@ -6091,7 +6164,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2">
       <c r="A487" t="s">
         <v>476</v>
       </c>
@@ -6099,7 +6172,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2">
       <c r="A488" t="s">
         <v>351</v>
       </c>
@@ -6107,7 +6180,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2">
       <c r="A489" t="s">
         <v>477</v>
       </c>
@@ -6115,7 +6188,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2">
       <c r="A490" t="s">
         <v>478</v>
       </c>
@@ -6123,7 +6196,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2">
       <c r="A491" t="s">
         <v>475</v>
       </c>
@@ -6131,7 +6204,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6139,7 +6212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6147,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2">
       <c r="A494" t="s">
         <v>245</v>
       </c>
@@ -6155,7 +6228,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -6163,7 +6236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -6171,7 +6244,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2">
       <c r="A497" t="s">
         <v>563</v>
       </c>
@@ -6179,7 +6252,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6187,7 +6260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6195,7 +6268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2">
       <c r="A500" t="s">
         <v>380</v>
       </c>
@@ -6203,7 +6276,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6211,7 +6284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6219,7 +6292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2">
       <c r="A503" t="s">
         <v>471</v>
       </c>
@@ -6227,7 +6300,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2">
       <c r="A504" t="s">
         <v>472</v>
       </c>
@@ -6235,7 +6308,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2">
       <c r="A505" t="s">
         <v>233</v>
       </c>
@@ -6243,7 +6316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2">
       <c r="A506" t="s">
         <v>381</v>
       </c>
@@ -6251,7 +6324,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2">
       <c r="A507" t="s">
         <v>382</v>
       </c>
@@ -6259,7 +6332,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6267,7 +6340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2">
       <c r="A509" t="s">
         <v>342</v>
       </c>
@@ -6275,7 +6348,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2">
       <c r="A510" t="s">
         <v>383</v>
       </c>
@@ -6283,7 +6356,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6291,7 +6364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2">
       <c r="A512" t="s">
         <v>234</v>
       </c>
@@ -6299,7 +6372,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2">
       <c r="A513" t="s">
         <v>565</v>
       </c>
@@ -6307,7 +6380,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2">
       <c r="A514" t="s">
         <v>384</v>
       </c>
@@ -6315,7 +6388,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2">
       <c r="A515" t="s">
         <v>343</v>
       </c>
@@ -6323,7 +6396,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2">
       <c r="A516" t="s">
         <v>344</v>
       </c>
@@ -6331,7 +6404,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -6339,7 +6412,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2">
       <c r="A518" t="s">
         <v>230</v>
       </c>
@@ -6347,7 +6420,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6355,7 +6428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6363,7 +6436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6371,7 +6444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -6379,7 +6452,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2">
       <c r="A523" t="s">
         <v>345</v>
       </c>
@@ -6387,7 +6460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6395,7 +6468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -6403,7 +6476,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2">
       <c r="A526" t="s">
         <v>386</v>
       </c>
@@ -6411,7 +6484,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2">
       <c r="A527" t="s">
         <v>566</v>
       </c>
@@ -6419,7 +6492,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2">
       <c r="A528" t="s">
         <v>567</v>
       </c>
@@ -6427,7 +6500,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2">
       <c r="A529" t="s">
         <v>568</v>
       </c>
@@ -6435,7 +6508,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6443,7 +6516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6451,7 +6524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2">
       <c r="A532" t="s">
         <v>572</v>
       </c>
@@ -6459,7 +6532,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2">
       <c r="A533" t="s">
         <v>240</v>
       </c>
@@ -6467,7 +6540,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2">
       <c r="A534" t="s">
         <v>571</v>
       </c>
@@ -6475,7 +6548,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6483,7 +6556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2">
       <c r="A536" t="s">
         <v>570</v>
       </c>
@@ -6491,7 +6564,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2">
       <c r="A537" t="s">
         <v>228</v>
       </c>
@@ -6499,7 +6572,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2">
       <c r="A538" t="s">
         <v>239</v>
       </c>
@@ -6507,7 +6580,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2">
       <c r="A539" t="s">
         <v>569</v>
       </c>
@@ -6515,7 +6588,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2">
       <c r="A540" t="s">
         <v>387</v>
       </c>
@@ -6523,7 +6596,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6531,7 +6604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2">
       <c r="A542" t="s">
         <v>238</v>
       </c>
@@ -6539,7 +6612,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2">
       <c r="A543" t="s">
         <v>348</v>
       </c>
@@ -6547,7 +6620,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2">
       <c r="A544" t="s">
         <v>347</v>
       </c>
@@ -6555,7 +6628,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2">
       <c r="A545" t="s">
         <v>339</v>
       </c>
@@ -6563,7 +6636,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6571,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2">
       <c r="A547" t="s">
         <v>346</v>
       </c>
@@ -6579,7 +6652,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2">
       <c r="A548" t="s">
         <v>474</v>
       </c>
@@ -6587,7 +6660,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2">
       <c r="A549" t="s">
         <v>340</v>
       </c>
@@ -6595,7 +6668,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -6603,7 +6676,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2">
       <c r="A551" t="s">
         <v>350</v>
       </c>
@@ -6611,7 +6684,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2">
       <c r="A552" t="s">
         <v>341</v>
       </c>
@@ -6619,7 +6692,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2">
       <c r="A553" t="s">
         <v>241</v>
       </c>
@@ -6627,7 +6700,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2">
       <c r="A554" t="s">
         <v>564</v>
       </c>
@@ -6635,7 +6708,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2">
       <c r="A555" t="s">
         <v>379</v>
       </c>
@@ -6643,7 +6716,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6651,7 +6724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2">
       <c r="A557" t="s">
         <v>229</v>
       </c>
@@ -6659,7 +6732,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -6667,7 +6740,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2">
       <c r="A559" t="s">
         <v>242</v>
       </c>
@@ -6675,7 +6748,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2">
       <c r="A560" t="s">
         <v>243</v>
       </c>
@@ -6683,7 +6756,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2">
       <c r="A561" t="s">
         <v>349</v>
       </c>
@@ -6691,7 +6764,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2">
       <c r="A562" t="s">
         <v>352</v>
       </c>
@@ -6699,7 +6772,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2">
       <c r="A563" t="s">
         <v>388</v>
       </c>
@@ -6707,7 +6780,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6715,7 +6788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2">
       <c r="A565" t="s">
         <v>248</v>
       </c>
@@ -6723,15 +6796,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2">
       <c r="A566" t="s">
         <v>573</v>
       </c>
-      <c r="B566" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="6">
+        <v>-1001587382061</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
       <c r="A567" t="s">
         <v>574</v>
       </c>
@@ -6739,15 +6812,15 @@
         <v>584</v>
       </c>
     </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2">
       <c r="A568" t="s">
         <v>575</v>
       </c>
-      <c r="B568" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
       <c r="A569" t="s">
         <v>576</v>
       </c>
@@ -6755,7 +6828,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2">
       <c r="A570" t="s">
         <v>577</v>
       </c>
@@ -6763,7 +6836,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2">
       <c r="A571" t="s">
         <v>578</v>
       </c>
@@ -6771,7 +6844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2">
       <c r="A572" t="s">
         <v>579</v>
       </c>
@@ -6779,7 +6852,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2">
       <c r="A573" t="s">
         <v>580</v>
       </c>
@@ -6787,7 +6860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2">
       <c r="A574" t="s">
         <v>581</v>
       </c>
@@ -6795,7 +6868,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2">
       <c r="A575" t="s">
         <v>582</v>
       </c>
@@ -6803,7 +6876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2">
       <c r="A576" t="s">
         <v>583</v>
       </c>
@@ -6811,7 +6884,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2">
       <c r="A577" t="s">
         <v>585</v>
       </c>
@@ -6819,7 +6892,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2">
       <c r="A578" t="s">
         <v>589</v>
       </c>
@@ -6827,7 +6900,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2">
       <c r="A579" t="s">
         <v>586</v>
       </c>
@@ -6835,7 +6908,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2">
       <c r="A580" t="s">
         <v>587</v>
       </c>
@@ -6843,7 +6916,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2">
       <c r="A581" t="s">
         <v>588</v>
       </c>
@@ -6851,7 +6924,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2">
       <c r="A582" t="s">
         <v>590</v>
       </c>
@@ -6859,7 +6932,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2">
       <c r="A583" t="s">
         <v>591</v>
       </c>
@@ -6867,7 +6940,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2">
       <c r="A584" t="s">
         <v>592</v>
       </c>
@@ -6875,7 +6948,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2">
       <c r="A585" t="s">
         <v>593</v>
       </c>
@@ -6883,7 +6956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2">
       <c r="A586" t="s">
         <v>594</v>
       </c>
@@ -6891,7 +6964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2">
       <c r="A587" t="s">
         <v>595</v>
       </c>
@@ -6899,7 +6972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2">
       <c r="A588" t="s">
         <v>596</v>
       </c>
@@ -6907,7 +6980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2">
       <c r="A589" t="s">
         <v>597</v>
       </c>
@@ -6915,15 +6988,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2">
       <c r="A590" t="s">
         <v>598</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
       <c r="A591" t="s">
         <v>599</v>
       </c>
@@ -6931,7 +7004,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2">
       <c r="A592" t="s">
         <v>600</v>
       </c>
@@ -6939,14 +7012,176 @@
         <v>3</v>
       </c>
     </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>601</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>602</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>603</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>604</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>605</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>606</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>607</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>608</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>609</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>610</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>611</v>
+      </c>
+      <c r="B603" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>612</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>613</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>614</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>615</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>616</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
+        <v>617</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
+        <v>618</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
+        <v>619</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
+        <v>620</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
+        <v>621</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F592">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="A0100525"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F603"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\HeadOffice\Kassa_ve_Inkassasiya_Proseslerinin_Idare_Edilmesi_Dep\Tehlil_ve_koordinasiya_shobesi\texniki_id\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\HEAD-OFFICE\Private\Tehlil_ve_koordinasiya_shob\Tehlil_ve_koordinasiya_shobesi\texniki_id\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10980" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$603</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$605</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="612">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>A0100024</t>
   </si>
   <si>
-    <t>-1001788196806</t>
-  </si>
-  <si>
     <t>A0100030</t>
   </si>
   <si>
@@ -1830,74 +1827,44 @@
     <t>A0100518</t>
   </si>
   <si>
-    <t>ADM271011</t>
-  </si>
-  <si>
-    <t>ADM284011</t>
-  </si>
-  <si>
-    <t>K0255011</t>
-  </si>
-  <si>
-    <t>ADM000009</t>
-  </si>
-  <si>
-    <t>K0241012</t>
-  </si>
-  <si>
-    <t>K0107013</t>
-  </si>
-  <si>
-    <t>N0014012</t>
-  </si>
-  <si>
-    <t>N0039011</t>
-  </si>
-  <si>
-    <t>K0256011</t>
-  </si>
-  <si>
-    <t>K0220011</t>
-  </si>
-  <si>
-    <t>K0108003</t>
-  </si>
-  <si>
-    <t>K0234011</t>
-  </si>
-  <si>
-    <t>K0142011</t>
-  </si>
-  <si>
-    <t>K0240011</t>
-  </si>
-  <si>
-    <t>N0021011</t>
-  </si>
-  <si>
-    <t>K0213011</t>
-  </si>
-  <si>
-    <t>K0117011</t>
-  </si>
-  <si>
-    <t>N0039012</t>
-  </si>
-  <si>
-    <t>K0103014</t>
-  </si>
-  <si>
-    <t>K0113012</t>
+    <t>A0100527</t>
+  </si>
+  <si>
+    <t>A0100528</t>
+  </si>
+  <si>
+    <t>A0100529</t>
+  </si>
+  <si>
+    <t>A0100530</t>
+  </si>
+  <si>
+    <t>A0100531</t>
+  </si>
+  <si>
+    <t>A0100532</t>
+  </si>
+  <si>
+    <t>A0100533</t>
+  </si>
+  <si>
+    <t>A0100534</t>
+  </si>
+  <si>
+    <t>A0100535</t>
+  </si>
+  <si>
+    <t>A0100464</t>
+  </si>
+  <si>
+    <t>A0100536</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1912,11 +1879,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1939,7 +1901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1953,9 +1915,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2261,19 +2220,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F613"/>
+  <dimension ref="A1:F605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
-      <selection activeCell="I611" sqref="I611"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="F584" sqref="F584"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2281,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2289,31 +2248,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2321,15 +2280,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2337,7 +2296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2345,7 +2304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2361,23 +2320,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>483</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2385,7 +2344,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2393,23 +2352,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>484</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>485</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -2417,15 +2376,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2433,15 +2392,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2449,23 +2408,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>353</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -2473,15 +2432,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2489,15 +2448,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -2505,15 +2464,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2521,7 +2480,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>273</v>
       </c>
@@ -2529,7 +2488,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>274</v>
       </c>
@@ -2537,7 +2496,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -2545,23 +2504,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>490</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>491</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>492</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2569,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2577,7 +2536,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2585,7 +2544,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -2601,15 +2560,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2625,23 +2584,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2649,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2657,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2665,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2673,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2681,7 +2640,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2697,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2705,7 +2664,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2713,23 +2672,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>392</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>393</v>
-      </c>
       <c r="B57" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2737,7 +2696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2745,23 +2704,23 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>495</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>496</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2769,49 +2728,49 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>356</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
+      <c r="B65" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>357</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
+      <c r="B66" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>358</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>359</v>
-      </c>
       <c r="B67" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2819,40 +2778,40 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>394</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>395</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>396</v>
-      </c>
       <c r="B70" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>253</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2860,7 +2819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2868,7 +2827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2876,7 +2835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2884,15 +2843,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2900,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2908,7 +2867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2916,7 +2875,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2924,7 +2883,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -2932,7 +2891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2940,15 +2899,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -2956,7 +2915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2964,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2972,7 +2931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2980,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2988,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2996,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -3004,7 +2963,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -3012,7 +2971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -3020,7 +2979,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -3028,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -3036,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -3044,7 +3003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -3052,47 +3011,47 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>498</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>499</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>500</v>
-      </c>
       <c r="B99" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>359</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>360</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>361</v>
-      </c>
       <c r="B101" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3100,7 +3059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -3108,15 +3067,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3124,15 +3083,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -3140,15 +3099,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -3156,7 +3115,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3164,7 +3123,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3172,7 +3131,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -3180,31 +3139,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>501</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>502</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="B115" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>503</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>504</v>
-      </c>
       <c r="B116" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -3212,7 +3171,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -3220,7 +3179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3228,7 +3187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -3236,15 +3195,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3252,7 +3211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3260,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3268,15 +3227,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -3284,7 +3243,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>292</v>
       </c>
@@ -3292,47 +3251,47 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>504</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>505</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B129" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>506</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>507</v>
-      </c>
       <c r="B130" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3340,15 +3299,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -3356,7 +3315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3364,15 +3323,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -3380,31 +3339,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>403</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>404</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B140" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>405</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>406</v>
-      </c>
       <c r="B141" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3412,7 +3371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3420,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -3428,7 +3387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3436,15 +3395,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3452,7 +3411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3460,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3468,7 +3427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3476,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3484,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3492,15 +3451,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3508,7 +3467,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3516,7 +3475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>296</v>
       </c>
@@ -3524,7 +3483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3532,15 +3491,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3548,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3556,7 +3515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3564,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3572,7 +3531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>297</v>
       </c>
@@ -3580,31 +3539,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>408</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>409</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>410</v>
-      </c>
       <c r="B165" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3612,15 +3571,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3628,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3636,7 +3595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3644,15 +3603,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3660,7 +3619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3668,7 +3627,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3676,55 +3635,55 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>410</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>411</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B177" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>412</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B178" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>413</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B179" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>414</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="B180" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>415</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>416</v>
-      </c>
       <c r="B181" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3732,31 +3691,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>416</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>417</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+      <c r="B184" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>418</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>419</v>
-      </c>
       <c r="B185" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3764,7 +3723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -3772,143 +3731,143 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>419</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>365</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>420</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>366</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B190" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>421</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+      <c r="B191" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>422</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B192" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>423</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="B193" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>424</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+      <c r="B194" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>425</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B195" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>426</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B196" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>427</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B197" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>428</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B198" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>429</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B199" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>430</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="B200" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>431</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+      <c r="B201" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>510</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>432</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>511</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="B203" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>433</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>434</v>
-      </c>
       <c r="B204" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -3916,7 +3875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3924,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3932,15 +3891,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>51</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -3948,7 +3907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>298</v>
       </c>
@@ -3956,7 +3915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3964,15 +3923,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -3980,7 +3939,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -3988,31 +3947,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>512</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>513</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>514</v>
-      </c>
       <c r="B217" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -4020,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -4028,23 +3987,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>435</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>436</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>437</v>
-      </c>
       <c r="B221" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -4052,7 +4011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -4060,7 +4019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -4068,7 +4027,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -4076,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>167</v>
       </c>
@@ -4084,7 +4043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>168</v>
       </c>
@@ -4092,31 +4051,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>514</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>437</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>515</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>438</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>516</v>
-      </c>
       <c r="B230" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -4124,7 +4083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4132,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4140,7 +4099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>170</v>
       </c>
@@ -4148,7 +4107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>171</v>
       </c>
@@ -4156,7 +4115,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>302</v>
       </c>
@@ -4164,7 +4123,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4172,7 +4131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4180,23 +4139,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -4204,7 +4163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4212,15 +4171,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -4228,7 +4187,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4236,7 +4195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>173</v>
       </c>
@@ -4244,7 +4203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -4252,7 +4211,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -4260,31 +4219,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>517</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>518</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
+      <c r="B250" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>519</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>520</v>
-      </c>
       <c r="B251" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>176</v>
       </c>
@@ -4292,7 +4251,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -4300,7 +4259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -4308,7 +4267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>179</v>
       </c>
@@ -4316,15 +4275,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -4332,7 +4291,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -4340,7 +4299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4348,7 +4307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4356,7 +4315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4364,15 +4323,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -4380,7 +4339,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4388,7 +4347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -4396,7 +4355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>183</v>
       </c>
@@ -4404,7 +4363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -4412,7 +4371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4420,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4428,15 +4387,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4444,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4452,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4460,7 +4419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>185</v>
       </c>
@@ -4468,7 +4427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4476,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>186</v>
       </c>
@@ -4484,7 +4443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -4492,15 +4451,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -4508,7 +4467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4516,7 +4475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -4524,7 +4483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4532,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>189</v>
       </c>
@@ -4540,15 +4499,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -4556,31 +4515,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>524</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>525</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>526</v>
-      </c>
       <c r="B287" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -4588,7 +4547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -4596,7 +4555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -4604,15 +4563,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -4620,7 +4579,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4628,23 +4587,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -4652,15 +4611,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4668,15 +4627,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>196</v>
       </c>
@@ -4684,39 +4643,39 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>530</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>368</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>369</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>531</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>369</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>370</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>532</v>
-      </c>
       <c r="B305" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4724,7 +4683,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>197</v>
       </c>
@@ -4732,7 +4691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4740,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -4748,15 +4707,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4764,7 +4723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -4772,7 +4731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -4780,7 +4739,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -4788,7 +4747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4796,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4804,7 +4763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4812,7 +4771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -4820,7 +4779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>201</v>
       </c>
@@ -4828,7 +4787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>202</v>
       </c>
@@ -4836,7 +4795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>203</v>
       </c>
@@ -4844,15 +4803,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>204</v>
       </c>
@@ -4860,7 +4819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>205</v>
       </c>
@@ -4868,7 +4827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>308</v>
       </c>
@@ -4876,7 +4835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>206</v>
       </c>
@@ -4884,15 +4843,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4900,31 +4859,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>534</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>442</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>535</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
-        <v>443</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" t="s">
-        <v>536</v>
-      </c>
       <c r="B331" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4932,39 +4891,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>536</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>443</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>444</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>537</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" t="s">
-        <v>444</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" t="s">
-        <v>445</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" t="s">
-        <v>538</v>
-      </c>
       <c r="B336" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4972,15 +4931,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -4988,7 +4947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>261</v>
       </c>
@@ -4996,7 +4955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>262</v>
       </c>
@@ -5004,15 +4963,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -5020,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -5028,7 +4987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>311</v>
       </c>
@@ -5036,7 +4995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -5044,7 +5003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -5052,23 +5011,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>445</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>446</v>
       </c>
-      <c r="B348" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" t="s">
-        <v>447</v>
-      </c>
       <c r="B349" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -5076,7 +5035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>208</v>
       </c>
@@ -5084,7 +5043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -5092,7 +5051,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -5100,15 +5059,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>210</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>313</v>
       </c>
@@ -5116,55 +5075,55 @@
         <v>269</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>370</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>540</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
         <v>371</v>
       </c>
-      <c r="B356" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" t="s">
+      <c r="B358" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
         <v>541</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" t="s">
-        <v>372</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" t="s">
-        <v>542</v>
-      </c>
       <c r="B359" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>447</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>448</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" t="s">
-        <v>449</v>
-      </c>
       <c r="B361" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>211</v>
       </c>
@@ -5172,31 +5131,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>542</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
         <v>543</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" t="s">
-        <v>544</v>
-      </c>
       <c r="B365" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -5204,15 +5163,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -5220,7 +5179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5228,15 +5187,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5244,15 +5203,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -5260,15 +5219,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>214</v>
       </c>
@@ -5276,7 +5235,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5284,15 +5243,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5300,39 +5259,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>545</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>454</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>372</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
         <v>546</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" t="s">
-        <v>455</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="s">
-        <v>373</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
-        <v>547</v>
-      </c>
       <c r="B382" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -5340,7 +5299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -5348,7 +5307,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>314</v>
       </c>
@@ -5356,31 +5315,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>373</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>374</v>
       </c>
-      <c r="B387" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" t="s">
-        <v>375</v>
-      </c>
       <c r="B388" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -5388,7 +5347,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>316</v>
       </c>
@@ -5396,23 +5355,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>547</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
         <v>548</v>
       </c>
-      <c r="B391" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" t="s">
-        <v>549</v>
-      </c>
       <c r="B392" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>317</v>
       </c>
@@ -5420,7 +5379,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>217</v>
       </c>
@@ -5428,7 +5387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>318</v>
       </c>
@@ -5436,7 +5395,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>264</v>
       </c>
@@ -5444,7 +5403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>218</v>
       </c>
@@ -5452,7 +5411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>319</v>
       </c>
@@ -5460,15 +5419,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>320</v>
       </c>
@@ -5476,15 +5435,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>376</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
+        <v>375</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -5492,15 +5451,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>219</v>
       </c>
@@ -5508,7 +5467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5516,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5524,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5532,15 +5491,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5548,23 +5507,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5572,15 +5531,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5588,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>322</v>
       </c>
@@ -5596,7 +5555,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -5604,15 +5563,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>265</v>
       </c>
@@ -5620,7 +5579,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5628,7 +5587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>220</v>
       </c>
@@ -5636,7 +5595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5644,31 +5603,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>460</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
         <v>461</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" t="s">
-        <v>462</v>
-      </c>
       <c r="B424" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5676,7 +5635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5684,15 +5643,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5700,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -5708,7 +5667,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5716,31 +5675,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>554</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>555</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" t="s">
+      <c r="B432" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
         <v>556</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" t="s">
-        <v>557</v>
-      </c>
       <c r="B433" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>325</v>
       </c>
@@ -5748,7 +5707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>326</v>
       </c>
@@ -5756,7 +5715,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5764,15 +5723,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5780,15 +5739,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5796,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5804,15 +5763,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>327</v>
       </c>
@@ -5820,15 +5779,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>266</v>
       </c>
@@ -5836,7 +5795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -5844,31 +5803,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>464</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>376</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>465</v>
       </c>
-      <c r="B447" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" t="s">
-        <v>377</v>
-      </c>
-      <c r="B448" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" t="s">
-        <v>466</v>
-      </c>
       <c r="B449" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>328</v>
       </c>
@@ -5876,7 +5835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>329</v>
       </c>
@@ -5884,7 +5843,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>330</v>
       </c>
@@ -5892,7 +5851,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>331</v>
       </c>
@@ -5900,7 +5859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5908,7 +5867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>222</v>
       </c>
@@ -5916,15 +5875,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>332</v>
       </c>
@@ -5932,39 +5891,39 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>467</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
         <v>468</v>
       </c>
-      <c r="B458" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" t="s">
-        <v>469</v>
-      </c>
       <c r="B459" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>105</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>223</v>
       </c>
@@ -5972,7 +5931,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5980,7 +5939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>333</v>
       </c>
@@ -5988,7 +5947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>224</v>
       </c>
@@ -5996,7 +5955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -6004,7 +5963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>225</v>
       </c>
@@ -6012,7 +5971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -6020,15 +5979,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>334</v>
       </c>
@@ -6036,7 +5995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>335</v>
       </c>
@@ -6044,7 +6003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>336</v>
       </c>
@@ -6052,7 +6011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>226</v>
       </c>
@@ -6060,7 +6019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -6068,7 +6027,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>267</v>
       </c>
@@ -6076,15 +6035,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>246</v>
       </c>
@@ -6092,7 +6051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>247</v>
       </c>
@@ -6100,7 +6059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6108,23 +6067,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6132,7 +6091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6140,15 +6099,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>338</v>
       </c>
@@ -6156,23 +6115,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>351</v>
       </c>
@@ -6180,31 +6139,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>476</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
         <v>477</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2">
-      <c r="A490" t="s">
-        <v>478</v>
-      </c>
       <c r="B490" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6212,7 +6171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6220,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>245</v>
       </c>
@@ -6228,7 +6187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -6236,7 +6195,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -6244,15 +6203,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6260,7 +6219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6268,15 +6227,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6284,7 +6243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6292,23 +6251,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>470</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
         <v>471</v>
       </c>
-      <c r="B503" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2">
-      <c r="A504" t="s">
-        <v>472</v>
-      </c>
       <c r="B504" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>233</v>
       </c>
@@ -6316,23 +6275,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>380</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
         <v>381</v>
       </c>
-      <c r="B506" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2">
-      <c r="A507" t="s">
-        <v>382</v>
-      </c>
       <c r="B507" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6340,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>342</v>
       </c>
@@ -6348,15 +6307,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6364,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>234</v>
       </c>
@@ -6372,23 +6331,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>343</v>
       </c>
@@ -6396,7 +6355,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>344</v>
       </c>
@@ -6404,7 +6363,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -6412,7 +6371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>230</v>
       </c>
@@ -6420,7 +6379,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6428,7 +6387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6436,7 +6395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6444,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -6452,7 +6411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>345</v>
       </c>
@@ -6460,7 +6419,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6468,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -6476,39 +6435,39 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>565</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
         <v>566</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
-      <c r="A528" t="s">
+      <c r="B528" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
         <v>567</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
-      <c r="A529" t="s">
-        <v>568</v>
-      </c>
       <c r="B529" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6516,7 +6475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6524,15 +6483,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>240</v>
       </c>
@@ -6540,15 +6499,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6556,15 +6515,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>228</v>
       </c>
@@ -6572,7 +6531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>239</v>
       </c>
@@ -6580,23 +6539,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6604,7 +6563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>238</v>
       </c>
@@ -6612,7 +6571,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>348</v>
       </c>
@@ -6620,7 +6579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>347</v>
       </c>
@@ -6628,7 +6587,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>339</v>
       </c>
@@ -6636,7 +6595,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6644,7 +6603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>346</v>
       </c>
@@ -6652,15 +6611,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>340</v>
       </c>
@@ -6668,7 +6627,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -6676,7 +6635,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>350</v>
       </c>
@@ -6684,7 +6643,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>341</v>
       </c>
@@ -6692,7 +6651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>241</v>
       </c>
@@ -6700,23 +6659,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6724,7 +6683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>229</v>
       </c>
@@ -6732,7 +6691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -6740,7 +6699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>242</v>
       </c>
@@ -6748,7 +6707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>243</v>
       </c>
@@ -6756,7 +6715,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>349</v>
       </c>
@@ -6764,7 +6723,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>352</v>
       </c>
@@ -6772,15 +6731,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6788,7 +6747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>248</v>
       </c>
@@ -6796,392 +6755,324 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>572</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
         <v>573</v>
       </c>
-      <c r="B566" s="6">
-        <v>-1001587382061</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2">
-      <c r="A567" t="s">
+      <c r="B567" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
         <v>574</v>
       </c>
-      <c r="B567" s="5" t="s">
+      <c r="B568" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>575</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>576</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>577</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>578</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>579</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>580</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>581</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>582</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="568" spans="1:2">
-      <c r="A568" t="s">
-        <v>575</v>
-      </c>
-      <c r="B568" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2">
-      <c r="A569" t="s">
-        <v>576</v>
-      </c>
-      <c r="B569" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2">
-      <c r="A570" t="s">
-        <v>577</v>
-      </c>
-      <c r="B570" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
-      <c r="A571" t="s">
-        <v>578</v>
-      </c>
-      <c r="B571" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2">
-      <c r="A572" t="s">
-        <v>579</v>
-      </c>
-      <c r="B572" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2">
-      <c r="A573" t="s">
-        <v>580</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2">
-      <c r="A574" t="s">
-        <v>581</v>
-      </c>
-      <c r="B574" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2">
-      <c r="A575" t="s">
-        <v>582</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" t="s">
-        <v>583</v>
-      </c>
-      <c r="B576" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" t="s">
+      <c r="B577" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>588</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
         <v>585</v>
       </c>
-      <c r="B577" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="A578" t="s">
-        <v>589</v>
-      </c>
-      <c r="B578" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2">
-      <c r="A579" t="s">
+      <c r="B579" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
         <v>586</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2">
-      <c r="A580" t="s">
-        <v>587</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>589</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
         <v>590</v>
       </c>
-      <c r="B582" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2">
-      <c r="A583" t="s">
+      <c r="B583" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
         <v>591</v>
       </c>
-      <c r="B583" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2">
-      <c r="A584" t="s">
+      <c r="B584" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
         <v>592</v>
       </c>
-      <c r="B584" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2">
-      <c r="A585" t="s">
+      <c r="B585" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
         <v>593</v>
       </c>
-      <c r="B585" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2">
-      <c r="A586" t="s">
+      <c r="B586" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
         <v>594</v>
       </c>
-      <c r="B586" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2">
-      <c r="A587" t="s">
+      <c r="B587" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
         <v>595</v>
       </c>
-      <c r="B587" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2">
-      <c r="A588" t="s">
+      <c r="B588" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
         <v>596</v>
       </c>
-      <c r="B588" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2">
-      <c r="A589" t="s">
+      <c r="B589" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
         <v>597</v>
       </c>
-      <c r="B589" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2">
-      <c r="A590" t="s">
+      <c r="B590" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
         <v>598</v>
       </c>
-      <c r="B590" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2">
-      <c r="A591" t="s">
+      <c r="B591" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
         <v>599</v>
       </c>
-      <c r="B591" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2">
-      <c r="A592" t="s">
+      <c r="B592" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
         <v>600</v>
       </c>
-      <c r="B592" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2">
-      <c r="A593" t="s">
+      <c r="B593" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
         <v>601</v>
       </c>
-      <c r="B593" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2">
-      <c r="A594" t="s">
+      <c r="B594" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
         <v>602</v>
       </c>
-      <c r="B594" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2">
-      <c r="A595" t="s">
+      <c r="B595" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
         <v>603</v>
       </c>
-      <c r="B595" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2">
-      <c r="A596" t="s">
+      <c r="B596" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
         <v>604</v>
       </c>
-      <c r="B596" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2">
-      <c r="A597" t="s">
+      <c r="B597" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
         <v>605</v>
       </c>
-      <c r="B597" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2">
-      <c r="A598" t="s">
+      <c r="B598" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
         <v>606</v>
       </c>
-      <c r="B598" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2">
-      <c r="A599" t="s">
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
         <v>607</v>
       </c>
-      <c r="B599" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2">
-      <c r="A600" t="s">
+      <c r="B600" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
         <v>608</v>
       </c>
-      <c r="B600" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2">
-      <c r="A601" t="s">
+      <c r="B601" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
         <v>609</v>
       </c>
-      <c r="B601" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2">
-      <c r="A602" t="s">
+      <c r="B602" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
         <v>610</v>
       </c>
-      <c r="B602" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2">
-      <c r="A603" t="s">
+      <c r="B603" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>574</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
         <v>611</v>
       </c>
-      <c r="B603" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2">
-      <c r="A604" t="s">
-        <v>612</v>
-      </c>
-      <c r="B604" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2">
-      <c r="A605" t="s">
-        <v>613</v>
-      </c>
-      <c r="B605" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2">
-      <c r="A606" t="s">
-        <v>614</v>
-      </c>
-      <c r="B606" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2">
-      <c r="A607" t="s">
-        <v>615</v>
-      </c>
-      <c r="B607" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2">
-      <c r="A608" t="s">
-        <v>616</v>
-      </c>
-      <c r="B608" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2">
-      <c r="A609" t="s">
-        <v>617</v>
-      </c>
-      <c r="B609" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2">
-      <c r="A610" t="s">
-        <v>618</v>
-      </c>
-      <c r="B610" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2">
-      <c r="A611" t="s">
-        <v>619</v>
-      </c>
-      <c r="B611" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2">
-      <c r="A612" t="s">
-        <v>620</v>
-      </c>
-      <c r="B612" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
-      <c r="A613" t="s">
-        <v>621</v>
-      </c>
-      <c r="B613" s="2" t="s">
-        <v>3</v>
+      <c r="B605" s="5" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F603"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$605</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="F584" sqref="F584"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="D458" sqref="D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5927,8 +5927,8 @@
       <c r="A462" t="s">
         <v>223</v>
       </c>
-      <c r="B462" s="2" t="s">
-        <v>132</v>
+      <c r="B462" s="5" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10368"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$605</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="612">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1080,9 +1080,6 @@
     <t>K0100245</t>
   </si>
   <si>
-    <t>K02140011</t>
-  </si>
-  <si>
     <t>A0100024</t>
   </si>
   <si>
@@ -1858,6 +1855,9 @@
   </si>
   <si>
     <t>A0100536</t>
+  </si>
+  <si>
+    <t>K0214011</t>
   </si>
 </sst>
 </file>
@@ -2222,17 +2222,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="D458" sqref="D458"/>
+    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
+      <selection activeCell="F604" sqref="F604"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2248,31 +2248,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2280,15 +2280,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2320,23 +2320,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>481</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>482</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2352,23 +2352,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>482</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>483</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>484</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -2376,15 +2376,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2392,15 +2392,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2408,23 +2408,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -2432,15 +2432,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2448,15 +2448,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -2464,15 +2464,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>273</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>274</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -2504,23 +2504,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>489</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>490</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>491</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -2560,15 +2560,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2584,23 +2584,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2672,23 +2672,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>390</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>391</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>392</v>
-      </c>
       <c r="B57" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2704,23 +2704,23 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>493</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>494</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>495</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2728,49 +2728,49 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>354</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>355</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B65" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>356</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>358</v>
-      </c>
       <c r="B67" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2778,40 +2778,40 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>393</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>394</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>395</v>
-      </c>
       <c r="B70" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>253</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2843,15 +2843,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2899,15 +2899,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -3011,47 +3011,47 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>497</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>498</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>499</v>
-      </c>
       <c r="B99" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>358</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>359</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>360</v>
-      </c>
       <c r="B101" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -3067,15 +3067,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3083,15 +3083,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -3099,15 +3099,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -3139,31 +3139,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>500</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>501</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>502</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>503</v>
-      </c>
       <c r="B116" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -3195,15 +3195,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3227,15 +3227,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>292</v>
       </c>
@@ -3251,47 +3251,47 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>503</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>504</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>505</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>506</v>
-      </c>
       <c r="B130" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3299,15 +3299,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3323,15 +3323,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -3339,31 +3339,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>402</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>403</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B140" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>404</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>405</v>
-      </c>
       <c r="B141" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3395,15 +3395,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3451,15 +3451,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>296</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3491,15 +3491,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>297</v>
       </c>
@@ -3539,31 +3539,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>407</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>408</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>409</v>
-      </c>
       <c r="B165" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3571,15 +3571,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3603,15 +3603,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3635,55 +3635,55 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>409</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>410</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B177" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>411</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B178" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>412</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="B179" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>413</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B180" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>414</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>415</v>
-      </c>
       <c r="B181" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3691,31 +3691,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>415</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>416</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B184" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>417</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>418</v>
-      </c>
       <c r="B185" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -3731,143 +3731,143 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>418</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>364</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>419</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>365</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="B190" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>420</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="B191" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>421</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B192" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>422</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B193" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>423</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B194" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>424</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B195" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>425</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B196" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>426</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B197" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>427</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B198" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>428</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B199" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>429</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B200" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>430</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B201" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>509</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>431</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>510</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B203" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>432</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>433</v>
-      </c>
       <c r="B204" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3891,15 +3891,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>51</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>298</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3923,15 +3923,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -3947,31 +3947,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>511</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>512</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>513</v>
-      </c>
       <c r="B217" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -3987,23 +3987,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>434</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>435</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>436</v>
-      </c>
       <c r="B221" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>167</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>168</v>
       </c>
@@ -4051,31 +4051,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>513</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>436</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>514</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>437</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>515</v>
-      </c>
       <c r="B230" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>170</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>171</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>302</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4139,23 +4139,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4171,15 +4171,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>173</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -4219,31 +4219,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>516</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>517</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B250" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>518</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>519</v>
-      </c>
       <c r="B251" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>176</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>179</v>
       </c>
@@ -4275,15 +4275,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4323,15 +4323,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>183</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4387,15 +4387,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>185</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>186</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -4451,15 +4451,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>189</v>
       </c>
@@ -4499,15 +4499,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -4515,31 +4515,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
+        <v>523</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>524</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>525</v>
-      </c>
       <c r="B287" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -4563,15 +4563,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4587,23 +4587,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -4611,15 +4611,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4627,15 +4627,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>196</v>
       </c>
@@ -4643,39 +4643,39 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
+        <v>529</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>367</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>368</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>530</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>368</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>369</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>531</v>
-      </c>
       <c r="B305" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>197</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -4707,15 +4707,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>201</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>202</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>203</v>
       </c>
@@ -4803,15 +4803,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>204</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>205</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>308</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>206</v>
       </c>
@@ -4843,15 +4843,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4859,31 +4859,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>533</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>441</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>534</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>442</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>535</v>
-      </c>
       <c r="B331" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4891,39 +4891,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>535</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>442</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>443</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>536</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>443</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>444</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>537</v>
-      </c>
       <c r="B336" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4931,15 +4931,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>261</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>262</v>
       </c>
@@ -4963,15 +4963,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>311</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -5011,23 +5011,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
+        <v>444</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>445</v>
       </c>
-      <c r="B348" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>446</v>
-      </c>
       <c r="B349" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>208</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -5059,15 +5059,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>210</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>313</v>
       </c>
@@ -5075,55 +5075,55 @@
         <v>269</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
+        <v>369</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>539</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>370</v>
       </c>
-      <c r="B356" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="B358" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>540</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>371</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>541</v>
-      </c>
       <c r="B359" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
+        <v>446</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>447</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>448</v>
-      </c>
       <c r="B361" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>211</v>
       </c>
@@ -5131,31 +5131,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
+        <v>541</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>542</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>543</v>
-      </c>
       <c r="B365" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -5163,15 +5163,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5187,15 +5187,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5203,15 +5203,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -5219,15 +5219,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>214</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5243,15 +5243,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5259,39 +5259,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
+        <v>544</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>453</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>371</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>545</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>454</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>372</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>546</v>
-      </c>
       <c r="B382" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>314</v>
       </c>
@@ -5315,31 +5315,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
+        <v>372</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
         <v>373</v>
       </c>
-      <c r="B387" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>374</v>
-      </c>
       <c r="B388" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>316</v>
       </c>
@@ -5355,23 +5355,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
+        <v>546</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>547</v>
       </c>
-      <c r="B391" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>548</v>
-      </c>
       <c r="B392" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>317</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>217</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>318</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>264</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>218</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>319</v>
       </c>
@@ -5419,15 +5419,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>320</v>
       </c>
@@ -5435,15 +5435,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -5451,15 +5451,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>219</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5491,15 +5491,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5507,23 +5507,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5531,15 +5531,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>322</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -5563,15 +5563,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>265</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>220</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5603,31 +5603,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
+        <v>459</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>460</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>461</v>
-      </c>
       <c r="B424" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5643,15 +5643,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5675,31 +5675,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
+        <v>553</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>554</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="B432" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>555</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>556</v>
-      </c>
       <c r="B433" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>325</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>326</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5723,15 +5723,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5739,15 +5739,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5763,15 +5763,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>327</v>
       </c>
@@ -5779,15 +5779,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>266</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -5803,31 +5803,31 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
+        <v>463</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>375</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
         <v>464</v>
       </c>
-      <c r="B447" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>376</v>
-      </c>
-      <c r="B448" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>465</v>
-      </c>
       <c r="B449" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>328</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>329</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>330</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>331</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>222</v>
       </c>
@@ -5875,15 +5875,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>332</v>
       </c>
@@ -5891,47 +5891,47 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
+        <v>466</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
         <v>467</v>
       </c>
-      <c r="B458" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>468</v>
-      </c>
       <c r="B459" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>105</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>223</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>333</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>224</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>225</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -5979,15 +5979,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>334</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>335</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>336</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>226</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>267</v>
       </c>
@@ -6035,15 +6035,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>246</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>247</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6067,23 +6067,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6099,15 +6099,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>338</v>
       </c>
@@ -6115,23 +6115,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>351</v>
       </c>
@@ -6139,31 +6139,31 @@
         <v>269</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
+        <v>475</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
         <v>476</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>477</v>
-      </c>
       <c r="B490" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>245</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -6203,15 +6203,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6227,15 +6227,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6251,23 +6251,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
+        <v>469</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
         <v>470</v>
       </c>
-      <c r="B503" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>471</v>
-      </c>
       <c r="B504" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>233</v>
       </c>
@@ -6275,23 +6275,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
+        <v>379</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
         <v>380</v>
       </c>
-      <c r="B506" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>381</v>
-      </c>
       <c r="B507" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>342</v>
       </c>
@@ -6307,15 +6307,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>234</v>
       </c>
@@ -6331,23 +6331,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>343</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>344</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>230</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>345</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -6435,39 +6435,39 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
+        <v>564</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
         <v>565</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+      <c r="B528" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
         <v>566</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>567</v>
-      </c>
       <c r="B529" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6483,15 +6483,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>240</v>
       </c>
@@ -6499,15 +6499,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6515,15 +6515,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>228</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>239</v>
       </c>
@@ -6539,23 +6539,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>238</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>348</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>347</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>339</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>346</v>
       </c>
@@ -6611,15 +6611,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>340</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>350</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>341</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>241</v>
       </c>
@@ -6659,23 +6659,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>229</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>242</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>243</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>349</v>
       </c>
@@ -6723,23 +6723,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>352</v>
+        <v>611</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>248</v>
       </c>
@@ -6755,321 +6755,324 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
+        <v>571</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
         <v>572</v>
       </c>
-      <c r="B566" s="5" t="s">
+      <c r="B567" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>573</v>
+      </c>
+      <c r="B568" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>574</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>575</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>576</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>577</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>578</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>579</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>580</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>581</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>573</v>
-      </c>
-      <c r="B567" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
-        <v>574</v>
-      </c>
-      <c r="B568" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>575</v>
-      </c>
-      <c r="B569" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>576</v>
-      </c>
-      <c r="B570" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>577</v>
-      </c>
-      <c r="B571" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>578</v>
-      </c>
-      <c r="B572" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>579</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>580</v>
-      </c>
-      <c r="B574" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>581</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>582</v>
-      </c>
-      <c r="B576" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+      <c r="B577" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>587</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
         <v>584</v>
       </c>
-      <c r="B577" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>588</v>
-      </c>
-      <c r="B578" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+      <c r="B579" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
         <v>585</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>586</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
+        <v>588</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
         <v>589</v>
       </c>
-      <c r="B582" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+      <c r="B583" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
         <v>590</v>
       </c>
-      <c r="B583" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+      <c r="B584" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
         <v>591</v>
       </c>
-      <c r="B584" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+      <c r="B585" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
         <v>592</v>
       </c>
-      <c r="B585" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
+      <c r="B586" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
         <v>593</v>
       </c>
-      <c r="B586" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
+      <c r="B587" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
         <v>594</v>
       </c>
-      <c r="B587" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
+      <c r="B588" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
         <v>595</v>
       </c>
-      <c r="B588" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
+      <c r="B589" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
         <v>596</v>
       </c>
-      <c r="B589" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+      <c r="B590" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
         <v>597</v>
       </c>
-      <c r="B590" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+      <c r="B591" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
         <v>598</v>
       </c>
-      <c r="B591" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+      <c r="B592" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
         <v>599</v>
       </c>
-      <c r="B592" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+      <c r="B593" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
         <v>600</v>
       </c>
-      <c r="B593" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+      <c r="B594" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
         <v>601</v>
       </c>
-      <c r="B594" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
+      <c r="B595" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
         <v>602</v>
       </c>
-      <c r="B595" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+      <c r="B596" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
         <v>603</v>
       </c>
-      <c r="B596" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
+      <c r="B597" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
         <v>604</v>
       </c>
-      <c r="B597" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
+      <c r="B598" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
         <v>605</v>
       </c>
-      <c r="B598" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+      <c r="B599" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+      <c r="B600" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
         <v>607</v>
       </c>
-      <c r="B600" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+      <c r="B601" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
         <v>608</v>
       </c>
-      <c r="B601" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+      <c r="B602" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
         <v>609</v>
       </c>
-      <c r="B602" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+      <c r="B603" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>573</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
         <v>610</v>
       </c>
-      <c r="B603" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>574</v>
-      </c>
-      <c r="B604" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
-        <v>611</v>
-      </c>
       <c r="B605" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10368"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2222,17 +2222,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="F604" sqref="F604"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>387</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>477</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>479</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>480</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>481</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>482</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>483</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>484</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>485</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>486</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>352</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>487</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>488</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -2472,15 +2472,15 @@
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>273</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>274</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>489</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>490</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>491</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>389</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>492</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>391</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>494</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>392</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>355</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>356</v>
       </c>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>357</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>393</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>394</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>495</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>253</v>
       </c>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>395</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>496</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>497</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>498</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>358</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>359</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>396</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>397</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>398</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>499</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>500</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>501</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>502</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>399</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>400</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>292</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>503</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>504</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>505</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>360</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>401</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>361</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>506</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>403</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>404</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>362</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>405</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>296</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>406</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>297</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>407</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>408</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>507</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>508</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>363</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>409</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>410</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>411</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>412</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>413</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>414</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>415</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>416</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>417</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>418</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>364</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>419</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>420</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>421</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>422</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>423</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>424</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>425</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>427</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>428</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>429</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>430</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>509</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>431</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>432</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>298</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>510</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>433</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>511</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>512</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>434</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>435</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>167</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>168</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>513</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>436</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>514</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>170</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>171</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>302</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>515</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>437</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>438</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>173</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>516</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>517</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>518</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>176</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>179</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>519</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>439</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>183</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>520</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4419,15 +4419,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>185</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B274" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>186</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>521</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>189</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>522</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>523</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>524</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>365</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>525</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>526</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>366</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>527</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>528</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>196</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>529</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>367</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>368</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>530</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>197</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>440</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>201</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>202</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>203</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>531</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>204</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>205</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>308</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>206</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>532</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>533</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>441</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>534</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>535</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>442</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>443</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>536</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>537</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>261</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>262</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>538</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>311</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>444</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>445</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>208</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>210</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>313</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>369</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>539</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>370</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>540</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>446</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>447</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>211</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>448</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>541</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>542</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>543</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>449</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>450</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>451</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>214</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>452</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>544</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>453</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>371</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>545</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>314</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>454</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>372</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>373</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>316</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>546</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>547</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>317</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>217</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>318</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>264</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>218</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>319</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>455</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>320</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>374</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>548</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>219</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>456</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>549</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>457</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>550</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>322</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>458</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>265</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>220</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>551</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>459</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>552</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>553</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>554</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>555</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>325</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>326</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>461</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>556</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>557</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>327</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>462</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>266</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>463</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>375</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>464</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>328</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>329</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>330</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>331</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>222</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>465</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>332</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>466</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>467</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>105</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>558</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>223</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>333</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>224</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>225</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>559</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>334</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>335</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>336</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>226</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>267</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>383</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>246</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>247</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>471</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>468</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>560</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>338</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>376</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>474</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>351</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>475</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>476</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>473</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>245</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>561</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>378</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>469</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>470</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>233</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>379</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>380</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>342</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>381</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>234</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>563</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>382</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>343</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>344</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>230</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>345</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>384</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>564</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>565</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>566</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>570</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>240</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>569</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>568</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>228</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>239</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>567</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>385</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>238</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>348</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>347</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>339</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>346</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>472</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>340</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>350</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>341</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>241</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>562</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>377</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>229</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>242</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>243</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>349</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>611</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>386</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>248</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>571</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>572</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>573</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>574</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>575</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>576</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>577</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>578</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>579</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>580</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>581</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>583</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>587</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>584</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>585</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>586</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>588</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>589</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>590</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>591</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>592</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>593</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>594</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>595</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>596</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>597</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>598</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>599</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>600</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>601</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>602</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>603</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>604</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>605</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>606</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>607</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>608</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>609</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>573</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>610</v>
       </c>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$605</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$610</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="617">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1858,6 +1858,21 @@
   </si>
   <si>
     <t>K0214011</t>
+  </si>
+  <si>
+    <t>A0100537</t>
+  </si>
+  <si>
+    <t>A0100538</t>
+  </si>
+  <si>
+    <t>A0100539</t>
+  </si>
+  <si>
+    <t>A0100540</t>
+  </si>
+  <si>
+    <t>A0100541</t>
   </si>
 </sst>
 </file>
@@ -2220,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F605"/>
+  <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="F273" sqref="F273"/>
+    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
+      <selection activeCell="H601" sqref="H601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,7 +4375,7 @@
         <v>183</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -6759,8 +6774,8 @@
       <c r="A566" t="s">
         <v>571</v>
       </c>
-      <c r="B566" s="5" t="s">
-        <v>582</v>
+      <c r="B566" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -7075,7 +7090,48 @@
         <v>582</v>
       </c>
     </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>612</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>613</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>614</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>615</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>616</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B610"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$610</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$613</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="620">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1873,6 +1873,15 @@
   </si>
   <si>
     <t>A0100541</t>
+  </si>
+  <si>
+    <t>A0100542</t>
+  </si>
+  <si>
+    <t>A0100543</t>
+  </si>
+  <si>
+    <t>A0100544</t>
   </si>
 </sst>
 </file>
@@ -2235,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F610"/>
+  <dimension ref="A1:F613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
-      <selection activeCell="H601" sqref="H601"/>
+    <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
+      <selection activeCell="A618" sqref="A618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4894,9 +4903,6 @@
       <c r="A331" t="s">
         <v>534</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>478</v>
-      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
@@ -6790,8 +6796,8 @@
       <c r="A568" t="s">
         <v>573</v>
       </c>
-      <c r="B568" s="5" t="s">
-        <v>582</v>
+      <c r="B568" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -6951,7 +6957,7 @@
         <v>594</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7130,8 +7136,32 @@
         <v>478</v>
       </c>
     </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>617</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>618</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>619</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B610"/>
+  <autoFilter ref="A1:B613"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$613</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="620">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -2246,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
-      <selection activeCell="A618" sqref="A618"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="E323" sqref="E323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4903,6 +4903,9 @@
       <c r="A331" t="s">
         <v>534</v>
       </c>
+      <c r="B331" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$613</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="619">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>A0100004</t>
-  </si>
-  <si>
-    <t>-1001450241316</t>
   </si>
   <si>
     <t>A0100006</t>
@@ -2246,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="E323" sqref="E323"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="H394" sqref="H394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,18 +2263,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,47 +2282,47 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>132</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2338,34 +2335,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,34 +2375,34 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2418,10 +2415,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2434,34 +2431,34 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,74 +2471,74 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2554,18 +2551,18 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2578,18 +2575,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2602,26 +2599,26 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2658,10 +2655,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,10 +2679,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2698,165 +2695,165 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+      <c r="B75" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,10 +2866,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,34 +2882,34 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,18 +2922,18 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,26 +2978,26 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>146</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,186 +3018,186 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
+      </c>
+      <c r="B97" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>150</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
+      </c>
+      <c r="B106" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>151</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>132</v>
+        <v>150</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>152</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>132</v>
+        <v>151</v>
+      </c>
+      <c r="B118" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,18 +3210,18 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,66 +3250,66 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,66 +3322,66 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>153</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
+      </c>
+      <c r="B136" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3405,26 +3402,26 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>154</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
+      </c>
+      <c r="B144" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>155</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
+      </c>
+      <c r="B145" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,10 +3442,10 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>156</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>132</v>
+        <v>155</v>
+      </c>
+      <c r="B149" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3477,7 +3474,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
@@ -3485,10 +3482,10 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3501,10 +3498,10 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3517,10 +3514,10 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3533,10 +3530,10 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>132</v>
+        <v>156</v>
+      </c>
+      <c r="B160" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3549,58 +3546,58 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>158</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>132</v>
+        <v>157</v>
+      </c>
+      <c r="B162" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>159</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="B167" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3629,82 +3626,82 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>160</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
+      </c>
+      <c r="B173" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>161</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>132</v>
+        <v>160</v>
+      </c>
+      <c r="B174" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3717,26 +3714,26 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3749,154 +3746,154 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>162</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
+      </c>
+      <c r="B205" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3912,7 +3909,7 @@
         <v>50</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3920,23 +3917,23 @@
         <v>51</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>163</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>132</v>
+        <v>162</v>
+      </c>
+      <c r="B209" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3949,50 +3946,50 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4005,50 +4002,50 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>164</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>132</v>
+        <v>163</v>
+      </c>
+      <c r="B219" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>165</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>132</v>
+        <v>164</v>
+      </c>
+      <c r="B223" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>166</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>132</v>
+        <v>165</v>
+      </c>
+      <c r="B224" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,50 +4058,50 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>167</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>132</v>
+        <v>166</v>
+      </c>
+      <c r="B226" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>168</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>132</v>
+        <v>167</v>
+      </c>
+      <c r="B227" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>169</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>132</v>
+        <v>168</v>
+      </c>
+      <c r="B231" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,34 +4114,34 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>170</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>132</v>
+        <v>169</v>
+      </c>
+      <c r="B234" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>171</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>132</v>
+        <v>170</v>
+      </c>
+      <c r="B235" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4165,26 +4162,26 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>172</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>132</v>
+        <v>171</v>
+      </c>
+      <c r="B241" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4197,18 +4194,18 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4221,106 +4218,106 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>173</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
+      </c>
+      <c r="B246" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>174</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>132</v>
+        <v>173</v>
+      </c>
+      <c r="B247" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>175</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>132</v>
+        <v>174</v>
+      </c>
+      <c r="B248" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>176</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>132</v>
+        <v>175</v>
+      </c>
+      <c r="B252" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>177</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>132</v>
+        <v>176</v>
+      </c>
+      <c r="B253" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>178</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>132</v>
+        <v>177</v>
+      </c>
+      <c r="B254" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>179</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>132</v>
+        <v>178</v>
+      </c>
+      <c r="B255" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>180</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>132</v>
+        <v>179</v>
+      </c>
+      <c r="B258" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,50 +4346,50 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>181</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>132</v>
+        <v>180</v>
+      </c>
+      <c r="B264" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>182</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>132</v>
+        <v>181</v>
+      </c>
+      <c r="B265" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>184</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>132</v>
+        <v>183</v>
+      </c>
+      <c r="B267" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4413,10 +4410,10 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4445,10 +4442,10 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4461,34 +4458,34 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>186</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>132</v>
+        <v>185</v>
+      </c>
+      <c r="B276" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>187</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>132</v>
+        <v>186</v>
+      </c>
+      <c r="B277" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>188</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>132</v>
+        <v>187</v>
+      </c>
+      <c r="B279" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4501,10 +4498,10 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4517,31 +4514,31 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>189</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>132</v>
+        <v>188</v>
+      </c>
+      <c r="B283" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>190</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>132</v>
+        <v>189</v>
+      </c>
+      <c r="B285" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>3</v>
@@ -4549,58 +4546,58 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>191</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>132</v>
+        <v>190</v>
+      </c>
+      <c r="B289" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>192</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>132</v>
+        <v>191</v>
+      </c>
+      <c r="B290" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>193</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>132</v>
+        <v>192</v>
+      </c>
+      <c r="B291" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>194</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>132</v>
+        <v>193</v>
+      </c>
+      <c r="B293" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4613,34 +4610,34 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>195</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>132</v>
+        <v>194</v>
+      </c>
+      <c r="B297" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4653,66 +4650,66 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>196</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>132</v>
+        <v>195</v>
+      </c>
+      <c r="B301" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>197</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>132</v>
+        <v>196</v>
+      </c>
+      <c r="B307" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4725,18 +4722,18 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4749,26 +4746,26 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>198</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>132</v>
+        <v>197</v>
+      </c>
+      <c r="B312" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>199</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>132</v>
+        <v>198</v>
+      </c>
+      <c r="B313" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>200</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
+      </c>
+      <c r="B314" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4797,82 +4794,82 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>201</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>132</v>
+        <v>200</v>
+      </c>
+      <c r="B319" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>202</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>132</v>
+        <v>201</v>
+      </c>
+      <c r="B320" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>203</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>132</v>
+        <v>202</v>
+      </c>
+      <c r="B321" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>204</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>132</v>
+        <v>203</v>
+      </c>
+      <c r="B323" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>205</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>132</v>
+        <v>204</v>
+      </c>
+      <c r="B324" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>206</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>132</v>
+        <v>205</v>
+      </c>
+      <c r="B326" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4885,26 +4882,26 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>534</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>132</v>
+        <v>533</v>
+      </c>
+      <c r="B331" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4917,34 +4914,34 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4957,42 +4954,42 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5005,18 +5002,18 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,26 +5026,26 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>207</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>132</v>
+        <v>206</v>
+      </c>
+      <c r="B347" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5061,146 +5058,146 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>208</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>132</v>
+        <v>207</v>
+      </c>
+      <c r="B351" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>209</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>132</v>
+        <v>208</v>
+      </c>
+      <c r="B353" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>211</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>132</v>
+        <v>210</v>
+      </c>
+      <c r="B362" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>212</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>132</v>
+        <v>211</v>
+      </c>
+      <c r="B366" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>213</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>132</v>
+        <v>212</v>
+      </c>
+      <c r="B368" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5213,10 +5210,10 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5224,39 +5221,39 @@
         <v>85</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>214</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>132</v>
+        <v>213</v>
+      </c>
+      <c r="B375" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5269,10 +5266,10 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5285,210 +5282,210 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>215</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>132</v>
+        <v>214</v>
+      </c>
+      <c r="B383" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>216</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>132</v>
+        <v>215</v>
+      </c>
+      <c r="B384" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>217</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>132</v>
+        <v>216</v>
+      </c>
+      <c r="B394" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>218</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>132</v>
+        <v>217</v>
+      </c>
+      <c r="B397" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>219</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>132</v>
+        <v>218</v>
+      </c>
+      <c r="B404" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5517,10 +5514,10 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5533,18 +5530,18 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5557,10 +5554,10 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5573,34 +5570,34 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5613,10 +5610,10 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>220</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>132</v>
+        <v>219</v>
+      </c>
+      <c r="B420" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,26 +5626,26 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5669,10 +5666,10 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -5685,10 +5682,10 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -5701,42 +5698,42 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5749,10 +5746,10 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -5765,10 +5762,10 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -5789,98 +5786,98 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>221</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>132</v>
+        <v>220</v>
+      </c>
+      <c r="B446" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -5893,42 +5890,42 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>222</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>132</v>
+        <v>221</v>
+      </c>
+      <c r="B455" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -5936,23 +5933,23 @@
         <v>105</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -5965,18 +5962,18 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>224</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>132</v>
+        <v>223</v>
+      </c>
+      <c r="B465" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -5989,10 +5986,10 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>225</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>132</v>
+        <v>224</v>
+      </c>
+      <c r="B467" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6005,82 +6002,82 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>226</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>132</v>
+        <v>225</v>
+      </c>
+      <c r="B473" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>246</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>132</v>
+        <v>245</v>
+      </c>
+      <c r="B477" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>247</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>132</v>
+        <v>246</v>
+      </c>
+      <c r="B478" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6093,18 +6090,18 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,66 +6122,66 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6205,34 +6202,34 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>245</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>132</v>
+        <v>244</v>
+      </c>
+      <c r="B494" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>244</v>
-      </c>
-      <c r="B495" s="2" t="s">
-        <v>132</v>
+        <v>243</v>
+      </c>
+      <c r="B495" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>227</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>132</v>
+        <v>226</v>
+      </c>
+      <c r="B496" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6253,10 +6250,10 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6277,42 +6274,42 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>233</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>132</v>
+        <v>232</v>
+      </c>
+      <c r="B505" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6325,18 +6322,18 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6349,58 +6346,58 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>234</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>132</v>
+        <v>233</v>
+      </c>
+      <c r="B512" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>231</v>
-      </c>
-      <c r="B517" s="2" t="s">
-        <v>132</v>
+        <v>230</v>
+      </c>
+      <c r="B517" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>230</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>132</v>
+        <v>229</v>
+      </c>
+      <c r="B518" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6429,18 +6426,18 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>232</v>
-      </c>
-      <c r="B522" s="2" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+      <c r="B522" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6453,42 +6450,42 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>235</v>
-      </c>
-      <c r="B525" s="2" t="s">
-        <v>132</v>
+        <v>234</v>
+      </c>
+      <c r="B525" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6509,26 +6506,26 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>240</v>
-      </c>
-      <c r="B533" s="2" t="s">
-        <v>132</v>
+        <v>239</v>
+      </c>
+      <c r="B533" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -6541,42 +6538,42 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>228</v>
-      </c>
-      <c r="B537" s="2" t="s">
-        <v>132</v>
+        <v>227</v>
+      </c>
+      <c r="B537" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>239</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>132</v>
+        <v>238</v>
+      </c>
+      <c r="B538" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -6589,34 +6586,34 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>238</v>
-      </c>
-      <c r="B542" s="2" t="s">
-        <v>132</v>
+        <v>237</v>
+      </c>
+      <c r="B542" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -6629,74 +6626,74 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>237</v>
-      </c>
-      <c r="B550" s="2" t="s">
-        <v>132</v>
+        <v>236</v>
+      </c>
+      <c r="B550" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>241</v>
-      </c>
-      <c r="B553" s="2" t="s">
-        <v>132</v>
+        <v>240</v>
+      </c>
+      <c r="B553" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -6709,58 +6706,58 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>229</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>132</v>
+        <v>228</v>
+      </c>
+      <c r="B557" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>236</v>
-      </c>
-      <c r="B558" s="2" t="s">
-        <v>132</v>
+        <v>235</v>
+      </c>
+      <c r="B558" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>242</v>
-      </c>
-      <c r="B559" s="2" t="s">
-        <v>132</v>
+        <v>241</v>
+      </c>
+      <c r="B559" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>243</v>
-      </c>
-      <c r="B560" s="2" t="s">
-        <v>132</v>
+        <v>242</v>
+      </c>
+      <c r="B560" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -6773,15 +6770,15 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>248</v>
-      </c>
-      <c r="B565" s="2" t="s">
-        <v>132</v>
+        <v>247</v>
+      </c>
+      <c r="B565" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>3</v>
@@ -6789,39 +6786,39 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>3</v>
@@ -6829,31 +6826,31 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>577</v>
-      </c>
-      <c r="B572" s="2" t="s">
-        <v>132</v>
+        <v>576</v>
+      </c>
+      <c r="B572" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>578</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>132</v>
+        <v>577</v>
+      </c>
+      <c r="B573" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>3</v>
@@ -6861,79 +6858,79 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>580</v>
+      </c>
+      <c r="B576" s="5" t="s">
         <v>581</v>
-      </c>
-      <c r="B576" s="5" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>588</v>
-      </c>
-      <c r="B582" s="2" t="s">
-        <v>132</v>
+        <v>587</v>
+      </c>
+      <c r="B582" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>3</v>
@@ -6941,7 +6938,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>3</v>
@@ -6949,7 +6946,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>3</v>
@@ -6957,39 +6954,39 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>595</v>
-      </c>
-      <c r="B589" s="2" t="s">
-        <v>132</v>
+        <v>594</v>
+      </c>
+      <c r="B589" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>596</v>
-      </c>
-      <c r="B590" s="2" t="s">
-        <v>132</v>
+        <v>595</v>
+      </c>
+      <c r="B590" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>597</v>
-      </c>
-      <c r="B591" s="2" t="s">
-        <v>132</v>
+        <v>596</v>
+      </c>
+      <c r="B591" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>3</v>
@@ -6997,7 +6994,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>3</v>
@@ -7005,15 +7002,15 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>600</v>
-      </c>
-      <c r="B594" s="2" t="s">
-        <v>132</v>
+        <v>599</v>
+      </c>
+      <c r="B594" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B595" s="2" t="s">
         <v>3</v>
@@ -7021,15 +7018,15 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>3</v>
@@ -7037,71 +7034,71 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>3</v>
@@ -7109,7 +7106,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B607" s="2" t="s">
         <v>3</v>
@@ -7117,15 +7114,15 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>614</v>
-      </c>
-      <c r="B608" s="2" t="s">
-        <v>132</v>
+        <v>613</v>
+      </c>
+      <c r="B608" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B609" s="2" t="s">
         <v>3</v>
@@ -7133,31 +7130,31 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>617</v>
-      </c>
-      <c r="B611" s="2" t="s">
-        <v>132</v>
+        <v>616</v>
+      </c>
+      <c r="B611" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>618</v>
-      </c>
-      <c r="B612" s="2" t="s">
-        <v>132</v>
+        <v>617</v>
+      </c>
+      <c r="B612" s="2">
+        <v>-1001983848449</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B613" s="2" t="s">
         <v>3</v>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$613</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$617</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="623">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1879,6 +1879,18 @@
   </si>
   <si>
     <t>A0100544</t>
+  </si>
+  <si>
+    <t>A0100545</t>
+  </si>
+  <si>
+    <t>A0100546</t>
+  </si>
+  <si>
+    <t>A0100547</t>
+  </si>
+  <si>
+    <t>A0100548</t>
   </si>
 </sst>
 </file>
@@ -2241,10 +2253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F613"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="H394" sqref="H394"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="F622" sqref="F622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -2269,7 +2282,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>386</v>
       </c>
@@ -2277,7 +2290,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -2285,7 +2298,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>476</v>
       </c>
@@ -2297,11 +2310,11 @@
       <c r="A6" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>478</v>
       </c>
@@ -2313,19 +2326,19 @@
       <c r="A8" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="2">
-        <v>-1001983848449</v>
+      <c r="B8" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2337,11 +2350,11 @@
       <c r="A11" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>479</v>
       </c>
@@ -2349,7 +2362,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -2361,11 +2374,11 @@
       <c r="A14" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2373,7 +2386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>481</v>
       </c>
@@ -2381,7 +2394,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>482</v>
       </c>
@@ -2389,7 +2402,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -2397,7 +2410,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>483</v>
       </c>
@@ -2405,7 +2418,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2413,7 +2426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>484</v>
       </c>
@@ -2421,7 +2434,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>485</v>
       </c>
@@ -2445,7 +2458,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>270</v>
       </c>
@@ -2453,7 +2466,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>486</v>
       </c>
@@ -2461,7 +2474,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>487</v>
       </c>
@@ -2477,7 +2490,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>271</v>
       </c>
@@ -2501,7 +2514,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>272</v>
       </c>
@@ -2509,7 +2522,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>273</v>
       </c>
@@ -2517,7 +2530,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>274</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -2533,7 +2546,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>489</v>
       </c>
@@ -2541,7 +2554,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2549,7 +2562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>275</v>
       </c>
@@ -2557,7 +2570,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -2565,7 +2578,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2573,7 +2586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>276</v>
       </c>
@@ -2581,7 +2594,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>490</v>
       </c>
@@ -2589,7 +2602,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2601,11 +2614,11 @@
       <c r="A44" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>388</v>
       </c>
@@ -2613,7 +2626,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>491</v>
       </c>
@@ -2621,7 +2634,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2637,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2645,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2653,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>277</v>
       </c>
@@ -2661,7 +2674,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2669,7 +2682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2677,7 +2690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>278</v>
       </c>
@@ -2685,7 +2698,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2693,7 +2706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>389</v>
       </c>
@@ -2701,7 +2714,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>390</v>
       </c>
@@ -2709,7 +2722,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>250</v>
       </c>
@@ -2717,7 +2730,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>251</v>
       </c>
@@ -2725,7 +2738,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>492</v>
       </c>
@@ -2733,7 +2746,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>493</v>
       </c>
@@ -2745,8 +2758,8 @@
       <c r="A62" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="2">
-        <v>-1001983848449</v>
+      <c r="B62" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,7 +2804,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>279</v>
       </c>
@@ -2799,7 +2812,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>392</v>
       </c>
@@ -2807,7 +2820,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>393</v>
       </c>
@@ -2815,7 +2828,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>494</v>
       </c>
@@ -2836,11 +2849,11 @@
       <c r="A73" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -2852,11 +2865,11 @@
       <c r="A75" t="s">
         <v>141</v>
       </c>
-      <c r="B75" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2864,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>394</v>
       </c>
@@ -2872,7 +2885,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2880,7 +2893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>281</v>
       </c>
@@ -2888,7 +2901,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>282</v>
       </c>
@@ -2900,19 +2913,19 @@
       <c r="A81" t="s">
         <v>142</v>
       </c>
-      <c r="B81" s="2">
-        <v>-1001983848449</v>
+      <c r="B81" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>143</v>
       </c>
-      <c r="B82" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2920,7 +2933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>495</v>
       </c>
@@ -2928,7 +2941,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>283</v>
       </c>
@@ -2936,7 +2949,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2944,7 +2957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2952,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2960,7 +2973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2968,7 +2981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2976,7 +2989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>253</v>
       </c>
@@ -2988,19 +3001,19 @@
       <c r="A92" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="2">
-        <v>-1001983848449</v>
+      <c r="B92" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -3016,7 +3029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -3028,11 +3041,11 @@
       <c r="A97" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>496</v>
       </c>
@@ -3040,7 +3053,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>497</v>
       </c>
@@ -3064,7 +3077,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>395</v>
       </c>
@@ -3076,16 +3089,16 @@
       <c r="A103" t="s">
         <v>147</v>
       </c>
-      <c r="B103" s="2">
-        <v>-1001983848449</v>
+      <c r="B103" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>148</v>
       </c>
-      <c r="B104" s="2">
-        <v>-1001983848449</v>
+      <c r="B104" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,11 +3113,11 @@
       <c r="A106" t="s">
         <v>149</v>
       </c>
-      <c r="B106" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>397</v>
       </c>
@@ -3112,7 +3125,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>254</v>
       </c>
@@ -3120,7 +3133,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>498</v>
       </c>
@@ -3128,7 +3141,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>285</v>
       </c>
@@ -3136,7 +3149,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>286</v>
       </c>
@@ -3144,7 +3157,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>287</v>
       </c>
@@ -3156,11 +3169,11 @@
       <c r="A113" t="s">
         <v>150</v>
       </c>
-      <c r="B113" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>499</v>
       </c>
@@ -3168,7 +3181,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>500</v>
       </c>
@@ -3176,7 +3189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>501</v>
       </c>
@@ -3184,7 +3197,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>288</v>
       </c>
@@ -3196,11 +3209,11 @@
       <c r="A118" t="s">
         <v>151</v>
       </c>
-      <c r="B118" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3208,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -3216,7 +3229,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>398</v>
       </c>
@@ -3224,7 +3237,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3232,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3248,7 +3261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>399</v>
       </c>
@@ -3256,7 +3269,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>290</v>
       </c>
@@ -3264,7 +3277,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>291</v>
       </c>
@@ -3272,7 +3285,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>502</v>
       </c>
@@ -3280,7 +3293,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>503</v>
       </c>
@@ -3288,7 +3301,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>504</v>
       </c>
@@ -3304,7 +3317,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>400</v>
       </c>
@@ -3312,7 +3325,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3328,7 +3341,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>292</v>
       </c>
@@ -3340,11 +3353,11 @@
       <c r="A136" t="s">
         <v>152</v>
       </c>
-      <c r="B136" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>505</v>
       </c>
@@ -3352,7 +3365,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>293</v>
       </c>
@@ -3360,7 +3373,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>401</v>
       </c>
@@ -3368,7 +3381,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>402</v>
       </c>
@@ -3376,7 +3389,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>403</v>
       </c>
@@ -3384,7 +3397,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3392,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3404,16 +3417,16 @@
       <c r="A144" t="s">
         <v>153</v>
       </c>
-      <c r="B144" s="2">
-        <v>-1001983848449</v>
+      <c r="B144" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="2">
-        <v>-1001983848449</v>
+      <c r="B145" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,7 +3437,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3432,7 +3445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3444,11 +3457,11 @@
       <c r="A149" t="s">
         <v>155</v>
       </c>
-      <c r="B149" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3456,7 +3469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3464,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3472,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>404</v>
       </c>
@@ -3480,7 +3493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>294</v>
       </c>
@@ -3488,7 +3501,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3496,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>295</v>
       </c>
@@ -3504,7 +3517,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3512,7 +3525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>405</v>
       </c>
@@ -3520,7 +3533,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3532,11 +3545,11 @@
       <c r="A160" t="s">
         <v>156</v>
       </c>
-      <c r="B160" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3548,11 +3561,11 @@
       <c r="A162" t="s">
         <v>157</v>
       </c>
-      <c r="B162" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>296</v>
       </c>
@@ -3560,7 +3573,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>406</v>
       </c>
@@ -3568,7 +3581,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>407</v>
       </c>
@@ -3576,7 +3589,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>506</v>
       </c>
@@ -3588,11 +3601,11 @@
       <c r="A167" t="s">
         <v>158</v>
       </c>
-      <c r="B167" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>507</v>
       </c>
@@ -3600,7 +3613,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3608,7 +3621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3616,7 +3629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3636,19 +3649,19 @@
       <c r="A173" t="s">
         <v>159</v>
       </c>
-      <c r="B173" s="2">
-        <v>-1001983848449</v>
+      <c r="B173" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>160</v>
       </c>
-      <c r="B174" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>255</v>
       </c>
@@ -3656,7 +3669,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>408</v>
       </c>
@@ -3664,7 +3677,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>409</v>
       </c>
@@ -3672,7 +3685,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>410</v>
       </c>
@@ -3680,7 +3693,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>411</v>
       </c>
@@ -3688,7 +3701,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>412</v>
       </c>
@@ -3696,7 +3709,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>413</v>
       </c>
@@ -3704,7 +3717,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3712,7 +3725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>414</v>
       </c>
@@ -3720,7 +3733,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>415</v>
       </c>
@@ -3728,7 +3741,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>416</v>
       </c>
@@ -3736,7 +3749,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3744,7 +3757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>256</v>
       </c>
@@ -3752,7 +3765,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>417</v>
       </c>
@@ -3768,7 +3781,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>418</v>
       </c>
@@ -3776,7 +3789,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>419</v>
       </c>
@@ -3784,7 +3797,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>420</v>
       </c>
@@ -3792,7 +3805,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>421</v>
       </c>
@@ -3800,7 +3813,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>422</v>
       </c>
@@ -3808,7 +3821,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>423</v>
       </c>
@@ -3816,7 +3829,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>424</v>
       </c>
@@ -3824,7 +3837,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>425</v>
       </c>
@@ -3832,7 +3845,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>426</v>
       </c>
@@ -3840,7 +3853,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>427</v>
       </c>
@@ -3848,7 +3861,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>428</v>
       </c>
@@ -3856,7 +3869,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>429</v>
       </c>
@@ -3864,7 +3877,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>508</v>
       </c>
@@ -3872,7 +3885,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>430</v>
       </c>
@@ -3880,7 +3893,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>431</v>
       </c>
@@ -3892,11 +3905,11 @@
       <c r="A205" t="s">
         <v>161</v>
       </c>
-      <c r="B205" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3904,7 +3917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3912,7 +3925,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -3924,11 +3937,11 @@
       <c r="A209" t="s">
         <v>162</v>
       </c>
-      <c r="B209" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>297</v>
       </c>
@@ -3936,7 +3949,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3944,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>509</v>
       </c>
@@ -3952,7 +3965,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>298</v>
       </c>
@@ -3960,7 +3973,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>299</v>
       </c>
@@ -3968,7 +3981,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>432</v>
       </c>
@@ -3976,7 +3989,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>510</v>
       </c>
@@ -3984,7 +3997,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>511</v>
       </c>
@@ -3992,7 +4005,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -4004,11 +4017,11 @@
       <c r="A219" t="s">
         <v>163</v>
       </c>
-      <c r="B219" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>433</v>
       </c>
@@ -4016,7 +4029,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>434</v>
       </c>
@@ -4024,7 +4037,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>300</v>
       </c>
@@ -4036,19 +4049,19 @@
       <c r="A223" t="s">
         <v>164</v>
       </c>
-      <c r="B223" s="2">
-        <v>-1001983848449</v>
+      <c r="B223" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>165</v>
       </c>
-      <c r="B224" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -4060,19 +4073,19 @@
       <c r="A226" t="s">
         <v>166</v>
       </c>
-      <c r="B226" s="2">
-        <v>-1001983848449</v>
+      <c r="B226" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>167</v>
       </c>
-      <c r="B227" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>512</v>
       </c>
@@ -4080,7 +4093,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>435</v>
       </c>
@@ -4088,7 +4101,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>513</v>
       </c>
@@ -4100,11 +4113,11 @@
       <c r="A231" t="s">
         <v>168</v>
       </c>
-      <c r="B231" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4112,7 +4125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>257</v>
       </c>
@@ -4124,19 +4137,19 @@
       <c r="A234" t="s">
         <v>169</v>
       </c>
-      <c r="B234" s="2">
-        <v>-1001983848449</v>
+      <c r="B234" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>170</v>
       </c>
-      <c r="B235" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>301</v>
       </c>
@@ -4144,7 +4157,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4152,7 +4165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4160,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>514</v>
       </c>
@@ -4168,7 +4181,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>436</v>
       </c>
@@ -4180,11 +4193,11 @@
       <c r="A241" t="s">
         <v>171</v>
       </c>
-      <c r="B241" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4192,7 +4205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>437</v>
       </c>
@@ -4200,7 +4213,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>302</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4220,27 +4233,27 @@
       <c r="A246" t="s">
         <v>172</v>
       </c>
-      <c r="B246" s="2">
-        <v>-1001983848449</v>
+      <c r="B246" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>173</v>
       </c>
-      <c r="B247" s="2">
-        <v>-1001983848449</v>
+      <c r="B247" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>174</v>
       </c>
-      <c r="B248" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>515</v>
       </c>
@@ -4248,7 +4261,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>516</v>
       </c>
@@ -4256,7 +4269,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>517</v>
       </c>
@@ -4268,35 +4281,35 @@
       <c r="A252" t="s">
         <v>175</v>
       </c>
-      <c r="B252" s="2">
-        <v>-1001983848449</v>
+      <c r="B252" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>176</v>
       </c>
-      <c r="B253" s="2">
-        <v>-1001983848449</v>
+      <c r="B253" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>177</v>
       </c>
-      <c r="B254" s="2">
-        <v>-1001983848449</v>
+      <c r="B254" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>178</v>
       </c>
-      <c r="B255" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>518</v>
       </c>
@@ -4304,7 +4317,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>303</v>
       </c>
@@ -4316,11 +4329,11 @@
       <c r="A258" t="s">
         <v>179</v>
       </c>
-      <c r="B258" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4328,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4336,7 +4349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4344,7 +4357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>438</v>
       </c>
@@ -4352,7 +4365,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>258</v>
       </c>
@@ -4364,19 +4377,19 @@
       <c r="A264" t="s">
         <v>180</v>
       </c>
-      <c r="B264" s="2">
-        <v>-1001983848449</v>
+      <c r="B264" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>181</v>
       </c>
-      <c r="B265" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>182</v>
       </c>
@@ -4388,11 +4401,11 @@
       <c r="A267" t="s">
         <v>183</v>
       </c>
-      <c r="B267" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4400,7 +4413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4408,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>519</v>
       </c>
@@ -4416,7 +4429,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4424,7 +4437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4432,7 +4445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4448,7 +4461,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4460,19 +4473,19 @@
       <c r="A276" t="s">
         <v>185</v>
       </c>
-      <c r="B276" s="2">
-        <v>-1001983848449</v>
+      <c r="B276" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>186</v>
       </c>
-      <c r="B277" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>520</v>
       </c>
@@ -4484,11 +4497,11 @@
       <c r="A279" t="s">
         <v>187</v>
       </c>
-      <c r="B279" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4496,7 +4509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>304</v>
       </c>
@@ -4504,7 +4517,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4516,11 +4529,11 @@
       <c r="A283" t="s">
         <v>188</v>
       </c>
-      <c r="B283" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>521</v>
       </c>
@@ -4532,11 +4545,11 @@
       <c r="A285" t="s">
         <v>189</v>
       </c>
-      <c r="B285" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>522</v>
       </c>
@@ -4544,7 +4557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>523</v>
       </c>
@@ -4564,27 +4577,27 @@
       <c r="A289" t="s">
         <v>190</v>
       </c>
-      <c r="B289" s="2">
-        <v>-1001983848449</v>
+      <c r="B289" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>191</v>
       </c>
-      <c r="B290" s="2">
-        <v>-1001983848449</v>
+      <c r="B290" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>192</v>
       </c>
-      <c r="B291" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>524</v>
       </c>
@@ -4596,11 +4609,11 @@
       <c r="A293" t="s">
         <v>193</v>
       </c>
-      <c r="B293" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4608,7 +4621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>525</v>
       </c>
@@ -4628,11 +4641,11 @@
       <c r="A297" t="s">
         <v>194</v>
       </c>
-      <c r="B297" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>526</v>
       </c>
@@ -4640,7 +4653,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4648,7 +4661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>527</v>
       </c>
@@ -4660,11 +4673,11 @@
       <c r="A301" t="s">
         <v>195</v>
       </c>
-      <c r="B301" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>528</v>
       </c>
@@ -4680,7 +4693,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>367</v>
       </c>
@@ -4688,7 +4701,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>529</v>
       </c>
@@ -4696,7 +4709,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -4708,11 +4721,11 @@
       <c r="A307" t="s">
         <v>196</v>
       </c>
-      <c r="B307" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4720,7 +4733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>259</v>
       </c>
@@ -4728,7 +4741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>439</v>
       </c>
@@ -4736,7 +4749,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4748,27 +4761,27 @@
       <c r="A312" t="s">
         <v>197</v>
       </c>
-      <c r="B312" s="2">
-        <v>-1001983848449</v>
+      <c r="B312" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>198</v>
       </c>
-      <c r="B313" s="2">
-        <v>-1001983848449</v>
+      <c r="B313" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>199</v>
       </c>
-      <c r="B314" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4776,7 +4789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4784,7 +4797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4792,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>306</v>
       </c>
@@ -4804,27 +4817,27 @@
       <c r="A319" t="s">
         <v>200</v>
       </c>
-      <c r="B319" s="2">
-        <v>-1001983848449</v>
+      <c r="B319" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>201</v>
       </c>
-      <c r="B320" s="2">
-        <v>-1001983848449</v>
+      <c r="B320" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>202</v>
       </c>
-      <c r="B321" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>530</v>
       </c>
@@ -4836,19 +4849,19 @@
       <c r="A323" t="s">
         <v>203</v>
       </c>
-      <c r="B323" s="2">
-        <v>-1001983848449</v>
+      <c r="B323" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>204</v>
       </c>
-      <c r="B324" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>307</v>
       </c>
@@ -4860,11 +4873,11 @@
       <c r="A326" t="s">
         <v>205</v>
       </c>
-      <c r="B326" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>531</v>
       </c>
@@ -4872,7 +4885,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4880,7 +4893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>532</v>
       </c>
@@ -4888,7 +4901,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>440</v>
       </c>
@@ -4900,11 +4913,11 @@
       <c r="A331" t="s">
         <v>533</v>
       </c>
-      <c r="B331" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4912,7 +4925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>534</v>
       </c>
@@ -4920,7 +4933,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>441</v>
       </c>
@@ -4928,7 +4941,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>442</v>
       </c>
@@ -4936,7 +4949,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>535</v>
       </c>
@@ -4944,7 +4957,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4952,7 +4965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>536</v>
       </c>
@@ -4960,7 +4973,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>308</v>
       </c>
@@ -4968,7 +4981,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>260</v>
       </c>
@@ -4976,7 +4989,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>261</v>
       </c>
@@ -4984,7 +4997,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>537</v>
       </c>
@@ -4992,7 +5005,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -5000,7 +5013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>309</v>
       </c>
@@ -5008,7 +5021,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>310</v>
       </c>
@@ -5016,7 +5029,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -5028,11 +5041,11 @@
       <c r="A347" t="s">
         <v>206</v>
       </c>
-      <c r="B347" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>443</v>
       </c>
@@ -5040,7 +5053,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>444</v>
       </c>
@@ -5048,7 +5061,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -5060,11 +5073,11 @@
       <c r="A351" t="s">
         <v>207</v>
       </c>
-      <c r="B351" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>311</v>
       </c>
@@ -5076,11 +5089,11 @@
       <c r="A353" t="s">
         <v>208</v>
       </c>
-      <c r="B353" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>209</v>
       </c>
@@ -5088,7 +5101,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>312</v>
       </c>
@@ -5104,7 +5117,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>538</v>
       </c>
@@ -5120,7 +5133,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>539</v>
       </c>
@@ -5128,7 +5141,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>445</v>
       </c>
@@ -5136,7 +5149,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>446</v>
       </c>
@@ -5148,11 +5161,11 @@
       <c r="A362" t="s">
         <v>210</v>
       </c>
-      <c r="B362" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>447</v>
       </c>
@@ -5160,7 +5173,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>540</v>
       </c>
@@ -5168,7 +5181,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>541</v>
       </c>
@@ -5180,11 +5193,11 @@
       <c r="A366" t="s">
         <v>211</v>
       </c>
-      <c r="B366" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>542</v>
       </c>
@@ -5196,11 +5209,11 @@
       <c r="A368" t="s">
         <v>212</v>
       </c>
-      <c r="B368" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5208,7 +5221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>448</v>
       </c>
@@ -5216,7 +5229,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5224,7 +5237,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>449</v>
       </c>
@@ -5232,7 +5245,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>262</v>
       </c>
@@ -5240,7 +5253,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>450</v>
       </c>
@@ -5252,11 +5265,11 @@
       <c r="A375" t="s">
         <v>213</v>
       </c>
-      <c r="B375" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5264,7 +5277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>451</v>
       </c>
@@ -5272,7 +5285,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5280,7 +5293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>543</v>
       </c>
@@ -5288,7 +5301,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>452</v>
       </c>
@@ -5304,7 +5317,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>544</v>
       </c>
@@ -5316,19 +5329,19 @@
       <c r="A383" t="s">
         <v>214</v>
       </c>
-      <c r="B383" s="2">
-        <v>-1001983848449</v>
+      <c r="B383" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>215</v>
       </c>
-      <c r="B384" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>313</v>
       </c>
@@ -5336,7 +5349,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>453</v>
       </c>
@@ -5360,7 +5373,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>314</v>
       </c>
@@ -5368,7 +5381,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>315</v>
       </c>
@@ -5376,7 +5389,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>545</v>
       </c>
@@ -5384,7 +5397,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>546</v>
       </c>
@@ -5392,7 +5405,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>316</v>
       </c>
@@ -5404,11 +5417,11 @@
       <c r="A394" t="s">
         <v>216</v>
       </c>
-      <c r="B394" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>317</v>
       </c>
@@ -5416,7 +5429,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>263</v>
       </c>
@@ -5428,11 +5441,11 @@
       <c r="A397" t="s">
         <v>217</v>
       </c>
-      <c r="B397" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>318</v>
       </c>
@@ -5440,7 +5453,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>454</v>
       </c>
@@ -5448,7 +5461,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>319</v>
       </c>
@@ -5464,7 +5477,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>320</v>
       </c>
@@ -5472,7 +5485,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>547</v>
       </c>
@@ -5484,11 +5497,11 @@
       <c r="A404" t="s">
         <v>218</v>
       </c>
-      <c r="B404" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5496,7 +5509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5504,7 +5517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5512,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>455</v>
       </c>
@@ -5520,7 +5533,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5528,7 +5541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>548</v>
       </c>
@@ -5536,7 +5549,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>456</v>
       </c>
@@ -5544,7 +5557,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5552,7 +5565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>549</v>
       </c>
@@ -5560,7 +5573,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5568,7 +5581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>321</v>
       </c>
@@ -5576,7 +5589,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>322</v>
       </c>
@@ -5584,7 +5597,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>457</v>
       </c>
@@ -5592,7 +5605,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>264</v>
       </c>
@@ -5600,7 +5613,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5612,11 +5625,11 @@
       <c r="A420" t="s">
         <v>219</v>
       </c>
-      <c r="B420" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5624,7 +5637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>550</v>
       </c>
@@ -5632,7 +5645,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -5640,7 +5653,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>459</v>
       </c>
@@ -5648,7 +5661,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5656,7 +5669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5664,7 +5677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>551</v>
       </c>
@@ -5672,7 +5685,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5680,7 +5693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>323</v>
       </c>
@@ -5688,7 +5701,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5696,7 +5709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>552</v>
       </c>
@@ -5704,7 +5717,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>553</v>
       </c>
@@ -5712,7 +5725,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>554</v>
       </c>
@@ -5720,7 +5733,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>324</v>
       </c>
@@ -5728,7 +5741,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>325</v>
       </c>
@@ -5736,7 +5749,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5744,7 +5757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>460</v>
       </c>
@@ -5752,7 +5765,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5760,7 +5773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>555</v>
       </c>
@@ -5768,7 +5781,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5776,7 +5789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5784,7 +5797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>556</v>
       </c>
@@ -5792,7 +5805,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>326</v>
       </c>
@@ -5800,7 +5813,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>461</v>
       </c>
@@ -5808,7 +5821,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>265</v>
       </c>
@@ -5820,11 +5833,11 @@
       <c r="A446" t="s">
         <v>220</v>
       </c>
-      <c r="B446" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B446" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>462</v>
       </c>
@@ -5840,7 +5853,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>463</v>
       </c>
@@ -5848,7 +5861,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>327</v>
       </c>
@@ -5856,7 +5869,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>328</v>
       </c>
@@ -5864,7 +5877,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>329</v>
       </c>
@@ -5872,7 +5885,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>330</v>
       </c>
@@ -5880,7 +5893,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5892,11 +5905,11 @@
       <c r="A455" t="s">
         <v>221</v>
       </c>
-      <c r="B455" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B455" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>464</v>
       </c>
@@ -5904,7 +5917,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>331</v>
       </c>
@@ -5912,7 +5925,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>465</v>
       </c>
@@ -5920,7 +5933,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>466</v>
       </c>
@@ -5928,7 +5941,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>105</v>
       </c>
@@ -5936,7 +5949,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>557</v>
       </c>
@@ -5952,7 +5965,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5960,7 +5973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>332</v>
       </c>
@@ -5972,11 +5985,11 @@
       <c r="A465" t="s">
         <v>223</v>
       </c>
-      <c r="B465" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B465" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -5988,11 +6001,11 @@
       <c r="A467" t="s">
         <v>224</v>
       </c>
-      <c r="B467" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B467" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -6000,7 +6013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>558</v>
       </c>
@@ -6008,7 +6021,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>333</v>
       </c>
@@ -6016,7 +6029,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>334</v>
       </c>
@@ -6024,7 +6037,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>335</v>
       </c>
@@ -6036,11 +6049,11 @@
       <c r="A473" t="s">
         <v>225</v>
       </c>
-      <c r="B473" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B473" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>336</v>
       </c>
@@ -6048,7 +6061,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>266</v>
       </c>
@@ -6068,19 +6081,19 @@
       <c r="A477" t="s">
         <v>245</v>
       </c>
-      <c r="B477" s="2">
-        <v>-1001983848449</v>
+      <c r="B477" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>246</v>
       </c>
-      <c r="B478" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B478" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6088,7 +6101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>470</v>
       </c>
@@ -6096,7 +6109,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>467</v>
       </c>
@@ -6104,7 +6117,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6112,7 +6125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6120,7 +6133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>559</v>
       </c>
@@ -6128,7 +6141,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>337</v>
       </c>
@@ -6144,7 +6157,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>473</v>
       </c>
@@ -6152,7 +6165,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>350</v>
       </c>
@@ -6160,7 +6173,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>474</v>
       </c>
@@ -6168,7 +6181,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>475</v>
       </c>
@@ -6176,7 +6189,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>472</v>
       </c>
@@ -6184,7 +6197,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6192,7 +6205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6204,27 +6217,27 @@
       <c r="A494" t="s">
         <v>244</v>
       </c>
-      <c r="B494" s="2">
-        <v>-1001983848449</v>
+      <c r="B494" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>243</v>
       </c>
-      <c r="B495" s="2">
-        <v>-1001983848449</v>
+      <c r="B495" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>226</v>
       </c>
-      <c r="B496" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B496" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>560</v>
       </c>
@@ -6232,7 +6245,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6240,7 +6253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6256,7 +6269,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6264,7 +6277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6272,7 +6285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>468</v>
       </c>
@@ -6280,7 +6293,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>469</v>
       </c>
@@ -6292,8 +6305,8 @@
       <c r="A505" t="s">
         <v>232</v>
       </c>
-      <c r="B505" s="2">
-        <v>-1001983848449</v>
+      <c r="B505" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6312,7 +6325,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6320,7 +6333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>341</v>
       </c>
@@ -6336,7 +6349,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6348,11 +6361,11 @@
       <c r="A512" t="s">
         <v>233</v>
       </c>
-      <c r="B512" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>562</v>
       </c>
@@ -6368,7 +6381,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>342</v>
       </c>
@@ -6376,7 +6389,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>343</v>
       </c>
@@ -6388,19 +6401,19 @@
       <c r="A517" t="s">
         <v>230</v>
       </c>
-      <c r="B517" s="2">
-        <v>-1001983848449</v>
+      <c r="B517" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>229</v>
       </c>
-      <c r="B518" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B518" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6408,7 +6421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6416,7 +6429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6428,11 +6441,11 @@
       <c r="A522" t="s">
         <v>231</v>
       </c>
-      <c r="B522" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>344</v>
       </c>
@@ -6440,7 +6453,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6452,8 +6465,8 @@
       <c r="A525" t="s">
         <v>234</v>
       </c>
-      <c r="B525" s="2">
-        <v>-1001983848449</v>
+      <c r="B525" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6464,7 +6477,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>563</v>
       </c>
@@ -6472,7 +6485,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>564</v>
       </c>
@@ -6480,7 +6493,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>565</v>
       </c>
@@ -6488,7 +6501,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6496,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6504,7 +6517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>569</v>
       </c>
@@ -6516,11 +6529,11 @@
       <c r="A533" t="s">
         <v>239</v>
       </c>
-      <c r="B533" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B533" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>568</v>
       </c>
@@ -6528,7 +6541,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6536,7 +6549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>567</v>
       </c>
@@ -6548,19 +6561,19 @@
       <c r="A537" t="s">
         <v>227</v>
       </c>
-      <c r="B537" s="2">
-        <v>-1001983848449</v>
+      <c r="B537" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>238</v>
       </c>
-      <c r="B538" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>566</v>
       </c>
@@ -6576,7 +6589,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6588,11 +6601,11 @@
       <c r="A542" t="s">
         <v>237</v>
       </c>
-      <c r="B542" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B542" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>347</v>
       </c>
@@ -6600,7 +6613,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>346</v>
       </c>
@@ -6608,7 +6621,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>338</v>
       </c>
@@ -6616,7 +6629,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6624,7 +6637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>345</v>
       </c>
@@ -6632,7 +6645,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>471</v>
       </c>
@@ -6640,7 +6653,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>339</v>
       </c>
@@ -6652,11 +6665,11 @@
       <c r="A550" t="s">
         <v>236</v>
       </c>
-      <c r="B550" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B550" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>349</v>
       </c>
@@ -6664,7 +6677,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>340</v>
       </c>
@@ -6676,11 +6689,11 @@
       <c r="A553" t="s">
         <v>240</v>
       </c>
-      <c r="B553" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>561</v>
       </c>
@@ -6696,7 +6709,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6708,35 +6721,35 @@
       <c r="A557" t="s">
         <v>228</v>
       </c>
-      <c r="B557" s="2">
-        <v>-1001983848449</v>
+      <c r="B557" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>235</v>
       </c>
-      <c r="B558" s="2">
-        <v>-1001983848449</v>
+      <c r="B558" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>241</v>
       </c>
-      <c r="B559" s="2">
-        <v>-1001983848449</v>
+      <c r="B559" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>242</v>
       </c>
-      <c r="B560" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B560" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>348</v>
       </c>
@@ -6744,7 +6757,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>610</v>
       </c>
@@ -6760,7 +6773,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6772,11 +6785,11 @@
       <c r="A565" t="s">
         <v>247</v>
       </c>
-      <c r="B565" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B565" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>570</v>
       </c>
@@ -6792,7 +6805,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>572</v>
       </c>
@@ -6816,7 +6829,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>575</v>
       </c>
@@ -6828,19 +6841,19 @@
       <c r="A572" t="s">
         <v>576</v>
       </c>
-      <c r="B572" s="2">
-        <v>-1001983848449</v>
+      <c r="B572" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>577</v>
       </c>
-      <c r="B573" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B573" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>578</v>
       </c>
@@ -6848,7 +6861,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>579</v>
       </c>
@@ -6864,7 +6877,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>582</v>
       </c>
@@ -6872,7 +6885,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>586</v>
       </c>
@@ -6880,7 +6893,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>583</v>
       </c>
@@ -6888,7 +6901,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>584</v>
       </c>
@@ -6896,7 +6909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>585</v>
       </c>
@@ -6908,8 +6921,8 @@
       <c r="A582" t="s">
         <v>587</v>
       </c>
-      <c r="B582" s="2">
-        <v>-1001983848449</v>
+      <c r="B582" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -6920,7 +6933,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>589</v>
       </c>
@@ -6928,7 +6941,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>590</v>
       </c>
@@ -6936,7 +6949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>591</v>
       </c>
@@ -6944,7 +6957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>592</v>
       </c>
@@ -6952,7 +6965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>593</v>
       </c>
@@ -6964,27 +6977,27 @@
       <c r="A589" t="s">
         <v>594</v>
       </c>
-      <c r="B589" s="2">
-        <v>-1001983848449</v>
+      <c r="B589" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>595</v>
       </c>
-      <c r="B590" s="2">
-        <v>-1001983848449</v>
+      <c r="B590" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>596</v>
       </c>
-      <c r="B591" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B591" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>597</v>
       </c>
@@ -6992,7 +7005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>598</v>
       </c>
@@ -7004,11 +7017,11 @@
       <c r="A594" t="s">
         <v>599</v>
       </c>
-      <c r="B594" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B594" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>600</v>
       </c>
@@ -7016,7 +7029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>601</v>
       </c>
@@ -7024,7 +7037,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>602</v>
       </c>
@@ -7032,7 +7045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>603</v>
       </c>
@@ -7040,7 +7053,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>604</v>
       </c>
@@ -7056,7 +7069,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>606</v>
       </c>
@@ -7064,7 +7077,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>607</v>
       </c>
@@ -7072,7 +7085,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>608</v>
       </c>
@@ -7080,7 +7093,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>572</v>
       </c>
@@ -7096,7 +7109,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>611</v>
       </c>
@@ -7104,7 +7117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>612</v>
       </c>
@@ -7116,11 +7129,11 @@
       <c r="A608" t="s">
         <v>613</v>
       </c>
-      <c r="B608" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B608" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>614</v>
       </c>
@@ -7128,7 +7141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>615</v>
       </c>
@@ -7140,19 +7153,19 @@
       <c r="A611" t="s">
         <v>616</v>
       </c>
-      <c r="B611" s="2">
-        <v>-1001983848449</v>
+      <c r="B611" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>617</v>
       </c>
-      <c r="B612" s="2">
-        <v>-1001983848449</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B612" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>618</v>
       </c>
@@ -7160,8 +7173,37 @@
         <v>3</v>
       </c>
     </row>
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>622</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B613"/>
+  <autoFilter ref="A1:B617">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="-1001983848449"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$617</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$613</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="620">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -420,6 +420,9 @@
     <t>A0100004</t>
   </si>
   <si>
+    <t>-1001450241316</t>
+  </si>
+  <si>
     <t>A0100006</t>
   </si>
   <si>
@@ -1879,18 +1882,6 @@
   </si>
   <si>
     <t>A0100544</t>
-  </si>
-  <si>
-    <t>A0100545</t>
-  </si>
-  <si>
-    <t>A0100546</t>
-  </si>
-  <si>
-    <t>A0100547</t>
-  </si>
-  <si>
-    <t>A0100548</t>
   </si>
 </sst>
 </file>
@@ -2253,11 +2244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F617"/>
+  <dimension ref="A1:F613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="F622" sqref="F622"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="E323" sqref="E323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,71 +2264,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>581</v>
+        <v>134</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2348,37 +2338,37 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2386,39 +2376,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2426,15 +2416,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2442,39 +2432,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2482,79 +2472,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2562,23 +2552,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2586,23 +2576,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2612,29 +2602,29 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2642,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2650,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2658,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2666,15 +2656,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +2672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2690,15 +2680,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2706,170 +2696,170 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>581</v>
+        <v>140</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2877,15 +2867,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2893,39 +2883,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>581</v>
+        <v>143</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2933,23 +2923,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2957,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2965,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +2963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2981,7 +2971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2989,31 +2979,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>581</v>
+        <v>145</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>145</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -3021,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -3029,191 +3019,191 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>146</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>147</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>581</v>
+        <v>148</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>148</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>581</v>
+        <v>149</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>149</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>150</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>151</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3221,23 +3211,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3245,7 +3235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3253,7 +3243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3261,71 +3251,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3335,69 +3325,69 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>152</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3405,7 +3395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3415,29 +3405,29 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>153</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>581</v>
+        <v>154</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>154</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>581</v>
+        <v>155</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3445,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3455,13 +3445,13 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>155</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3469,7 +3459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3477,7 +3467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3485,23 +3475,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3509,15 +3499,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3525,15 +3515,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3543,13 +3533,13 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>156</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3559,61 +3549,61 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>157</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>158</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3621,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3629,7 +3619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3639,85 +3629,85 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>159</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>581</v>
+        <v>160</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>160</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3725,31 +3715,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3757,159 +3747,159 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>161</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3917,39 +3907,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>50</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>51</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>162</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3957,55 +3947,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -4015,53 +4005,53 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>163</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>164</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>581</v>
+        <v>165</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>165</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -4071,53 +4061,53 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>166</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>581</v>
+        <v>167</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>167</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>168</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4125,39 +4115,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>169</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>581</v>
+        <v>170</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>170</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4165,7 +4155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4173,31 +4163,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>171</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4205,23 +4195,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4231,109 +4221,109 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>172</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>581</v>
+        <v>173</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>173</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>581</v>
+        <v>174</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>174</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>175</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>581</v>
+        <v>176</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>176</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>581</v>
+        <v>177</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>177</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>581</v>
+        <v>178</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>178</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>179</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4341,7 +4331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4349,7 +4339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4357,55 +4347,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>180</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>581</v>
+        <v>181</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>181</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>183</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4413,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4421,15 +4411,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4437,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4445,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4455,13 +4445,13 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4471,37 +4461,37 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>185</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>581</v>
+        <v>186</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>186</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>187</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4509,15 +4499,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4527,93 +4517,93 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>188</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>189</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>190</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>581</v>
+        <v>191</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>191</v>
-      </c>
-      <c r="B290" s="5" t="s">
-        <v>581</v>
+        <v>192</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>192</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>193</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4621,39 +4611,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>194</v>
-      </c>
-      <c r="B297" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4661,71 +4651,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>195</v>
-      </c>
-      <c r="B301" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>196</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4733,23 +4723,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4759,29 +4749,29 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>197</v>
-      </c>
-      <c r="B312" s="5" t="s">
-        <v>581</v>
+        <v>198</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>198</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>581</v>
+        <v>199</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>199</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4789,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4797,7 +4787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4805,87 +4795,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>200</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>581</v>
+        <v>201</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>201</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>581</v>
+        <v>202</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>202</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>203</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>581</v>
+        <v>204</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>204</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>205</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4893,31 +4883,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>533</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4925,39 +4915,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4965,47 +4955,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -5013,23 +5003,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -5039,29 +5029,29 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>206</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -5071,149 +5061,149 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>207</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>208</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>210</v>
-      </c>
-      <c r="B362" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>211</v>
-      </c>
-      <c r="B366" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>212</v>
-      </c>
-      <c r="B368" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5221,55 +5211,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>85</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>213</v>
-      </c>
-      <c r="B375" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5277,15 +5267,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5293,215 +5283,215 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>214</v>
-      </c>
-      <c r="B383" s="5" t="s">
-        <v>581</v>
+        <v>215</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>215</v>
-      </c>
-      <c r="B384" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>216</v>
-      </c>
-      <c r="B394" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>217</v>
-      </c>
-      <c r="B397" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>218</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5509,7 +5499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5517,7 +5507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5525,15 +5515,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5541,23 +5531,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5565,15 +5555,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5581,39 +5571,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5623,13 +5613,13 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>219</v>
-      </c>
-      <c r="B420" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5637,31 +5627,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5669,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5677,15 +5667,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5693,15 +5683,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5709,47 +5699,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5757,15 +5747,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5773,15 +5763,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5789,7 +5779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5797,103 +5787,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>220</v>
-      </c>
-      <c r="B446" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5903,69 +5893,69 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>221</v>
-      </c>
-      <c r="B455" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>105</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5973,23 +5963,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>223</v>
-      </c>
-      <c r="B465" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -5999,13 +5989,13 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>224</v>
-      </c>
-      <c r="B467" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -6013,87 +6003,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>225</v>
-      </c>
-      <c r="B473" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>245</v>
-      </c>
-      <c r="B477" s="5" t="s">
-        <v>581</v>
+        <v>246</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>246</v>
-      </c>
-      <c r="B478" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6101,23 +6091,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6125,7 +6115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6133,71 +6123,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>474</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>351</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>475</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>476</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
         <v>473</v>
       </c>
-      <c r="B487" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>350</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>474</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>475</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>472</v>
-      </c>
       <c r="B491" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6205,7 +6195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6215,37 +6205,37 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>244</v>
-      </c>
-      <c r="B494" s="5" t="s">
-        <v>581</v>
+        <v>245</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>243</v>
-      </c>
-      <c r="B495" s="5" t="s">
-        <v>581</v>
+        <v>244</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>226</v>
-      </c>
-      <c r="B496" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6253,7 +6243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6263,13 +6253,13 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6277,7 +6267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6285,47 +6275,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>232</v>
-      </c>
-      <c r="B505" s="5" t="s">
-        <v>581</v>
+        <v>233</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6333,23 +6323,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6359,61 +6349,61 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>233</v>
-      </c>
-      <c r="B512" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>230</v>
-      </c>
-      <c r="B517" s="5" t="s">
-        <v>581</v>
+        <v>231</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>229</v>
-      </c>
-      <c r="B518" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6421,7 +6411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6429,7 +6419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6439,21 +6429,21 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>231</v>
-      </c>
-      <c r="B522" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6463,45 +6453,45 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>234</v>
-      </c>
-      <c r="B525" s="5" t="s">
-        <v>581</v>
+        <v>235</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6509,7 +6499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6517,31 +6507,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>239</v>
-      </c>
-      <c r="B533" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6549,47 +6539,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>227</v>
-      </c>
-      <c r="B537" s="5" t="s">
-        <v>581</v>
+        <v>228</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>238</v>
-      </c>
-      <c r="B538" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6599,37 +6589,37 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>237</v>
-      </c>
-      <c r="B542" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>348</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
         <v>347</v>
       </c>
-      <c r="B543" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>346</v>
-      </c>
       <c r="B544" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6637,79 +6627,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>236</v>
-      </c>
-      <c r="B550" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>240</v>
-      </c>
-      <c r="B553" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6719,61 +6709,61 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>228</v>
-      </c>
-      <c r="B557" s="5" t="s">
-        <v>581</v>
+        <v>229</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>235</v>
-      </c>
-      <c r="B558" s="5" t="s">
-        <v>581</v>
+        <v>236</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>241</v>
-      </c>
-      <c r="B559" s="5" t="s">
-        <v>581</v>
+        <v>242</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>242</v>
-      </c>
-      <c r="B560" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6783,15 +6773,15 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>247</v>
-      </c>
-      <c r="B565" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>3</v>
@@ -6799,39 +6789,39 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>3</v>
@@ -6839,31 +6829,31 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>576</v>
-      </c>
-      <c r="B572" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>577</v>
-      </c>
-      <c r="B573" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>3</v>
@@ -6871,143 +6861,143 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>587</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>584</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>585</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
         <v>586</v>
       </c>
-      <c r="B578" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>583</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>584</v>
-      </c>
-      <c r="B580" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>585</v>
-      </c>
       <c r="B581" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>587</v>
-      </c>
-      <c r="B582" s="5" t="s">
-        <v>581</v>
+        <v>588</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>594</v>
-      </c>
-      <c r="B589" s="5" t="s">
-        <v>581</v>
+        <v>595</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>595</v>
-      </c>
-      <c r="B590" s="5" t="s">
-        <v>581</v>
+        <v>596</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>596</v>
-      </c>
-      <c r="B591" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>3</v>
@@ -7015,111 +7005,111 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>599</v>
-      </c>
-      <c r="B594" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B595" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B605" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B607" s="2" t="s">
         <v>3</v>
@@ -7127,83 +7117,54 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>613</v>
-      </c>
-      <c r="B608" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B609" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>616</v>
-      </c>
-      <c r="B611" s="5" t="s">
-        <v>581</v>
+        <v>617</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>617</v>
-      </c>
-      <c r="B612" s="5" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B613" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
-        <v>622</v>
-      </c>
-      <c r="B617" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B617">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="-1001983848449"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B613"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10428"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$613</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="624">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1882,6 +1882,18 @@
   </si>
   <si>
     <t>A0100544</t>
+  </si>
+  <si>
+    <t>A0100545</t>
+  </si>
+  <si>
+    <t>A0100546</t>
+  </si>
+  <si>
+    <t>A0100547</t>
+  </si>
+  <si>
+    <t>A0100548</t>
   </si>
 </sst>
 </file>
@@ -2244,19 +2256,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F613"/>
+  <dimension ref="A1:F617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="E323" sqref="E323"/>
+    <sheetView tabSelected="1" topLeftCell="A593" workbookViewId="0">
+      <selection activeCell="A618" sqref="A618:A619"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>387</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>477</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>479</v>
       </c>
@@ -2312,7 +2324,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>480</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>481</v>
       </c>
@@ -2360,7 +2372,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2368,7 +2380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>482</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>483</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>484</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2416,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>485</v>
       </c>
@@ -2424,7 +2436,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>486</v>
       </c>
@@ -2440,7 +2452,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>352</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>487</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>488</v>
       </c>
@@ -2480,7 +2492,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -2488,7 +2500,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -2496,7 +2508,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2504,7 +2516,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>273</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>274</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>489</v>
       </c>
@@ -2536,7 +2548,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>490</v>
       </c>
@@ -2544,7 +2556,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2552,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2560,7 +2572,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2576,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -2584,7 +2596,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>491</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2600,7 +2612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2608,7 +2620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>389</v>
       </c>
@@ -2616,7 +2628,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>492</v>
       </c>
@@ -2624,7 +2636,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2632,7 +2644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2664,7 +2676,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2688,7 +2700,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>391</v>
       </c>
@@ -2712,7 +2724,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2720,7 +2732,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>494</v>
       </c>
@@ -2744,7 +2756,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>392</v>
       </c>
@@ -2760,7 +2772,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -2769,7 +2781,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>355</v>
       </c>
@@ -2777,7 +2789,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>356</v>
       </c>
@@ -2786,7 +2798,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>357</v>
       </c>
@@ -2794,7 +2806,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2802,7 +2814,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>393</v>
       </c>
@@ -2810,7 +2822,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>394</v>
       </c>
@@ -2818,7 +2830,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>495</v>
       </c>
@@ -2826,7 +2838,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>253</v>
       </c>
@@ -2835,7 +2847,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2843,7 +2855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2851,7 +2863,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2859,7 +2871,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2867,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>395</v>
       </c>
@@ -2875,7 +2887,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2883,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -2915,7 +2927,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2923,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>496</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -2939,7 +2951,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2947,7 +2959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2955,7 +2967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2963,7 +2975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2979,7 +2991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -2987,7 +2999,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -2995,7 +3007,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -3003,7 +3015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -3019,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -3027,7 +3039,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -3035,7 +3047,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>497</v>
       </c>
@@ -3043,7 +3055,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>498</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>358</v>
       </c>
@@ -3059,7 +3071,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>359</v>
       </c>
@@ -3067,7 +3079,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>396</v>
       </c>
@@ -3075,7 +3087,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3083,7 +3095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -3091,7 +3103,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>397</v>
       </c>
@@ -3099,7 +3111,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>398</v>
       </c>
@@ -3115,7 +3127,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -3123,7 +3135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>499</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -3139,7 +3151,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3155,7 +3167,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -3163,7 +3175,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>500</v>
       </c>
@@ -3171,7 +3183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>501</v>
       </c>
@@ -3179,7 +3191,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>502</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -3203,7 +3215,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3211,7 +3223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -3219,7 +3231,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>399</v>
       </c>
@@ -3227,7 +3239,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3235,7 +3247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3243,7 +3255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3251,7 +3263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>400</v>
       </c>
@@ -3259,7 +3271,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>292</v>
       </c>
@@ -3275,7 +3287,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>503</v>
       </c>
@@ -3283,7 +3295,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>504</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>505</v>
       </c>
@@ -3299,7 +3311,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>360</v>
       </c>
@@ -3307,7 +3319,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>401</v>
       </c>
@@ -3315,7 +3327,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>361</v>
       </c>
@@ -3331,7 +3343,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>506</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -3371,7 +3383,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>403</v>
       </c>
@@ -3379,7 +3391,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>404</v>
       </c>
@@ -3387,7 +3399,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3395,7 +3407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3403,7 +3415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -3411,7 +3423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3419,7 +3431,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>362</v>
       </c>
@@ -3427,7 +3439,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3435,7 +3447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3443,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3459,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3467,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3475,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>405</v>
       </c>
@@ -3483,7 +3495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3491,7 +3503,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3499,7 +3511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>296</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3515,7 +3527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>406</v>
       </c>
@@ -3523,7 +3535,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3531,7 +3543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3539,7 +3551,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3547,7 +3559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3555,7 +3567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>297</v>
       </c>
@@ -3563,7 +3575,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>407</v>
       </c>
@@ -3571,7 +3583,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>408</v>
       </c>
@@ -3579,7 +3591,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>507</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3595,7 +3607,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>508</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3611,7 +3623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3619,7 +3631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>363</v>
       </c>
@@ -3635,7 +3647,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3643,7 +3655,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>409</v>
       </c>
@@ -3667,7 +3679,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>410</v>
       </c>
@@ -3675,7 +3687,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>411</v>
       </c>
@@ -3683,7 +3695,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>412</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>413</v>
       </c>
@@ -3699,7 +3711,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>414</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>415</v>
       </c>
@@ -3723,7 +3735,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>416</v>
       </c>
@@ -3731,7 +3743,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>417</v>
       </c>
@@ -3739,7 +3751,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3747,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -3755,7 +3767,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>418</v>
       </c>
@@ -3763,7 +3775,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>364</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>419</v>
       </c>
@@ -3779,7 +3791,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>420</v>
       </c>
@@ -3787,7 +3799,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>421</v>
       </c>
@@ -3795,7 +3807,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>422</v>
       </c>
@@ -3803,7 +3815,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>423</v>
       </c>
@@ -3811,7 +3823,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>424</v>
       </c>
@@ -3819,7 +3831,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>425</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -3835,7 +3847,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>427</v>
       </c>
@@ -3843,7 +3855,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>428</v>
       </c>
@@ -3851,7 +3863,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>429</v>
       </c>
@@ -3859,7 +3871,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>430</v>
       </c>
@@ -3867,7 +3879,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>509</v>
       </c>
@@ -3875,7 +3887,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>431</v>
       </c>
@@ -3883,7 +3895,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>432</v>
       </c>
@@ -3891,7 +3903,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -3899,7 +3911,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3915,7 +3927,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -3923,7 +3935,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -3931,7 +3943,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>298</v>
       </c>
@@ -3939,7 +3951,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3947,7 +3959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>510</v>
       </c>
@@ -3955,7 +3967,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -3963,7 +3975,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -3971,7 +3983,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>433</v>
       </c>
@@ -3979,7 +3991,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>511</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>512</v>
       </c>
@@ -3995,7 +4007,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -4003,7 +4015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -4011,7 +4023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>434</v>
       </c>
@@ -4019,7 +4031,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>435</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -4035,7 +4047,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -4043,7 +4055,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -4051,7 +4063,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>167</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>168</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>513</v>
       </c>
@@ -4083,7 +4095,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>436</v>
       </c>
@@ -4091,7 +4103,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>514</v>
       </c>
@@ -4099,7 +4111,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -4107,7 +4119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4115,7 +4127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4123,7 +4135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>170</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>171</v>
       </c>
@@ -4139,7 +4151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>302</v>
       </c>
@@ -4147,7 +4159,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4155,7 +4167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4163,7 +4175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>515</v>
       </c>
@@ -4171,7 +4183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>437</v>
       </c>
@@ -4179,7 +4191,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -4187,7 +4199,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4195,7 +4207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>438</v>
       </c>
@@ -4203,7 +4215,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -4211,7 +4223,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4219,7 +4231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>173</v>
       </c>
@@ -4227,7 +4239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -4235,7 +4247,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -4243,7 +4255,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>516</v>
       </c>
@@ -4251,7 +4263,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>517</v>
       </c>
@@ -4259,7 +4271,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>518</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>176</v>
       </c>
@@ -4275,7 +4287,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -4283,7 +4295,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>179</v>
       </c>
@@ -4299,7 +4311,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>519</v>
       </c>
@@ -4307,7 +4319,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -4315,7 +4327,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -4323,7 +4335,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4331,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4339,7 +4351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4347,7 +4359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>439</v>
       </c>
@@ -4355,7 +4367,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4371,7 +4383,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -4379,7 +4391,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>183</v>
       </c>
@@ -4387,7 +4399,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -4395,7 +4407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4403,7 +4415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4411,7 +4423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>520</v>
       </c>
@@ -4419,7 +4431,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4427,7 +4439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4435,7 +4447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4443,7 +4455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>185</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4459,7 +4471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>186</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -4475,7 +4487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>521</v>
       </c>
@@ -4483,7 +4495,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -4491,7 +4503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4499,7 +4511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -4507,7 +4519,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4515,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>189</v>
       </c>
@@ -4523,7 +4535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>522</v>
       </c>
@@ -4531,7 +4543,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>523</v>
       </c>
@@ -4547,7 +4559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>524</v>
       </c>
@@ -4555,7 +4567,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>365</v>
       </c>
@@ -4563,7 +4575,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -4579,7 +4591,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -4587,7 +4599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>525</v>
       </c>
@@ -4595,7 +4607,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -4603,7 +4615,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4611,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>526</v>
       </c>
@@ -4619,7 +4631,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>366</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -4635,7 +4647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>527</v>
       </c>
@@ -4643,7 +4655,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4651,7 +4663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>528</v>
       </c>
@@ -4659,7 +4671,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>196</v>
       </c>
@@ -4667,7 +4679,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>529</v>
       </c>
@@ -4675,7 +4687,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>367</v>
       </c>
@@ -4683,7 +4695,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>368</v>
       </c>
@@ -4691,7 +4703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>530</v>
       </c>
@@ -4699,7 +4711,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4707,7 +4719,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>197</v>
       </c>
@@ -4715,7 +4727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4723,7 +4735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -4731,7 +4743,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>440</v>
       </c>
@@ -4739,7 +4751,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -4755,7 +4767,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -4763,7 +4775,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -4771,7 +4783,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4779,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4787,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -4803,7 +4815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>201</v>
       </c>
@@ -4811,7 +4823,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>202</v>
       </c>
@@ -4819,7 +4831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>203</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>531</v>
       </c>
@@ -4835,7 +4847,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>204</v>
       </c>
@@ -4843,7 +4855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>205</v>
       </c>
@@ -4851,7 +4863,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>308</v>
       </c>
@@ -4859,7 +4871,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>206</v>
       </c>
@@ -4867,7 +4879,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>532</v>
       </c>
@@ -4875,7 +4887,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4883,7 +4895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>533</v>
       </c>
@@ -4891,7 +4903,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>441</v>
       </c>
@@ -4899,7 +4911,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>534</v>
       </c>
@@ -4907,7 +4919,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4915,7 +4927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>535</v>
       </c>
@@ -4923,7 +4935,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>442</v>
       </c>
@@ -4931,7 +4943,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>443</v>
       </c>
@@ -4939,7 +4951,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>536</v>
       </c>
@@ -4947,7 +4959,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4955,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>537</v>
       </c>
@@ -4963,7 +4975,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -4971,7 +4983,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>261</v>
       </c>
@@ -4979,7 +4991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>262</v>
       </c>
@@ -4987,7 +4999,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>538</v>
       </c>
@@ -4995,7 +5007,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -5011,7 +5023,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>311</v>
       </c>
@@ -5019,7 +5031,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -5035,7 +5047,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>444</v>
       </c>
@@ -5043,7 +5055,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>445</v>
       </c>
@@ -5051,7 +5063,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -5059,7 +5071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>208</v>
       </c>
@@ -5067,7 +5079,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -5075,7 +5087,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -5083,7 +5095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>210</v>
       </c>
@@ -5091,7 +5103,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>313</v>
       </c>
@@ -5099,7 +5111,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>369</v>
       </c>
@@ -5107,7 +5119,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>539</v>
       </c>
@@ -5115,7 +5127,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>370</v>
       </c>
@@ -5123,7 +5135,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>540</v>
       </c>
@@ -5131,7 +5143,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>446</v>
       </c>
@@ -5139,7 +5151,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>447</v>
       </c>
@@ -5147,7 +5159,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>211</v>
       </c>
@@ -5155,7 +5167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>448</v>
       </c>
@@ -5163,7 +5175,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>541</v>
       </c>
@@ -5171,7 +5183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>542</v>
       </c>
@@ -5179,7 +5191,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -5187,7 +5199,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>543</v>
       </c>
@@ -5195,7 +5207,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -5203,7 +5215,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5211,7 +5223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>449</v>
       </c>
@@ -5219,7 +5231,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5227,7 +5239,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>450</v>
       </c>
@@ -5235,7 +5247,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -5243,7 +5255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>451</v>
       </c>
@@ -5251,7 +5263,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>214</v>
       </c>
@@ -5259,7 +5271,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5267,7 +5279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>452</v>
       </c>
@@ -5275,7 +5287,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5283,7 +5295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>544</v>
       </c>
@@ -5291,7 +5303,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>453</v>
       </c>
@@ -5299,7 +5311,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>371</v>
       </c>
@@ -5307,7 +5319,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>545</v>
       </c>
@@ -5315,7 +5327,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -5331,7 +5343,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>314</v>
       </c>
@@ -5339,7 +5351,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>454</v>
       </c>
@@ -5347,7 +5359,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>372</v>
       </c>
@@ -5355,7 +5367,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>373</v>
       </c>
@@ -5363,7 +5375,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -5371,7 +5383,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>316</v>
       </c>
@@ -5379,7 +5391,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>546</v>
       </c>
@@ -5387,7 +5399,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>547</v>
       </c>
@@ -5395,7 +5407,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>317</v>
       </c>
@@ -5403,7 +5415,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>217</v>
       </c>
@@ -5411,7 +5423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>318</v>
       </c>
@@ -5419,7 +5431,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>264</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>218</v>
       </c>
@@ -5435,7 +5447,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>319</v>
       </c>
@@ -5443,7 +5455,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>455</v>
       </c>
@@ -5451,7 +5463,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>320</v>
       </c>
@@ -5459,7 +5471,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>374</v>
       </c>
@@ -5467,7 +5479,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -5475,7 +5487,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>548</v>
       </c>
@@ -5483,7 +5495,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>219</v>
       </c>
@@ -5491,7 +5503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5499,7 +5511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5507,7 +5519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>456</v>
       </c>
@@ -5523,7 +5535,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5531,7 +5543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>549</v>
       </c>
@@ -5539,7 +5551,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>457</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5555,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>550</v>
       </c>
@@ -5563,7 +5575,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5571,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>322</v>
       </c>
@@ -5579,7 +5591,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>458</v>
       </c>
@@ -5595,7 +5607,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>265</v>
       </c>
@@ -5603,7 +5615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5611,7 +5623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>220</v>
       </c>
@@ -5619,7 +5631,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5627,7 +5639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>551</v>
       </c>
@@ -5635,7 +5647,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>459</v>
       </c>
@@ -5643,7 +5655,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -5651,7 +5663,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5659,7 +5671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5667,7 +5679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>552</v>
       </c>
@@ -5675,7 +5687,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5683,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -5691,7 +5703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5699,7 +5711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>553</v>
       </c>
@@ -5707,7 +5719,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>554</v>
       </c>
@@ -5715,7 +5727,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>555</v>
       </c>
@@ -5723,7 +5735,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>325</v>
       </c>
@@ -5731,7 +5743,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>326</v>
       </c>
@@ -5739,7 +5751,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5747,7 +5759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>461</v>
       </c>
@@ -5755,7 +5767,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5763,7 +5775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>556</v>
       </c>
@@ -5771,7 +5783,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5779,7 +5791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5787,7 +5799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>557</v>
       </c>
@@ -5795,7 +5807,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>327</v>
       </c>
@@ -5803,7 +5815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>462</v>
       </c>
@@ -5811,7 +5823,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>266</v>
       </c>
@@ -5819,7 +5831,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -5827,7 +5839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>463</v>
       </c>
@@ -5835,7 +5847,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>375</v>
       </c>
@@ -5843,7 +5855,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>464</v>
       </c>
@@ -5851,7 +5863,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>328</v>
       </c>
@@ -5859,7 +5871,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>329</v>
       </c>
@@ -5867,7 +5879,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>330</v>
       </c>
@@ -5875,7 +5887,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>331</v>
       </c>
@@ -5883,7 +5895,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5891,7 +5903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>222</v>
       </c>
@@ -5899,7 +5911,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>465</v>
       </c>
@@ -5907,7 +5919,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>332</v>
       </c>
@@ -5915,7 +5927,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>466</v>
       </c>
@@ -5923,7 +5935,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>467</v>
       </c>
@@ -5931,7 +5943,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>105</v>
       </c>
@@ -5939,7 +5951,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>558</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>223</v>
       </c>
@@ -5955,7 +5967,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5963,7 +5975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>333</v>
       </c>
@@ -5971,7 +5983,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>224</v>
       </c>
@@ -5979,7 +5991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -5987,7 +5999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>225</v>
       </c>
@@ -5995,7 +6007,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -6003,7 +6015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>559</v>
       </c>
@@ -6011,7 +6023,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>334</v>
       </c>
@@ -6019,7 +6031,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>335</v>
       </c>
@@ -6027,7 +6039,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>336</v>
       </c>
@@ -6035,7 +6047,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>226</v>
       </c>
@@ -6043,7 +6055,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -6051,7 +6063,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>267</v>
       </c>
@@ -6059,7 +6071,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>383</v>
       </c>
@@ -6067,7 +6079,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>246</v>
       </c>
@@ -6075,7 +6087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>247</v>
       </c>
@@ -6083,7 +6095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6091,7 +6103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>471</v>
       </c>
@@ -6099,7 +6111,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>468</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6115,7 +6127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6123,7 +6135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>560</v>
       </c>
@@ -6131,7 +6143,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>338</v>
       </c>
@@ -6139,7 +6151,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>376</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>474</v>
       </c>
@@ -6155,7 +6167,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>351</v>
       </c>
@@ -6163,7 +6175,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>475</v>
       </c>
@@ -6171,7 +6183,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>476</v>
       </c>
@@ -6179,7 +6191,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>473</v>
       </c>
@@ -6187,7 +6199,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6195,7 +6207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6203,7 +6215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>245</v>
       </c>
@@ -6211,7 +6223,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -6219,7 +6231,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>561</v>
       </c>
@@ -6235,7 +6247,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6243,7 +6255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6251,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>378</v>
       </c>
@@ -6259,7 +6271,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6267,7 +6279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6275,7 +6287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>469</v>
       </c>
@@ -6283,7 +6295,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>470</v>
       </c>
@@ -6291,7 +6303,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>233</v>
       </c>
@@ -6299,7 +6311,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>379</v>
       </c>
@@ -6307,7 +6319,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>380</v>
       </c>
@@ -6315,7 +6327,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6323,7 +6335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>342</v>
       </c>
@@ -6331,7 +6343,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>381</v>
       </c>
@@ -6339,7 +6351,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6347,7 +6359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>234</v>
       </c>
@@ -6355,7 +6367,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>563</v>
       </c>
@@ -6363,7 +6375,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>382</v>
       </c>
@@ -6371,7 +6383,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>343</v>
       </c>
@@ -6379,7 +6391,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>344</v>
       </c>
@@ -6387,7 +6399,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -6395,7 +6407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>230</v>
       </c>
@@ -6403,7 +6415,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6411,7 +6423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6419,7 +6431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -6435,7 +6447,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>345</v>
       </c>
@@ -6443,7 +6455,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6451,7 +6463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -6459,7 +6471,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>384</v>
       </c>
@@ -6467,7 +6479,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>564</v>
       </c>
@@ -6475,7 +6487,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>565</v>
       </c>
@@ -6483,7 +6495,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>566</v>
       </c>
@@ -6491,7 +6503,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6499,7 +6511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>570</v>
       </c>
@@ -6515,7 +6527,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>240</v>
       </c>
@@ -6523,7 +6535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>569</v>
       </c>
@@ -6531,7 +6543,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6539,7 +6551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>568</v>
       </c>
@@ -6547,7 +6559,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>228</v>
       </c>
@@ -6555,7 +6567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>239</v>
       </c>
@@ -6563,7 +6575,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>567</v>
       </c>
@@ -6571,7 +6583,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>385</v>
       </c>
@@ -6579,7 +6591,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6587,7 +6599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>238</v>
       </c>
@@ -6595,7 +6607,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>348</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>347</v>
       </c>
@@ -6611,7 +6623,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>339</v>
       </c>
@@ -6619,7 +6631,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6627,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>346</v>
       </c>
@@ -6635,7 +6647,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>472</v>
       </c>
@@ -6643,7 +6655,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>340</v>
       </c>
@@ -6651,7 +6663,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -6659,7 +6671,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>350</v>
       </c>
@@ -6667,7 +6679,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>341</v>
       </c>
@@ -6675,7 +6687,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>241</v>
       </c>
@@ -6683,7 +6695,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>562</v>
       </c>
@@ -6691,7 +6703,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>377</v>
       </c>
@@ -6699,7 +6711,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6707,7 +6719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>229</v>
       </c>
@@ -6715,7 +6727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -6723,7 +6735,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>242</v>
       </c>
@@ -6731,7 +6743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>243</v>
       </c>
@@ -6739,7 +6751,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>349</v>
       </c>
@@ -6747,7 +6759,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>611</v>
       </c>
@@ -6755,7 +6767,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>386</v>
       </c>
@@ -6763,7 +6775,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6771,7 +6783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>248</v>
       </c>
@@ -6779,7 +6791,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>571</v>
       </c>
@@ -6787,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>572</v>
       </c>
@@ -6795,7 +6807,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>573</v>
       </c>
@@ -6803,7 +6815,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>574</v>
       </c>
@@ -6811,7 +6823,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>575</v>
       </c>
@@ -6819,7 +6831,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>576</v>
       </c>
@@ -6827,7 +6839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>577</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>578</v>
       </c>
@@ -6843,7 +6855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>579</v>
       </c>
@@ -6851,7 +6863,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>580</v>
       </c>
@@ -6859,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>581</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>583</v>
       </c>
@@ -6875,7 +6887,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>587</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>584</v>
       </c>
@@ -6891,7 +6903,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>585</v>
       </c>
@@ -6899,7 +6911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>586</v>
       </c>
@@ -6907,7 +6919,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>588</v>
       </c>
@@ -6915,7 +6927,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>589</v>
       </c>
@@ -6923,7 +6935,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>590</v>
       </c>
@@ -6931,7 +6943,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>591</v>
       </c>
@@ -6939,7 +6951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>592</v>
       </c>
@@ -6947,7 +6959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>593</v>
       </c>
@@ -6955,7 +6967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>594</v>
       </c>
@@ -6963,7 +6975,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>595</v>
       </c>
@@ -6971,7 +6983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>596</v>
       </c>
@@ -6979,7 +6991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>597</v>
       </c>
@@ -6987,7 +6999,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>598</v>
       </c>
@@ -6995,7 +7007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>599</v>
       </c>
@@ -7003,7 +7015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>600</v>
       </c>
@@ -7011,7 +7023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>601</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>602</v>
       </c>
@@ -7027,7 +7039,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>603</v>
       </c>
@@ -7035,7 +7047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>604</v>
       </c>
@@ -7043,7 +7055,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>605</v>
       </c>
@@ -7051,7 +7063,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>606</v>
       </c>
@@ -7059,7 +7071,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>607</v>
       </c>
@@ -7067,7 +7079,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>608</v>
       </c>
@@ -7075,7 +7087,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>609</v>
       </c>
@@ -7083,7 +7095,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>573</v>
       </c>
@@ -7091,7 +7103,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>610</v>
       </c>
@@ -7099,7 +7111,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>612</v>
       </c>
@@ -7107,7 +7119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>613</v>
       </c>
@@ -7115,7 +7127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>614</v>
       </c>
@@ -7123,7 +7135,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>615</v>
       </c>
@@ -7131,7 +7143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>616</v>
       </c>
@@ -7139,7 +7151,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>617</v>
       </c>
@@ -7147,7 +7159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>618</v>
       </c>
@@ -7155,11 +7167,43 @@
         <v>132</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>619</v>
       </c>
       <c r="B613" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>620</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>621</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>622</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>623</v>
+      </c>
+      <c r="B617" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10428"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2258,17 +2258,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A593" workbookViewId="0">
-      <selection activeCell="A618" sqref="A618:A619"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="I604" sqref="I604"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>387</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>477</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>479</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>480</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>481</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>482</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>483</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>484</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>485</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>486</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>352</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>487</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>488</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>273</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>274</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>489</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>490</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>491</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>389</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>492</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>391</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>252</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>493</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>494</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>392</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>355</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>356</v>
       </c>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>357</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>393</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>394</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>495</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>253</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>281</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>142</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>395</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>283</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>496</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>145</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>27</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>497</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>498</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>358</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>359</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>396</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>148</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>397</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>150</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>398</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>499</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>286</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>287</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>151</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>500</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>501</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>502</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>289</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>152</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>290</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>399</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>400</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>291</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>292</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>503</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>504</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>505</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>360</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>401</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>361</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>506</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>403</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>404</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>34</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>154</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>362</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>38</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>39</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>405</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>295</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>296</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>406</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>297</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>407</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>408</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>507</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>508</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>363</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>160</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>161</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>409</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>410</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>411</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>412</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>413</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>414</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>47</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>415</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>416</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>417</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>257</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>418</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>364</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>419</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>420</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>421</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>422</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>423</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>424</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>425</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>426</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>427</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>428</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>429</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>430</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>509</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>431</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>432</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>162</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>50</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>298</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>510</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>433</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>511</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>512</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>164</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>434</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>435</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>301</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>166</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>167</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>168</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>513</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>436</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>514</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>169</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>258</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>170</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>171</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>302</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>56</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>515</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>437</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>172</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>438</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>59</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>173</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>174</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>175</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>516</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>517</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>518</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>176</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>177</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>178</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>179</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>519</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>180</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>60</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>61</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>62</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>439</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>259</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>181</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>182</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>183</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>64</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>520</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>66</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>67</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>185</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>186</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>187</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>521</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>188</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>69</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>305</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>70</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>189</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>522</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>523</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>524</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>365</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>191</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>193</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>525</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>194</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>526</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>366</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>195</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>527</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>528</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>196</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>529</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>367</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>368</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>530</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>197</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>260</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>440</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>74</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>198</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>199</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>200</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>76</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>77</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>307</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>201</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>202</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>203</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>531</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>204</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>205</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>308</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>206</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>532</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>533</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>441</v>
       </c>
@@ -4911,15 +4911,15 @@
         <v>388</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>534</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>79</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>535</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>442</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>443</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>536</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>80</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>537</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>309</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>261</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>262</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>538</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>81</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>310</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>311</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>82</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>207</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>444</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>445</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>83</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>208</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>312</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>209</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>210</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>313</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>369</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>539</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>370</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>540</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>446</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>447</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>211</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>448</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>541</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>542</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>212</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>543</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>213</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>449</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>85</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>450</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>263</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>451</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>214</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>86</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>452</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>544</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>453</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>371</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>545</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>215</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>216</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>314</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>454</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>372</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>373</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>316</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>546</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>547</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>317</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>217</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>318</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>264</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>218</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>319</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>455</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>320</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>374</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>321</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>548</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>219</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>456</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>91</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>549</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>457</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>92</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>550</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>93</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>322</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>323</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>458</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>265</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>94</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>220</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>95</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>551</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>459</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>96</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>97</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>552</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>98</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>99</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>553</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>554</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>555</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>325</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>326</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>100</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>461</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>101</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>556</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>102</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>103</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>557</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>327</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>462</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>266</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>463</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>375</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>464</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>328</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>329</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>330</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>331</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>104</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>222</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>465</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>332</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>466</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>467</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>105</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>558</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>223</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>106</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>333</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>224</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>107</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>225</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>108</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>559</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>334</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>335</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>336</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>226</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>337</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>267</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>383</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>246</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>247</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>109</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>471</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>468</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>110</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>111</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>560</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>338</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>376</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>474</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>351</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>475</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>476</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>473</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>112</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>115</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>245</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>227</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>561</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>113</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>114</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>378</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>118</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>469</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>470</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>233</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>379</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>380</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>123</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>342</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>381</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>124</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>234</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>563</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>382</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>343</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>344</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>230</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>120</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>122</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>232</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>345</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>125</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>235</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>384</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>564</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>565</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>566</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>126</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>127</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>570</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>240</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>569</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>116</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>568</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>228</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>239</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>567</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>385</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>129</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>238</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>348</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>347</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>339</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>128</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>346</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>472</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>340</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>237</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>350</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>341</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>241</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>562</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>377</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>117</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>229</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>236</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>242</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>243</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>349</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>611</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>386</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>130</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>248</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>571</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>572</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>573</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>574</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>575</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>576</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>577</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>578</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>579</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>580</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>581</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>583</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>587</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>584</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>585</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>586</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>588</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>589</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>590</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>591</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>592</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>593</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>594</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>595</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>596</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>597</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>598</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>599</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>600</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>601</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>602</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>603</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>604</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>605</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>606</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>607</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>608</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>609</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>573</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>610</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>612</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>613</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>614</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>615</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>616</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>617</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>618</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>619</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>620</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>621</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>622</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>623</v>
       </c>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="626">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1894,6 +1894,12 @@
   </si>
   <si>
     <t>A0100548</t>
+  </si>
+  <si>
+    <t>A0100550</t>
+  </si>
+  <si>
+    <t>A0100551</t>
   </si>
 </sst>
 </file>
@@ -2256,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F617"/>
+  <dimension ref="A1:F619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="I604" sqref="I604"/>
+    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="F580" sqref="F580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,7 +3426,7 @@
         <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3434,7 @@
         <v>155</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5050,7 @@
         <v>207</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -7205,6 +7211,22 @@
       </c>
       <c r="B617" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>625</v>
+      </c>
+      <c r="B618" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>624</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$613</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="649">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1900,6 +1900,75 @@
   </si>
   <si>
     <t>A0100551</t>
+  </si>
+  <si>
+    <t>A0100552</t>
+  </si>
+  <si>
+    <t>A0100553</t>
+  </si>
+  <si>
+    <t>A0100554</t>
+  </si>
+  <si>
+    <t>A0100555</t>
+  </si>
+  <si>
+    <t>A0100556</t>
+  </si>
+  <si>
+    <t>A0100557</t>
+  </si>
+  <si>
+    <t>A0100558</t>
+  </si>
+  <si>
+    <t>A0100559</t>
+  </si>
+  <si>
+    <t>A0100561</t>
+  </si>
+  <si>
+    <t>A0100562</t>
+  </si>
+  <si>
+    <t>A0100563</t>
+  </si>
+  <si>
+    <t>A0100564</t>
+  </si>
+  <si>
+    <t>A0100565</t>
+  </si>
+  <si>
+    <t>A0100566</t>
+  </si>
+  <si>
+    <t>A0100567</t>
+  </si>
+  <si>
+    <t>A0100568</t>
+  </si>
+  <si>
+    <t>A0100569</t>
+  </si>
+  <si>
+    <t>A0100570</t>
+  </si>
+  <si>
+    <t>A0100571</t>
+  </si>
+  <si>
+    <t>A0100572</t>
+  </si>
+  <si>
+    <t>A0100573</t>
+  </si>
+  <si>
+    <t>A0100574</t>
+  </si>
+  <si>
+    <t>A0100549</t>
   </si>
 </sst>
 </file>
@@ -2262,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F619"/>
+  <dimension ref="A1:F643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="F580" sqref="F580"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="D536" sqref="D536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,15 +4148,15 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>167</v>
+        <v>579</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>132</v>
@@ -4095,63 +4164,63 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>513</v>
+        <v>168</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>436</v>
+        <v>513</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>514</v>
+        <v>436</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>169</v>
+        <v>514</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>132</v>
@@ -4159,23 +4228,23 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>302</v>
+        <v>171</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>3</v>
@@ -4183,71 +4252,71 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>515</v>
+        <v>57</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>437</v>
+        <v>515</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>172</v>
+        <v>437</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>438</v>
+        <v>58</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>303</v>
+        <v>438</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>132</v>
@@ -4255,7 +4324,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>132</v>
@@ -4263,15 +4332,15 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>516</v>
+        <v>175</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>478</v>
@@ -4279,7 +4348,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>478</v>
@@ -4287,15 +4356,15 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>132</v>
@@ -4303,7 +4372,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>132</v>
@@ -4311,7 +4380,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>132</v>
@@ -4319,39 +4388,39 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>519</v>
+        <v>179</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>3</v>
@@ -4359,55 +4428,55 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>62</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>3</v>
+        <v>581</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>439</v>
+        <v>61</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>132</v>
@@ -4415,31 +4484,31 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>520</v>
+        <v>63</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>3</v>
@@ -4447,15 +4516,15 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>66</v>
+        <v>520</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>3</v>
@@ -4463,15 +4532,15 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>185</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>582</v>
+        <v>66</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>3</v>
@@ -4479,31 +4548,31 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>186</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>132</v>
+        <v>185</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>521</v>
+        <v>186</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>132</v>
@@ -4511,23 +4580,23 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>69</v>
+        <v>521</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>3</v>
@@ -4535,23 +4604,23 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>522</v>
+        <v>70</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>132</v>
@@ -4559,63 +4628,63 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>524</v>
+        <v>190</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>365</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>582</v>
+        <v>523</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>191</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>132</v>
+        <v>589</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>192</v>
+        <v>524</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>193</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>132</v>
+        <v>365</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>525</v>
+        <v>191</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>132</v>
@@ -4623,15 +4692,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>478</v>
@@ -4639,23 +4708,23 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>366</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>582</v>
+        <v>194</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>478</v>
@@ -4663,31 +4732,31 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>72</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>3</v>
+        <v>366</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>528</v>
+        <v>195</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>196</v>
+        <v>580</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>478</v>
@@ -4695,103 +4764,103 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>367</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>582</v>
+        <v>72</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>368</v>
+        <v>528</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>530</v>
+        <v>196</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>529</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>197</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>132</v>
+        <v>367</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>73</v>
+        <v>368</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>250</v>
+        <v>478</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>440</v>
+        <v>306</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>3</v>
@@ -4799,63 +4868,63 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>531</v>
+        <v>307</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>478</v>
+        <v>269</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>132</v>
@@ -4863,7 +4932,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>132</v>
@@ -4871,63 +4940,63 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>206</v>
+        <v>531</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>532</v>
+        <v>204</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>533</v>
+        <v>308</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>478</v>
+        <v>269</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>441</v>
+        <v>206</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>3</v>
@@ -4935,7 +5004,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>478</v>
@@ -4943,7 +5012,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>388</v>
@@ -4951,63 +5020,63 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>80</v>
+        <v>535</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>309</v>
+        <v>443</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>261</v>
+        <v>536</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>250</v>
+        <v>478</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>478</v>
@@ -5015,63 +5084,63 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>444</v>
+        <v>310</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>445</v>
+        <v>311</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>3</v>
@@ -5079,127 +5148,127 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>312</v>
+        <v>444</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>209</v>
+        <v>445</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>369</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>582</v>
+        <v>312</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>539</v>
+        <v>209</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>370</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>582</v>
+        <v>210</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>540</v>
+        <v>313</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>478</v>
+        <v>269</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>446</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>388</v>
+        <v>369</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>211</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>132</v>
+        <v>370</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>541</v>
+        <v>446</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>542</v>
+        <v>447</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>132</v>
@@ -5207,63 +5276,63 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>543</v>
+        <v>448</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>213</v>
+        <v>541</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>84</v>
+        <v>542</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>449</v>
+        <v>212</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>85</v>
+        <v>543</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>450</v>
+        <v>213</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>263</v>
+        <v>84</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>388</v>
@@ -5271,119 +5340,119 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>86</v>
+        <v>450</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>452</v>
+        <v>263</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>388</v>
+        <v>250</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>87</v>
+        <v>451</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>544</v>
+        <v>214</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>371</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>582</v>
+        <v>452</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>545</v>
+        <v>87</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>215</v>
+        <v>544</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>216</v>
+        <v>453</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>314</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>269</v>
+        <v>371</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>372</v>
-      </c>
-      <c r="B387" s="5" t="s">
-        <v>582</v>
+        <v>215</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>373</v>
-      </c>
-      <c r="B388" s="5" t="s">
-        <v>582</v>
+        <v>216</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>269</v>
@@ -5391,31 +5460,31 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>316</v>
+        <v>454</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>546</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>478</v>
+        <v>372</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>547</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>478</v>
+        <v>373</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>269</v>
@@ -5423,71 +5492,71 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>318</v>
+        <v>546</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>264</v>
+        <v>547</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>250</v>
+        <v>478</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>319</v>
+        <v>217</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>455</v>
+        <v>318</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>374</v>
-      </c>
-      <c r="B401" s="5" t="s">
-        <v>582</v>
+        <v>218</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>269</v>
@@ -5495,55 +5564,55 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>548</v>
+        <v>455</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>88</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>3</v>
+        <v>374</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>89</v>
+        <v>321</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>90</v>
+        <v>548</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>456</v>
+        <v>219</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>3</v>
@@ -5551,127 +5620,127 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>549</v>
+        <v>89</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>457</v>
+        <v>90</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>92</v>
+        <v>456</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>550</v>
+        <v>91</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>93</v>
+        <v>549</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>94</v>
+        <v>322</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>95</v>
+        <v>458</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>551</v>
+        <v>265</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>478</v>
+        <v>250</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>459</v>
+        <v>94</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>460</v>
+        <v>220</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>3</v>
@@ -5679,39 +5748,39 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>97</v>
+        <v>551</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>552</v>
+        <v>459</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>98</v>
+        <v>460</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>3</v>
@@ -5719,7 +5788,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>478</v>
@@ -5727,71 +5796,71 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>554</v>
+        <v>98</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>555</v>
+        <v>324</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>478</v>
+        <v>269</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>326</v>
+        <v>553</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>100</v>
+        <v>554</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>556</v>
+        <v>326</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>478</v>
+        <v>269</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>3</v>
@@ -5799,71 +5868,71 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>103</v>
+        <v>461</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>557</v>
+        <v>101</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>327</v>
+        <v>609</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>462</v>
+        <v>556</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>375</v>
-      </c>
-      <c r="B448" s="5" t="s">
-        <v>582</v>
+        <v>327</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>388</v>
@@ -5871,151 +5940,151 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>330</v>
+        <v>463</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>331</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>269</v>
+        <v>375</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>104</v>
+        <v>464</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>465</v>
+        <v>329</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>332</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>250</v>
+        <v>330</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>466</v>
+        <v>331</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>467</v>
+        <v>104</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>558</v>
+        <v>465</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>223</v>
-      </c>
-      <c r="B462" s="5" t="s">
-        <v>582</v>
+        <v>332</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>106</v>
+        <v>466</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>107</v>
+        <v>558</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>225</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>132</v>
+        <v>223</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>3</v>
@@ -6023,135 +6092,135 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>559</v>
+        <v>333</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>478</v>
+        <v>269</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>335</v>
+        <v>571</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>336</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>269</v>
+        <v>572</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>226</v>
+        <v>573</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>337</v>
+        <v>573</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>383</v>
-      </c>
-      <c r="B476" s="5" t="s">
-        <v>582</v>
+        <v>225</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>247</v>
+        <v>559</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>109</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>3</v>
+        <v>574</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>471</v>
+        <v>334</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>468</v>
+        <v>335</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>110</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>3</v>
+        <v>575</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>111</v>
+        <v>336</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>560</v>
+        <v>226</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>269</v>
@@ -6159,103 +6228,103 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>376</v>
-      </c>
-      <c r="B486" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>474</v>
+        <v>267</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>388</v>
+        <v>250</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>351</v>
+        <v>576</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>476</v>
+        <v>583</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>473</v>
+        <v>584</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>112</v>
+        <v>585</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>3</v>
+        <v>250</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>115</v>
+        <v>586</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>245</v>
+        <v>590</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>244</v>
+        <v>587</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>227</v>
+        <v>599</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>113</v>
+        <v>592</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>3</v>
@@ -6263,7 +6332,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>114</v>
+        <v>593</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>3</v>
@@ -6271,47 +6340,47 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>378</v>
-      </c>
-      <c r="B500" s="5" t="s">
-        <v>582</v>
+        <v>594</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>118</v>
+        <v>595</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>119</v>
+        <v>596</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>469</v>
+        <v>597</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>470</v>
+        <v>598</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>233</v>
+        <v>600</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>132</v>
@@ -6319,23 +6388,23 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>379</v>
-      </c>
-      <c r="B506" s="5" t="s">
-        <v>582</v>
+        <v>601</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>380</v>
-      </c>
-      <c r="B507" s="5" t="s">
-        <v>582</v>
+        <v>602</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>123</v>
+        <v>603</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>3</v>
@@ -6343,39 +6412,39 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>342</v>
+        <v>604</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>381</v>
-      </c>
-      <c r="B510" s="5" t="s">
-        <v>582</v>
+        <v>605</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>124</v>
-      </c>
-      <c r="B511" s="2" t="s">
-        <v>3</v>
+        <v>606</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>234</v>
+        <v>607</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>478</v>
@@ -6383,7 +6452,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>382</v>
+        <v>610</v>
       </c>
       <c r="B514" s="5" t="s">
         <v>582</v>
@@ -6391,23 +6460,23 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>343</v>
+        <v>612</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>344</v>
+        <v>613</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>231</v>
+        <v>614</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>132</v>
@@ -6415,263 +6484,222 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>230</v>
+        <v>615</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>120</v>
+        <v>616</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>121</v>
+        <v>617</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>122</v>
+        <v>618</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>232</v>
+        <v>619</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>345</v>
+        <v>620</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>125</v>
+        <v>621</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>235</v>
+        <v>622</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>384</v>
-      </c>
-      <c r="B526" s="5" t="s">
-        <v>582</v>
+        <v>623</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>565</v>
+        <v>624</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>566</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>126</v>
-      </c>
-      <c r="B530" s="2" t="s">
-        <v>3</v>
+        <v>625</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>127</v>
+        <v>626</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>570</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>478</v>
+        <v>627</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>240</v>
-      </c>
-      <c r="B533" s="2" t="s">
-        <v>132</v>
+        <v>628</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>569</v>
+        <v>629</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>116</v>
-      </c>
-      <c r="B535" s="2" t="s">
-        <v>3</v>
+        <v>630</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>228</v>
-      </c>
-      <c r="B537" s="2" t="s">
-        <v>132</v>
+        <v>632</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>239</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>132</v>
+        <v>633</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>567</v>
-      </c>
-      <c r="B539" s="2" t="s">
-        <v>478</v>
+        <v>634</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>385</v>
-      </c>
-      <c r="B540" s="5" t="s">
-        <v>582</v>
+        <v>635</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>129</v>
-      </c>
-      <c r="B541" s="2" t="s">
-        <v>3</v>
+        <v>636</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>238</v>
+        <v>637</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>348</v>
+        <v>638</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>347</v>
-      </c>
-      <c r="B544" s="2" t="s">
-        <v>269</v>
+        <v>639</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>339</v>
-      </c>
-      <c r="B545" s="2" t="s">
-        <v>269</v>
+        <v>640</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>128</v>
+        <v>641</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>346</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>269</v>
+        <v>642</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>472</v>
+        <v>643</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>340</v>
-      </c>
-      <c r="B549" s="2" t="s">
-        <v>269</v>
+        <v>644</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>237</v>
+        <v>645</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>132</v>
@@ -6679,7 +6707,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>350</v>
+        <v>646</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>269</v>
@@ -6687,39 +6715,36 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>341</v>
-      </c>
-      <c r="B552" s="2" t="s">
-        <v>269</v>
+        <v>647</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>241</v>
-      </c>
-      <c r="B553" s="2" t="s">
-        <v>132</v>
+        <v>383</v>
+      </c>
+      <c r="B553" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>562</v>
+        <v>246</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>377</v>
-      </c>
-      <c r="B555" s="5" t="s">
-        <v>582</v>
+        <v>247</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>3</v>
@@ -6727,47 +6752,47 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>229</v>
+        <v>471</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>236</v>
+        <v>468</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>349</v>
+        <v>560</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>611</v>
+        <v>338</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>269</v>
@@ -6775,7 +6800,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B563" s="5" t="s">
         <v>582</v>
@@ -6783,71 +6808,71 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>130</v>
+        <v>474</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>571</v>
+        <v>475</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>572</v>
-      </c>
-      <c r="B567" s="5" t="s">
-        <v>582</v>
+        <v>476</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>574</v>
-      </c>
-      <c r="B569" s="5" t="s">
-        <v>582</v>
+        <v>112</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>575</v>
-      </c>
-      <c r="B570" s="5" t="s">
-        <v>582</v>
+        <v>115</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>576</v>
+        <v>245</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>577</v>
+        <v>244</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>132</v>
@@ -6855,7 +6880,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>578</v>
+        <v>227</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>132</v>
@@ -6863,7 +6888,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>478</v>
@@ -6871,7 +6896,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>580</v>
+        <v>113</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>3</v>
@@ -6879,87 +6904,87 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>581</v>
-      </c>
-      <c r="B576" s="5" t="s">
-        <v>582</v>
+        <v>114</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>583</v>
-      </c>
-      <c r="B577" s="2" t="s">
-        <v>478</v>
+        <v>378</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>587</v>
+        <v>118</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>584</v>
+        <v>119</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>585</v>
+        <v>469</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>250</v>
+        <v>388</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>588</v>
+        <v>470</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>132</v>
+        <v>388</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>589</v>
-      </c>
-      <c r="B583" s="5" t="s">
-        <v>582</v>
+        <v>233</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>590</v>
-      </c>
-      <c r="B584" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>591</v>
-      </c>
-      <c r="B585" s="2" t="s">
-        <v>3</v>
+        <v>380</v>
+      </c>
+      <c r="B585" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>592</v>
+        <v>123</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>3</v>
@@ -6967,31 +6992,31 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>593</v>
+        <v>342</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>594</v>
-      </c>
-      <c r="B588" s="2" t="s">
-        <v>478</v>
+        <v>381</v>
+      </c>
+      <c r="B588" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>595</v>
+        <v>124</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>596</v>
+        <v>234</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>132</v>
@@ -6999,55 +7024,55 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>598</v>
-      </c>
-      <c r="B592" s="2" t="s">
-        <v>3</v>
+        <v>382</v>
+      </c>
+      <c r="B592" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>599</v>
+        <v>343</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>600</v>
+        <v>344</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>601</v>
+        <v>231</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>602</v>
+        <v>230</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>603</v>
+        <v>120</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>3</v>
@@ -7055,31 +7080,31 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>604</v>
+        <v>121</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>388</v>
+        <v>3</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>605</v>
+        <v>122</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>606</v>
-      </c>
-      <c r="B600" s="5" t="s">
-        <v>582</v>
+        <v>232</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>607</v>
+        <v>345</v>
       </c>
       <c r="B601" s="2" t="s">
         <v>269</v>
@@ -7087,63 +7112,63 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>608</v>
+        <v>125</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>609</v>
+        <v>235</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>573</v>
-      </c>
-      <c r="B604" s="2" t="s">
-        <v>478</v>
+        <v>384</v>
+      </c>
+      <c r="B604" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>610</v>
-      </c>
-      <c r="B605" s="5" t="s">
-        <v>582</v>
+        <v>564</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>614</v>
+        <v>126</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>615</v>
+        <v>127</v>
       </c>
       <c r="B609" s="2" t="s">
         <v>3</v>
@@ -7151,7 +7176,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="B610" s="2" t="s">
         <v>478</v>
@@ -7159,7 +7184,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>617</v>
+        <v>240</v>
       </c>
       <c r="B611" s="2" t="s">
         <v>132</v>
@@ -7167,15 +7192,15 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>618</v>
+        <v>569</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>619</v>
+        <v>116</v>
       </c>
       <c r="B613" s="2" t="s">
         <v>3</v>
@@ -7183,39 +7208,39 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>621</v>
+        <v>228</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>622</v>
+        <v>239</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>623</v>
+        <v>567</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>3</v>
+        <v>478</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>625</v>
+        <v>385</v>
       </c>
       <c r="B618" s="5" t="s">
         <v>582</v>
@@ -7223,14 +7248,210 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>624</v>
+        <v>129</v>
       </c>
       <c r="B619" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>238</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>348</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>347</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>339</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>128</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>346</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>472</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>340</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>237</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>350</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>341</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>241</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>562</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>377</v>
+      </c>
+      <c r="B633" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>117</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>229</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>236</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>242</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>243</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>349</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>611</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>386</v>
+      </c>
+      <c r="B641" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>130</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>248</v>
+      </c>
+      <c r="B643" s="2" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B613"/>
+  <autoFilter ref="A1:B613">
+    <sortState ref="A2:B643">
+      <sortCondition ref="A1:A613"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$613</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateCount="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="651">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1969,6 +1969,12 @@
   </si>
   <si>
     <t>A0100549</t>
+  </si>
+  <si>
+    <t>A0100578</t>
+  </si>
+  <si>
+    <t>A0100577</t>
   </si>
 </sst>
 </file>
@@ -2331,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F643"/>
+  <dimension ref="A1:F644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="D536" sqref="D536"/>
+    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
+      <selection activeCell="C553" sqref="C553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4423,7 +4429,7 @@
         <v>60</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -6578,6 +6584,14 @@
         <v>582</v>
       </c>
     </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>649</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>626</v>
@@ -6590,11 +6604,17 @@
       <c r="A532" t="s">
         <v>627</v>
       </c>
+      <c r="B532" s="2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>628</v>
       </c>
+      <c r="B533" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
@@ -6626,11 +6646,17 @@
       <c r="A538" t="s">
         <v>633</v>
       </c>
+      <c r="B538" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>634</v>
       </c>
+      <c r="B539" s="2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
@@ -6644,6 +6670,9 @@
       <c r="A541" t="s">
         <v>636</v>
       </c>
+      <c r="B541" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
@@ -6670,6 +6699,9 @@
       <c r="A545" t="s">
         <v>640</v>
       </c>
+      <c r="B545" s="2" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
@@ -6696,6 +6728,9 @@
       <c r="A549" t="s">
         <v>644</v>
       </c>
+      <c r="B549" s="2" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
@@ -6717,6 +6752,9 @@
       <c r="A552" t="s">
         <v>647</v>
       </c>
+      <c r="B552" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
@@ -7444,6 +7482,14 @@
       </c>
       <c r="B643" s="2" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>650</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$613</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$648</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="656">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -1975,13 +1975,28 @@
   </si>
   <si>
     <t>A0100577</t>
+  </si>
+  <si>
+    <t>A0100579</t>
+  </si>
+  <si>
+    <t>A0100580</t>
+  </si>
+  <si>
+    <t>A0100575</t>
+  </si>
+  <si>
+    <t>A0100560</t>
+  </si>
+  <si>
+    <t>A0100433</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1993,6 +2008,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2018,7 +2040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2032,6 +2054,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2337,16 +2362,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F644"/>
+  <dimension ref="A1:F649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
-      <selection activeCell="C553" sqref="C553"/>
+    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
+      <selection activeCell="G639" sqref="G639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2667,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2689,8 +2714,8 @@
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>3</v>
+      <c r="B43" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,32 +2738,32 @@
       <c r="A46" t="s">
         <v>492</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>478</v>
+      <c r="B46" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>3</v>
+      <c r="B47" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
+      <c r="B48" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>3</v>
+      <c r="B49" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,8 +2786,8 @@
       <c r="A52" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>3</v>
+      <c r="B52" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2785,8 +2810,8 @@
       <c r="A55" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
+      <c r="B55" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,8 +2850,8 @@
       <c r="A60" t="s">
         <v>493</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>478</v>
+      <c r="B60" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3109,7 +3134,7 @@
         <v>27</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,8 +4173,8 @@
       <c r="A225" t="s">
         <v>54</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>3</v>
+      <c r="B225" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,8 +4205,8 @@
       <c r="A229" t="s">
         <v>513</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>478</v>
+      <c r="B229" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,8 +4293,8 @@
       <c r="A240" t="s">
         <v>515</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>478</v>
+      <c r="B240" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,16 +4541,16 @@
       <c r="A271" t="s">
         <v>64</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>3</v>
+      <c r="B271" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>520</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>478</v>
+      <c r="B272" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4604,8 +4629,8 @@
       <c r="A282" t="s">
         <v>69</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>3</v>
+      <c r="B282" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,8 +4869,8 @@
       <c r="A312" t="s">
         <v>73</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>3</v>
+      <c r="B312" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,8 +4933,8 @@
       <c r="A320" t="s">
         <v>76</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>3</v>
+      <c r="B320" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,8 +5029,8 @@
       <c r="A332" t="s">
         <v>78</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>3</v>
+      <c r="B332" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,8 +5173,8 @@
       <c r="A350" t="s">
         <v>82</v>
       </c>
-      <c r="B350" s="2" t="s">
-        <v>3</v>
+      <c r="B350" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5412,8 +5437,8 @@
       <c r="A383" t="s">
         <v>544</v>
       </c>
-      <c r="B383" s="2" t="s">
-        <v>478</v>
+      <c r="B383" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5516,8 +5541,8 @@
       <c r="A396" t="s">
         <v>547</v>
       </c>
-      <c r="B396" s="2" t="s">
-        <v>478</v>
+      <c r="B396" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5604,8 +5629,8 @@
       <c r="A407" t="s">
         <v>548</v>
       </c>
-      <c r="B407" s="2" t="s">
-        <v>478</v>
+      <c r="B407" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5628,16 +5653,16 @@
       <c r="A410" t="s">
         <v>89</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>3</v>
+      <c r="B410" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>90</v>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>3</v>
+      <c r="B411" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5676,8 +5701,8 @@
       <c r="A416" t="s">
         <v>92</v>
       </c>
-      <c r="B416" s="2" t="s">
-        <v>3</v>
+      <c r="B416" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,8 +5717,8 @@
       <c r="A418" t="s">
         <v>93</v>
       </c>
-      <c r="B418" s="2" t="s">
-        <v>3</v>
+      <c r="B418" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,8 +5853,8 @@
       <c r="A435" t="s">
         <v>553</v>
       </c>
-      <c r="B435" s="2" t="s">
-        <v>478</v>
+      <c r="B435" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5908,8 +5933,8 @@
       <c r="A445" t="s">
         <v>102</v>
       </c>
-      <c r="B445" s="2" t="s">
-        <v>3</v>
+      <c r="B445" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,8 +6101,8 @@
       <c r="A466" t="s">
         <v>558</v>
       </c>
-      <c r="B466" s="2" t="s">
-        <v>478</v>
+      <c r="B466" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,8 +6333,8 @@
       <c r="A495" t="s">
         <v>587</v>
       </c>
-      <c r="B495" s="2" t="s">
-        <v>478</v>
+      <c r="B495" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6477,7 +6502,7 @@
         <v>613</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,8 +6581,8 @@
       <c r="A526" t="s">
         <v>623</v>
       </c>
-      <c r="B526" s="2" t="s">
-        <v>3</v>
+      <c r="B526" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6628,6 +6653,9 @@
       <c r="A535" t="s">
         <v>630</v>
       </c>
+      <c r="B535" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
@@ -6641,6 +6669,9 @@
       <c r="A537" t="s">
         <v>632</v>
       </c>
+      <c r="B537" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
@@ -6694,6 +6725,9 @@
       <c r="A544" t="s">
         <v>639</v>
       </c>
+      <c r="B544" s="6">
+        <v>-1001658588996</v>
+      </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
@@ -7176,8 +7210,8 @@
       <c r="A605" t="s">
         <v>564</v>
       </c>
-      <c r="B605" s="2" t="s">
-        <v>478</v>
+      <c r="B605" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7240,16 +7274,16 @@
       <c r="A613" t="s">
         <v>116</v>
       </c>
-      <c r="B613" s="2" t="s">
-        <v>3</v>
+      <c r="B613" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>568</v>
       </c>
-      <c r="B614" s="2" t="s">
-        <v>478</v>
+      <c r="B614" s="6">
+        <v>-1001658588996</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7492,8 +7526,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>651</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>652</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>653</v>
+      </c>
+      <c r="B647" s="6">
+        <v>-1001658588996</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>654</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>655</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B613">
+  <autoFilter ref="A1:B648">
     <sortState ref="A2:B643">
       <sortCondition ref="A1:A613"/>
     </sortState>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$648</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateCount="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
-      <selection activeCell="G639" sqref="G639"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,7 +2723,7 @@
         <v>139</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="F495" sqref="F495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/chat_id.xlsx
+++ b/chat_id.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="656">
   <si>
     <t>ATM_ID</t>
   </si>
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="F495" sqref="F495"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,15 +2435,15 @@
         <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>132</v>
+      <c r="B9" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,6 +6748,9 @@
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>642</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
